--- a/input_files/Metro_topology_full_Tokyo.xlsx
+++ b/input_files/Metro_topology_full_Tokyo.xlsx
@@ -1,15 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nataliakoneva/Documents/4672065 2/input_files/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17C1F993-3491-E54D-8169-9AE6B54ACE4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Nodes" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Links" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="Services" sheetId="3" r:id="rId6"/>
+    <sheet name="Nodes" sheetId="1" r:id="rId1"/>
+    <sheet name="Links" sheetId="2" r:id="rId2"/>
+    <sheet name="Services" sheetId="3" r:id="rId3"/>
+    <sheet name="EquipmentCost" sheetId="4" r:id="rId4"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataChecksum="X6SLES17gC6iaU0vRy2lSpH981HdavQR+62s1x51RVo="/>
     </ext>
@@ -18,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="87">
   <si>
     <t>node_name</t>
   </si>
@@ -169,79 +187,229 @@
   <si>
     <t>CWB</t>
   </si>
+  <si>
+    <t>traffic_dependent</t>
+  </si>
+  <si>
+    <t>basic</t>
+  </si>
+  <si>
+    <t>AMEN_Cost_servers</t>
+  </si>
+  <si>
+    <t>CU</t>
+  </si>
+  <si>
+    <t>AMEN_Cost_NAS</t>
+  </si>
+  <si>
+    <t>AMEN_Cost_Switches</t>
+  </si>
+  <si>
+    <t>AMEN_Cost_10Gplugg</t>
+  </si>
+  <si>
+    <t>AMEN_Cost_10G</t>
+  </si>
+  <si>
+    <t>AMEN_Cost_100G</t>
+  </si>
+  <si>
+    <t>AMEN_Cost_Switch</t>
+  </si>
+  <si>
+    <t>MCEN_Cost_servers</t>
+  </si>
+  <si>
+    <t>MCEN_Cost_NAS</t>
+  </si>
+  <si>
+    <t>MCEN_Cost_Switches</t>
+  </si>
+  <si>
+    <t>MCEN_Cost_10Gplugg</t>
+  </si>
+  <si>
+    <t>MCEN_Cost_10G</t>
+  </si>
+  <si>
+    <t>MCEN_Cost_100G</t>
+  </si>
+  <si>
+    <t>MCEN_Cost_Switch</t>
+  </si>
+  <si>
+    <t>AMEN_Power_servers</t>
+  </si>
+  <si>
+    <t>AMEN_Power_NAS</t>
+  </si>
+  <si>
+    <t>AMEN_Power_Switches</t>
+  </si>
+  <si>
+    <t>AMEN_Power_10Gplugg</t>
+  </si>
+  <si>
+    <t>AMEN_Power_10</t>
+  </si>
+  <si>
+    <t>AMEN_Power_100G</t>
+  </si>
+  <si>
+    <t>AMEN_Power_Switch</t>
+  </si>
+  <si>
+    <t>MCEN_Power_servers</t>
+  </si>
+  <si>
+    <t>MCEN_Power_NAS</t>
+  </si>
+  <si>
+    <t>MCEN_Power_Switches</t>
+  </si>
+  <si>
+    <t>MCEN_Power_10Gplugg</t>
+  </si>
+  <si>
+    <t>MCEN_Power_10G</t>
+  </si>
+  <si>
+    <t>MCEN_Power_100G</t>
+  </si>
+  <si>
+    <t>MCEN_Power_Switch</t>
+  </si>
+  <si>
+    <t>AMEN_CPUs</t>
+  </si>
+  <si>
+    <t>CPU</t>
+  </si>
+  <si>
+    <t>MCEN_CPUs</t>
+  </si>
+  <si>
+    <t>AMEN_TB</t>
+  </si>
+  <si>
+    <t>TB</t>
+  </si>
+  <si>
+    <t>MCEN_TB</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="#,##0.000000"/>
+    <numFmt numFmtId="165" formatCode="0.00000000"/>
+  </numFmts>
+  <fonts count="6">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Google Sans"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor theme="9"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="12">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -431,23 +599,23 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="26" width="10.71"/>
+    <col min="1" max="26" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -482,7 +650,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -502,13 +670,13 @@
         <v>11</v>
       </c>
       <c r="G2" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H2" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>57.0</v>
+        <v>57</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>16</v>
@@ -517,7 +685,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
@@ -537,13 +705,13 @@
         <v>11</v>
       </c>
       <c r="G3" s="1">
-        <v>10936.0</v>
+        <v>10936</v>
       </c>
       <c r="H3" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="I3" s="1">
-        <v>48.0</v>
+        <v>48</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>22</v>
@@ -552,7 +720,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
         <v>23</v>
       </c>
@@ -572,13 +740,13 @@
         <v>11</v>
       </c>
       <c r="G4" s="1">
-        <v>4100.0</v>
+        <v>4100</v>
       </c>
       <c r="H4" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="I4" s="1">
-        <v>48.0</v>
+        <v>48</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>15</v>
@@ -587,7 +755,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
@@ -607,13 +775,13 @@
         <v>17</v>
       </c>
       <c r="G5" s="1">
-        <v>25968.0</v>
+        <v>25968</v>
       </c>
       <c r="H5" s="1">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="I5" s="1">
-        <v>46.0</v>
+        <v>46</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>22</v>
@@ -622,7 +790,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
         <v>24</v>
       </c>
@@ -642,13 +810,13 @@
         <v>24</v>
       </c>
       <c r="G6" s="1">
-        <v>6625.0</v>
+        <v>6625</v>
       </c>
       <c r="H6" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="I6" s="1">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>22</v>
@@ -657,7 +825,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
         <v>25</v>
       </c>
@@ -677,13 +845,13 @@
         <v>11</v>
       </c>
       <c r="G7" s="1">
-        <v>14064.0</v>
+        <v>14064</v>
       </c>
       <c r="H7" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="I7" s="1">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>16</v>
@@ -692,7 +860,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
@@ -712,13 +880,13 @@
         <v>11</v>
       </c>
       <c r="G8" s="1">
-        <v>7788.0</v>
+        <v>7788</v>
       </c>
       <c r="H8" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="I8" s="1">
-        <v>35.0</v>
+        <v>35</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>16</v>
@@ -727,7 +895,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
         <v>29</v>
       </c>
@@ -747,13 +915,13 @@
         <v>11</v>
       </c>
       <c r="G9" s="1">
-        <v>12861.0</v>
+        <v>12861</v>
       </c>
       <c r="H9" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="I9" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>22</v>
@@ -762,7 +930,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
         <v>30</v>
       </c>
@@ -782,13 +950,13 @@
         <v>11</v>
       </c>
       <c r="G10" s="1">
-        <v>2142.0</v>
+        <v>2142</v>
       </c>
       <c r="H10" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="I10" s="1">
-        <v>126.0</v>
+        <v>126</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>16</v>
@@ -797,7 +965,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
         <v>31</v>
       </c>
@@ -817,13 +985,13 @@
         <v>17</v>
       </c>
       <c r="G11" s="1">
-        <v>13735.0</v>
+        <v>13735</v>
       </c>
       <c r="H11" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="I11" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>16</v>
@@ -832,7 +1000,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
         <v>32</v>
       </c>
@@ -852,13 +1020,13 @@
         <v>11</v>
       </c>
       <c r="G12" s="1">
-        <v>13000.0</v>
+        <v>13000</v>
       </c>
       <c r="H12" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="I12" s="1">
-        <v>71.0</v>
+        <v>71</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>16</v>
@@ -867,7 +1035,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
         <v>33</v>
       </c>
@@ -887,13 +1055,13 @@
         <v>17</v>
       </c>
       <c r="G13" s="1">
-        <v>2703.0</v>
+        <v>2703</v>
       </c>
       <c r="H13" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="I13" s="1">
-        <v>38.0</v>
+        <v>38</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>16</v>
@@ -902,7 +1070,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
@@ -922,13 +1090,13 @@
         <v>17</v>
       </c>
       <c r="G14" s="1">
-        <v>12263.0</v>
+        <v>12263</v>
       </c>
       <c r="H14" s="1">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="I14" s="1">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>16</v>
@@ -937,7 +1105,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
         <v>34</v>
       </c>
@@ -957,13 +1125,13 @@
         <v>17</v>
       </c>
       <c r="G15" s="1">
-        <v>13968.0</v>
+        <v>13968</v>
       </c>
       <c r="H15" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="I15" s="1">
-        <v>42.0</v>
+        <v>42</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>22</v>
@@ -972,7 +1140,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
         <v>35</v>
       </c>
@@ -992,13 +1160,13 @@
         <v>17</v>
       </c>
       <c r="G16" s="1">
-        <v>4500.0</v>
+        <v>4500</v>
       </c>
       <c r="H16" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="I16" s="1">
-        <v>48.0</v>
+        <v>48</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>22</v>
@@ -1007,7 +1175,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -1027,13 +1195,13 @@
         <v>17</v>
       </c>
       <c r="G17" s="1">
-        <v>9163.0</v>
+        <v>9163</v>
       </c>
       <c r="H17" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="I17" s="1">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>22</v>
@@ -1042,7 +1210,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
         <v>36</v>
       </c>
@@ -1062,13 +1230,13 @@
         <v>17</v>
       </c>
       <c r="G18" s="1">
-        <v>9200.0</v>
+        <v>9200</v>
       </c>
       <c r="H18" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="I18" s="1">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>15</v>
@@ -1077,7 +1245,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
         <v>37</v>
       </c>
@@ -1097,13 +1265,13 @@
         <v>24</v>
       </c>
       <c r="G19" s="1">
-        <v>15628.0</v>
+        <v>15628</v>
       </c>
       <c r="H19" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="I19" s="1">
-        <v>52.0</v>
+        <v>52</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>16</v>
@@ -1112,7 +1280,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
         <v>38</v>
       </c>
@@ -1132,13 +1300,13 @@
         <v>17</v>
       </c>
       <c r="G20" s="1">
-        <v>15686.0</v>
+        <v>15686</v>
       </c>
       <c r="H20" s="1">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="I20" s="1">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>22</v>
@@ -1147,7 +1315,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
+    <row r="21" spans="1:11" ht="15.75" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>39</v>
       </c>
@@ -1167,13 +1335,13 @@
         <v>17</v>
       </c>
       <c r="G21" s="1">
-        <v>13455.0</v>
+        <v>13455</v>
       </c>
       <c r="H21" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="I21" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>22</v>
@@ -1182,7 +1350,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
+    <row r="22" spans="1:11" ht="15.75" customHeight="1">
       <c r="A22" s="1" t="s">
         <v>40</v>
       </c>
@@ -1202,13 +1370,13 @@
         <v>24</v>
       </c>
       <c r="G22" s="1">
-        <v>4100.0</v>
+        <v>4100</v>
       </c>
       <c r="H22" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="I22" s="1">
-        <v>46.0</v>
+        <v>46</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>16</v>
@@ -1217,7 +1385,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
+    <row r="23" spans="1:11" ht="15.75" customHeight="1">
       <c r="A23" s="1" t="s">
         <v>41</v>
       </c>
@@ -1237,13 +1405,13 @@
         <v>11</v>
       </c>
       <c r="G23" s="1">
-        <v>15629.0</v>
+        <v>15629</v>
       </c>
       <c r="H23" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="I23" s="1">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>16</v>
@@ -1252,7 +1420,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" ht="15.75" customHeight="1">
+    <row r="24" spans="1:11" ht="15.75" customHeight="1">
       <c r="A24" s="1" t="s">
         <v>42</v>
       </c>
@@ -1272,13 +1440,13 @@
         <v>11</v>
       </c>
       <c r="G24" s="1">
-        <v>4500.0</v>
+        <v>4500</v>
       </c>
       <c r="H24" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="I24" s="1">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>22</v>
@@ -1287,14 +1455,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" ht="15.75" customHeight="1"/>
-    <row r="26" ht="15.75" customHeight="1"/>
-    <row r="27" ht="15.75" customHeight="1"/>
-    <row r="28" ht="15.75" customHeight="1"/>
-    <row r="29" ht="15.75" customHeight="1"/>
-    <row r="30" ht="15.75" customHeight="1"/>
-    <row r="31" ht="15.75" customHeight="1"/>
-    <row r="32" ht="15.75" customHeight="1"/>
+    <row r="25" spans="1:11" ht="15.75" customHeight="1"/>
+    <row r="26" spans="1:11" ht="15.75" customHeight="1"/>
+    <row r="27" spans="1:11" ht="15.75" customHeight="1"/>
+    <row r="28" spans="1:11" ht="15.75" customHeight="1"/>
+    <row r="29" spans="1:11" ht="15.75" customHeight="1"/>
+    <row r="30" spans="1:11" ht="15.75" customHeight="1"/>
+    <row r="31" spans="1:11" ht="15.75" customHeight="1"/>
+    <row r="32" spans="1:11" ht="15.75" customHeight="1"/>
     <row r="33" ht="15.75" customHeight="1"/>
     <row r="34" ht="15.75" customHeight="1"/>
     <row r="35" ht="15.75" customHeight="1"/>
@@ -2264,27 +2432,23 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:D1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="26" width="10.71"/>
+    <col min="1" max="26" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>43</v>
       </c>
@@ -2298,7 +2462,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -2306,13 +2470,13 @@
         <v>18</v>
       </c>
       <c r="C2" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D2" s="3">
-        <v>1346.32820732058</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>1346.3282073205801</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -2320,13 +2484,13 @@
         <v>23</v>
       </c>
       <c r="C3" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D3" s="3">
-        <v>928.3887542245793</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>928.38875422457932</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -2337,10 +2501,10 @@
         <v>0.8</v>
       </c>
       <c r="D4" s="3">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -2351,10 +2515,10 @@
         <v>0.8</v>
       </c>
       <c r="D5" s="3">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -2365,10 +2529,10 @@
         <v>0.8</v>
       </c>
       <c r="D6" s="3">
-        <v>1750.37712195911</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>1750.3771219591099</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
@@ -2376,13 +2540,13 @@
         <v>11</v>
       </c>
       <c r="C7" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D7" s="3">
-        <v>8856.289584325868</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>8856.2895843258684</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
@@ -2390,13 +2554,13 @@
         <v>23</v>
       </c>
       <c r="C8" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D8" s="3">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
@@ -2404,13 +2568,13 @@
         <v>29</v>
       </c>
       <c r="C9" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D9" s="3">
-        <v>917.370426432555</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>917.37042643255495</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
         <v>23</v>
       </c>
@@ -2418,13 +2582,13 @@
         <v>11</v>
       </c>
       <c r="C10" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D10" s="3">
-        <v>7263.494245997015</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>7263.4942459970152</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
         <v>23</v>
       </c>
@@ -2432,13 +2596,13 @@
         <v>18</v>
       </c>
       <c r="C11" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D11" s="3">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
         <v>23</v>
       </c>
@@ -2446,13 +2610,13 @@
         <v>30</v>
       </c>
       <c r="C12" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D12" s="3">
-        <v>712.7616416600891</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>712.76164166008914</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
         <v>23</v>
       </c>
@@ -2460,13 +2624,13 @@
         <v>22</v>
       </c>
       <c r="C13" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D13" s="3">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
@@ -2477,10 +2641,10 @@
         <v>0.8</v>
       </c>
       <c r="D14" s="3">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
         <v>17</v>
       </c>
@@ -2491,10 +2655,10 @@
         <v>0.6</v>
       </c>
       <c r="D15" s="3">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
@@ -2508,7 +2672,7 @@
         <v>1301.196855374259</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
@@ -2522,7 +2686,7 @@
         <v>1610.888190406705</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -2533,10 +2697,10 @@
         <v>0.6</v>
       </c>
       <c r="D18" s="3">
-        <v>1744.947838704877</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>1744.9478387048771</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
         <v>24</v>
       </c>
@@ -2547,10 +2711,10 @@
         <v>0.8</v>
       </c>
       <c r="D19" s="3">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
         <v>24</v>
       </c>
@@ -2561,10 +2725,10 @@
         <v>0.6</v>
       </c>
       <c r="D20" s="3">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="21" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15.75" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>24</v>
       </c>
@@ -2575,10 +2739,10 @@
         <v>0.6</v>
       </c>
       <c r="D21" s="3">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="22" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15.75" customHeight="1">
       <c r="A22" s="1" t="s">
         <v>24</v>
       </c>
@@ -2592,7 +2756,7 @@
         <v>1111.46148857414</v>
       </c>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
+    <row r="23" spans="1:4" ht="15.75" customHeight="1">
       <c r="A23" s="1" t="s">
         <v>25</v>
       </c>
@@ -2603,10 +2767,10 @@
         <v>0.8</v>
       </c>
       <c r="D23" s="3">
-        <v>20585.58529839064</v>
-      </c>
-    </row>
-    <row r="24" ht="15.75" customHeight="1">
+        <v>20585.585298390641</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15.75" customHeight="1">
       <c r="A24" s="1" t="s">
         <v>25</v>
       </c>
@@ -2617,10 +2781,10 @@
         <v>0.8</v>
       </c>
       <c r="D24" s="3">
-        <v>1134.060808536657</v>
-      </c>
-    </row>
-    <row r="25" ht="15.75" customHeight="1">
+        <v>1134.0608085366571</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15.75" customHeight="1">
       <c r="A25" s="1" t="s">
         <v>25</v>
       </c>
@@ -2631,10 +2795,10 @@
         <v>0.8</v>
       </c>
       <c r="D25" s="3">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="26" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15.75" customHeight="1">
       <c r="A26" s="1" t="s">
         <v>15</v>
       </c>
@@ -2645,10 +2809,10 @@
         <v>0.8</v>
       </c>
       <c r="D26" s="3">
-        <v>13592.38685772322</v>
-      </c>
-    </row>
-    <row r="27" ht="15.75" customHeight="1">
+        <v>13592.386857723221</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15.75" customHeight="1">
       <c r="A27" s="1" t="s">
         <v>15</v>
       </c>
@@ -2656,13 +2820,13 @@
         <v>29</v>
       </c>
       <c r="C27" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D27" s="3">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="28" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15.75" customHeight="1">
       <c r="A28" s="1" t="s">
         <v>15</v>
       </c>
@@ -2673,10 +2837,10 @@
         <v>0.8</v>
       </c>
       <c r="D28" s="3">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="29" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15.75" customHeight="1">
       <c r="A29" s="1" t="s">
         <v>15</v>
       </c>
@@ -2687,10 +2851,10 @@
         <v>0.8</v>
       </c>
       <c r="D29" s="3">
-        <v>734.9285761594975</v>
-      </c>
-    </row>
-    <row r="30" ht="15.75" customHeight="1">
+        <v>734.92857615949754</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15.75" customHeight="1">
       <c r="A30" s="1" t="s">
         <v>15</v>
       </c>
@@ -2698,13 +2862,13 @@
         <v>42</v>
       </c>
       <c r="C30" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D30" s="3">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="31" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15.75" customHeight="1">
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
@@ -2712,13 +2876,13 @@
         <v>18</v>
       </c>
       <c r="C31" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D31" s="3">
-        <v>5765.371310168513</v>
-      </c>
-    </row>
-    <row r="32" ht="15.75" customHeight="1">
+        <v>5765.3713101685134</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15.75" customHeight="1">
       <c r="A32" s="1" t="s">
         <v>29</v>
       </c>
@@ -2726,13 +2890,13 @@
         <v>15</v>
       </c>
       <c r="C32" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D32" s="3">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="33" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15.75" customHeight="1">
       <c r="A33" s="1" t="s">
         <v>29</v>
       </c>
@@ -2740,13 +2904,13 @@
         <v>42</v>
       </c>
       <c r="C33" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D33" s="3">
         <v>161.9346079904353</v>
       </c>
     </row>
-    <row r="34" ht="15.75" customHeight="1">
+    <row r="34" spans="1:4" ht="15.75" customHeight="1">
       <c r="A34" s="1" t="s">
         <v>30</v>
       </c>
@@ -2754,13 +2918,13 @@
         <v>23</v>
       </c>
       <c r="C34" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D34" s="3">
-        <v>6797.221958778799</v>
-      </c>
-    </row>
-    <row r="35" ht="15.75" customHeight="1">
+        <v>6797.2219587787986</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15.75" customHeight="1">
       <c r="A35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2768,13 +2932,13 @@
         <v>31</v>
       </c>
       <c r="C35" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D35" s="3">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="36" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15.75" customHeight="1">
       <c r="A36" s="1" t="s">
         <v>30</v>
       </c>
@@ -2782,13 +2946,13 @@
         <v>32</v>
       </c>
       <c r="C36" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D36" s="3">
         <v>618.5073755821212</v>
       </c>
     </row>
-    <row r="37" ht="15.75" customHeight="1">
+    <row r="37" spans="1:4" ht="15.75" customHeight="1">
       <c r="A37" s="1" t="s">
         <v>30</v>
       </c>
@@ -2796,13 +2960,13 @@
         <v>22</v>
       </c>
       <c r="C37" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D37" s="3">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="38" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="15.75" customHeight="1">
       <c r="A38" s="1" t="s">
         <v>31</v>
       </c>
@@ -2810,13 +2974,13 @@
         <v>30</v>
       </c>
       <c r="C38" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D38" s="3">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="39" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="15.75" customHeight="1">
       <c r="A39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2824,13 +2988,13 @@
         <v>32</v>
       </c>
       <c r="C39" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D39" s="3">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="40" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="15.75" customHeight="1">
       <c r="A40" s="1" t="s">
         <v>31</v>
       </c>
@@ -2841,10 +3005,10 @@
         <v>0.8</v>
       </c>
       <c r="D40" s="3">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="41" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="15.75" customHeight="1">
       <c r="A41" s="1" t="s">
         <v>31</v>
       </c>
@@ -2858,7 +3022,7 @@
         <v>4794.69069026135</v>
       </c>
     </row>
-    <row r="42" ht="15.75" customHeight="1">
+    <row r="42" spans="1:4" ht="15.75" customHeight="1">
       <c r="A42" s="1" t="s">
         <v>32</v>
       </c>
@@ -2866,13 +3030,13 @@
         <v>30</v>
       </c>
       <c r="C42" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D42" s="3">
-        <v>5636.138436332346</v>
-      </c>
-    </row>
-    <row r="43" ht="15.75" customHeight="1">
+        <v>5636.1384363323459</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="15.75" customHeight="1">
       <c r="A43" s="1" t="s">
         <v>32</v>
       </c>
@@ -2880,13 +3044,13 @@
         <v>31</v>
       </c>
       <c r="C43" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D43" s="3">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="44" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="15.75" customHeight="1">
       <c r="A44" s="1" t="s">
         <v>32</v>
       </c>
@@ -2894,13 +3058,13 @@
         <v>33</v>
       </c>
       <c r="C44" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D44" s="3">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="45" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="15.75" customHeight="1">
       <c r="A45" s="1" t="s">
         <v>33</v>
       </c>
@@ -2911,10 +3075,10 @@
         <v>0.8</v>
       </c>
       <c r="D45" s="3">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="46" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="15.75" customHeight="1">
       <c r="A46" s="1" t="s">
         <v>33</v>
       </c>
@@ -2922,13 +3086,13 @@
         <v>32</v>
       </c>
       <c r="C46" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D46" s="3">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="47" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="15.75" customHeight="1">
       <c r="A47" s="1" t="s">
         <v>33</v>
       </c>
@@ -2942,7 +3106,7 @@
         <v>1365.243382383391</v>
       </c>
     </row>
-    <row r="48" ht="15.75" customHeight="1">
+    <row r="48" spans="1:4" ht="15.75" customHeight="1">
       <c r="A48" s="1" t="s">
         <v>33</v>
       </c>
@@ -2953,10 +3117,10 @@
         <v>0.8</v>
       </c>
       <c r="D48" s="3">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="49" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="15.75" customHeight="1">
       <c r="A49" s="1" t="s">
         <v>22</v>
       </c>
@@ -2964,13 +3128,13 @@
         <v>23</v>
       </c>
       <c r="C49" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D49" s="3">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="50" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="15.75" customHeight="1">
       <c r="A50" s="1" t="s">
         <v>22</v>
       </c>
@@ -2981,10 +3145,10 @@
         <v>0.8</v>
       </c>
       <c r="D50" s="3">
-        <v>12072.01408856531</v>
-      </c>
-    </row>
-    <row r="51" ht="15.75" customHeight="1">
+        <v>12072.014088565311</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="15.75" customHeight="1">
       <c r="A51" s="1" t="s">
         <v>22</v>
       </c>
@@ -2992,13 +3156,13 @@
         <v>30</v>
       </c>
       <c r="C51" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D51" s="3">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="52" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="15.75" customHeight="1">
       <c r="A52" s="1" t="s">
         <v>22</v>
       </c>
@@ -3009,10 +3173,10 @@
         <v>0.8</v>
       </c>
       <c r="D52" s="3">
-        <v>717.9132099919079</v>
-      </c>
-    </row>
-    <row r="53" ht="15.75" customHeight="1">
+        <v>717.91320999190793</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="15.75" customHeight="1">
       <c r="A53" s="1" t="s">
         <v>22</v>
       </c>
@@ -3026,7 +3190,7 @@
         <v>101.6134031472118</v>
       </c>
     </row>
-    <row r="54" ht="15.75" customHeight="1">
+    <row r="54" spans="1:4" ht="15.75" customHeight="1">
       <c r="A54" s="1" t="s">
         <v>34</v>
       </c>
@@ -3040,7 +3204,7 @@
         <v>13881.52029179863</v>
       </c>
     </row>
-    <row r="55" ht="15.75" customHeight="1">
+    <row r="55" spans="1:4" ht="15.75" customHeight="1">
       <c r="A55" s="1" t="s">
         <v>34</v>
       </c>
@@ -3051,10 +3215,10 @@
         <v>0.6</v>
       </c>
       <c r="D55" s="3">
-        <v>211.8954569794005</v>
-      </c>
-    </row>
-    <row r="56" ht="15.75" customHeight="1">
+        <v>211.89545697940051</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="15.75" customHeight="1">
       <c r="A56" s="1" t="s">
         <v>34</v>
       </c>
@@ -3065,10 +3229,10 @@
         <v>0.6</v>
       </c>
       <c r="D56" s="3">
-        <v>671.0572942534088</v>
-      </c>
-    </row>
-    <row r="57" ht="15.75" customHeight="1">
+        <v>671.05729425340883</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="15.75" customHeight="1">
       <c r="A57" s="1" t="s">
         <v>35</v>
       </c>
@@ -3079,10 +3243,10 @@
         <v>0.8</v>
       </c>
       <c r="D57" s="3">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="58" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="15.75" customHeight="1">
       <c r="A58" s="1" t="s">
         <v>35</v>
       </c>
@@ -3093,10 +3257,10 @@
         <v>0.6</v>
       </c>
       <c r="D58" s="3">
-        <v>1744.177031571977</v>
-      </c>
-    </row>
-    <row r="59" ht="15.75" customHeight="1">
+        <v>1744.1770315719771</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="15.75" customHeight="1">
       <c r="A59" s="1" t="s">
         <v>35</v>
       </c>
@@ -3107,10 +3271,10 @@
         <v>0.6</v>
       </c>
       <c r="D59" s="3">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="60" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="15.75" customHeight="1">
       <c r="A60" s="1" t="s">
         <v>16</v>
       </c>
@@ -3121,10 +3285,10 @@
         <v>0.6</v>
       </c>
       <c r="D60" s="3">
-        <v>12583.72751526272</v>
-      </c>
-    </row>
-    <row r="61" ht="15.75" customHeight="1">
+        <v>12583.727515262721</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="15.75" customHeight="1">
       <c r="A61" s="1" t="s">
         <v>16</v>
       </c>
@@ -3135,10 +3299,10 @@
         <v>0.6</v>
       </c>
       <c r="D61" s="3">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="62" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="15.75" customHeight="1">
       <c r="A62" s="1" t="s">
         <v>16</v>
       </c>
@@ -3149,10 +3313,10 @@
         <v>0.4</v>
       </c>
       <c r="D62" s="3">
-        <v>321.8197087633424</v>
-      </c>
-    </row>
-    <row r="63" ht="15.75" customHeight="1">
+        <v>321.81970876334242</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="15.75" customHeight="1">
       <c r="A63" s="1" t="s">
         <v>16</v>
       </c>
@@ -3163,10 +3327,10 @@
         <v>0.4</v>
       </c>
       <c r="D63" s="3">
-        <v>723.9874711353391</v>
-      </c>
-    </row>
-    <row r="64" ht="15.75" customHeight="1">
+        <v>723.98747113533909</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="15.75" customHeight="1">
       <c r="A64" s="1" t="s">
         <v>16</v>
       </c>
@@ -3177,10 +3341,10 @@
         <v>0.4</v>
       </c>
       <c r="D64" s="3">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="65" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="15.75" customHeight="1">
       <c r="A65" s="1" t="s">
         <v>36</v>
       </c>
@@ -3191,10 +3355,10 @@
         <v>0.4</v>
       </c>
       <c r="D65" s="3">
-        <v>3055.625579179544</v>
-      </c>
-    </row>
-    <row r="66" ht="15.75" customHeight="1">
+        <v>3055.6255791795438</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="15.75" customHeight="1">
       <c r="A66" s="1" t="s">
         <v>36</v>
       </c>
@@ -3205,10 +3369,10 @@
         <v>0.6</v>
       </c>
       <c r="D66" s="3">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="67" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="15.75" customHeight="1">
       <c r="A67" s="1" t="s">
         <v>36</v>
       </c>
@@ -3219,10 +3383,10 @@
         <v>0.4</v>
       </c>
       <c r="D67" s="3">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="68" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="15.75" customHeight="1">
       <c r="A68" s="1" t="s">
         <v>37</v>
       </c>
@@ -3233,10 +3397,10 @@
         <v>0.6</v>
       </c>
       <c r="D68" s="3">
-        <v>9075.20944326049</v>
-      </c>
-    </row>
-    <row r="69" ht="15.75" customHeight="1">
+        <v>9075.2094432604899</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="15.75" customHeight="1">
       <c r="A69" s="1" t="s">
         <v>37</v>
       </c>
@@ -3247,10 +3411,10 @@
         <v>0.8</v>
       </c>
       <c r="D69" s="3">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="70" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="15.75" customHeight="1">
       <c r="A70" s="1" t="s">
         <v>37</v>
       </c>
@@ -3261,10 +3425,10 @@
         <v>0.6</v>
       </c>
       <c r="D70" s="3">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="71" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="15.75" customHeight="1">
       <c r="A71" s="1" t="s">
         <v>37</v>
       </c>
@@ -3275,10 +3439,10 @@
         <v>0.6</v>
       </c>
       <c r="D71" s="3">
-        <v>233.3009101235075</v>
-      </c>
-    </row>
-    <row r="72" ht="15.75" customHeight="1">
+        <v>233.30091012350749</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="15.75" customHeight="1">
       <c r="A72" s="1" t="s">
         <v>38</v>
       </c>
@@ -3289,10 +3453,10 @@
         <v>0.4</v>
       </c>
       <c r="D72" s="3">
-        <v>5146.294375293001</v>
-      </c>
-    </row>
-    <row r="73" ht="15.75" customHeight="1">
+        <v>5146.2943752930014</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="15.75" customHeight="1">
       <c r="A73" s="1" t="s">
         <v>38</v>
       </c>
@@ -3303,10 +3467,10 @@
         <v>0.4</v>
       </c>
       <c r="D73" s="3">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="74" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="15.75" customHeight="1">
       <c r="A74" s="1" t="s">
         <v>38</v>
       </c>
@@ -3317,10 +3481,10 @@
         <v>0.4</v>
       </c>
       <c r="D74" s="3">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="75" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="15.75" customHeight="1">
       <c r="A75" s="1" t="s">
         <v>39</v>
       </c>
@@ -3331,10 +3495,10 @@
         <v>0.6</v>
       </c>
       <c r="D75" s="3">
-        <v>4492.249463938787</v>
-      </c>
-    </row>
-    <row r="76" ht="15.75" customHeight="1">
+        <v>4492.2494639387869</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="15.75" customHeight="1">
       <c r="A76" s="1" t="s">
         <v>39</v>
       </c>
@@ -3345,10 +3509,10 @@
         <v>0.6</v>
       </c>
       <c r="D76" s="3">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="77" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="15.75" customHeight="1">
       <c r="A77" s="1" t="s">
         <v>39</v>
       </c>
@@ -3359,10 +3523,10 @@
         <v>0.4</v>
       </c>
       <c r="D77" s="3">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="78" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="15.75" customHeight="1">
       <c r="A78" s="1" t="s">
         <v>39</v>
       </c>
@@ -3373,10 +3537,10 @@
         <v>0.4</v>
       </c>
       <c r="D78" s="3">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="79" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="15.75" customHeight="1">
       <c r="A79" s="1" t="s">
         <v>40</v>
       </c>
@@ -3387,10 +3551,10 @@
         <v>0.8</v>
       </c>
       <c r="D79" s="3">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="80" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="15.75" customHeight="1">
       <c r="A80" s="1" t="s">
         <v>40</v>
       </c>
@@ -3404,7 +3568,7 @@
         <v>1836.008463644539</v>
       </c>
     </row>
-    <row r="81" ht="15.75" customHeight="1">
+    <row r="81" spans="1:4" ht="15.75" customHeight="1">
       <c r="A81" s="1" t="s">
         <v>40</v>
       </c>
@@ -3415,10 +3579,10 @@
         <v>0.8</v>
       </c>
       <c r="D81" s="3">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="82" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="15.75" customHeight="1">
       <c r="A82" s="1" t="s">
         <v>41</v>
       </c>
@@ -3432,7 +3596,7 @@
         <v>5940.978128889984</v>
       </c>
     </row>
-    <row r="83" ht="15.75" customHeight="1">
+    <row r="83" spans="1:4" ht="15.75" customHeight="1">
       <c r="A83" s="1" t="s">
         <v>41</v>
       </c>
@@ -3443,10 +3607,10 @@
         <v>0.8</v>
       </c>
       <c r="D83" s="3">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="84" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="15.75" customHeight="1">
       <c r="A84" s="1" t="s">
         <v>41</v>
       </c>
@@ -3454,13 +3618,13 @@
         <v>42</v>
       </c>
       <c r="C84" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D84" s="3">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="85" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="15.75" customHeight="1">
       <c r="A85" s="1" t="s">
         <v>42</v>
       </c>
@@ -3468,13 +3632,13 @@
         <v>15</v>
       </c>
       <c r="C85" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D85" s="3">
         <v>1701.465728407027</v>
       </c>
     </row>
-    <row r="86" ht="15.75" customHeight="1">
+    <row r="86" spans="1:4" ht="15.75" customHeight="1">
       <c r="A86" s="1" t="s">
         <v>42</v>
       </c>
@@ -3482,13 +3646,13 @@
         <v>29</v>
       </c>
       <c r="C86" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D86" s="3">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="87" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="15.75" customHeight="1">
       <c r="A87" s="1" t="s">
         <v>42</v>
       </c>
@@ -3496,2773 +3660,2769 @@
         <v>41</v>
       </c>
       <c r="C87" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D87" s="3">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="88" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="15.75" customHeight="1">
       <c r="D88" s="4"/>
     </row>
-    <row r="89" ht="15.75" customHeight="1">
+    <row r="89" spans="1:4" ht="15.75" customHeight="1">
       <c r="D89" s="4"/>
     </row>
-    <row r="90" ht="15.75" customHeight="1">
+    <row r="90" spans="1:4" ht="15.75" customHeight="1">
       <c r="D90" s="4"/>
     </row>
-    <row r="91" ht="15.75" customHeight="1">
+    <row r="91" spans="1:4" ht="15.75" customHeight="1">
       <c r="D91" s="4"/>
     </row>
-    <row r="92" ht="15.75" customHeight="1">
+    <row r="92" spans="1:4" ht="15.75" customHeight="1">
       <c r="D92" s="4"/>
     </row>
-    <row r="93" ht="15.75" customHeight="1">
+    <row r="93" spans="1:4" ht="15.75" customHeight="1">
       <c r="D93" s="4"/>
     </row>
-    <row r="94" ht="15.75" customHeight="1">
+    <row r="94" spans="1:4" ht="15.75" customHeight="1">
       <c r="D94" s="4"/>
     </row>
-    <row r="95" ht="15.75" customHeight="1">
+    <row r="95" spans="1:4" ht="15.75" customHeight="1">
       <c r="D95" s="4"/>
     </row>
-    <row r="96" ht="15.75" customHeight="1">
+    <row r="96" spans="1:4" ht="15.75" customHeight="1">
       <c r="D96" s="4"/>
     </row>
-    <row r="97" ht="15.75" customHeight="1">
+    <row r="97" spans="4:4" ht="15.75" customHeight="1">
       <c r="D97" s="4"/>
     </row>
-    <row r="98" ht="15.75" customHeight="1">
+    <row r="98" spans="4:4" ht="15.75" customHeight="1">
       <c r="D98" s="4"/>
     </row>
-    <row r="99" ht="15.75" customHeight="1">
+    <row r="99" spans="4:4" ht="15.75" customHeight="1">
       <c r="D99" s="4"/>
     </row>
-    <row r="100" ht="15.75" customHeight="1">
+    <row r="100" spans="4:4" ht="15.75" customHeight="1">
       <c r="D100" s="4"/>
     </row>
-    <row r="101" ht="15.75" customHeight="1">
+    <row r="101" spans="4:4" ht="15.75" customHeight="1">
       <c r="D101" s="4"/>
     </row>
-    <row r="102" ht="15.75" customHeight="1">
+    <row r="102" spans="4:4" ht="15.75" customHeight="1">
       <c r="D102" s="4"/>
     </row>
-    <row r="103" ht="15.75" customHeight="1">
+    <row r="103" spans="4:4" ht="15.75" customHeight="1">
       <c r="D103" s="4"/>
     </row>
-    <row r="104" ht="15.75" customHeight="1">
+    <row r="104" spans="4:4" ht="15.75" customHeight="1">
       <c r="D104" s="4"/>
     </row>
-    <row r="105" ht="15.75" customHeight="1">
+    <row r="105" spans="4:4" ht="15.75" customHeight="1">
       <c r="D105" s="4"/>
     </row>
-    <row r="106" ht="15.75" customHeight="1">
+    <row r="106" spans="4:4" ht="15.75" customHeight="1">
       <c r="D106" s="4"/>
     </row>
-    <row r="107" ht="15.75" customHeight="1">
+    <row r="107" spans="4:4" ht="15.75" customHeight="1">
       <c r="D107" s="4"/>
     </row>
-    <row r="108" ht="15.75" customHeight="1">
+    <row r="108" spans="4:4" ht="15.75" customHeight="1">
       <c r="D108" s="4"/>
     </row>
-    <row r="109" ht="15.75" customHeight="1">
+    <row r="109" spans="4:4" ht="15.75" customHeight="1">
       <c r="D109" s="4"/>
     </row>
-    <row r="110" ht="15.75" customHeight="1">
+    <row r="110" spans="4:4" ht="15.75" customHeight="1">
       <c r="D110" s="4"/>
     </row>
-    <row r="111" ht="15.75" customHeight="1">
+    <row r="111" spans="4:4" ht="15.75" customHeight="1">
       <c r="D111" s="4"/>
     </row>
-    <row r="112" ht="15.75" customHeight="1">
+    <row r="112" spans="4:4" ht="15.75" customHeight="1">
       <c r="D112" s="4"/>
     </row>
-    <row r="113" ht="15.75" customHeight="1">
+    <row r="113" spans="4:4" ht="15.75" customHeight="1">
       <c r="D113" s="4"/>
     </row>
-    <row r="114" ht="15.75" customHeight="1">
+    <row r="114" spans="4:4" ht="15.75" customHeight="1">
       <c r="D114" s="4"/>
     </row>
-    <row r="115" ht="15.75" customHeight="1">
+    <row r="115" spans="4:4" ht="15.75" customHeight="1">
       <c r="D115" s="4"/>
     </row>
-    <row r="116" ht="15.75" customHeight="1">
+    <row r="116" spans="4:4" ht="15.75" customHeight="1">
       <c r="D116" s="4"/>
     </row>
-    <row r="117" ht="15.75" customHeight="1">
+    <row r="117" spans="4:4" ht="15.75" customHeight="1">
       <c r="D117" s="4"/>
     </row>
-    <row r="118" ht="15.75" customHeight="1">
+    <row r="118" spans="4:4" ht="15.75" customHeight="1">
       <c r="D118" s="4"/>
     </row>
-    <row r="119" ht="15.75" customHeight="1">
+    <row r="119" spans="4:4" ht="15.75" customHeight="1">
       <c r="D119" s="4"/>
     </row>
-    <row r="120" ht="15.75" customHeight="1">
+    <row r="120" spans="4:4" ht="15.75" customHeight="1">
       <c r="D120" s="4"/>
     </row>
-    <row r="121" ht="15.75" customHeight="1">
+    <row r="121" spans="4:4" ht="15.75" customHeight="1">
       <c r="D121" s="4"/>
     </row>
-    <row r="122" ht="15.75" customHeight="1">
+    <row r="122" spans="4:4" ht="15.75" customHeight="1">
       <c r="D122" s="4"/>
     </row>
-    <row r="123" ht="15.75" customHeight="1">
+    <row r="123" spans="4:4" ht="15.75" customHeight="1">
       <c r="D123" s="4"/>
     </row>
-    <row r="124" ht="15.75" customHeight="1">
+    <row r="124" spans="4:4" ht="15.75" customHeight="1">
       <c r="D124" s="4"/>
     </row>
-    <row r="125" ht="15.75" customHeight="1">
+    <row r="125" spans="4:4" ht="15.75" customHeight="1">
       <c r="D125" s="4"/>
     </row>
-    <row r="126" ht="15.75" customHeight="1">
+    <row r="126" spans="4:4" ht="15.75" customHeight="1">
       <c r="D126" s="4"/>
     </row>
-    <row r="127" ht="15.75" customHeight="1">
+    <row r="127" spans="4:4" ht="15.75" customHeight="1">
       <c r="D127" s="4"/>
     </row>
-    <row r="128" ht="15.75" customHeight="1">
+    <row r="128" spans="4:4" ht="15.75" customHeight="1">
       <c r="D128" s="4"/>
     </row>
-    <row r="129" ht="15.75" customHeight="1">
+    <row r="129" spans="4:4" ht="15.75" customHeight="1">
       <c r="D129" s="4"/>
     </row>
-    <row r="130" ht="15.75" customHeight="1">
+    <row r="130" spans="4:4" ht="15.75" customHeight="1">
       <c r="D130" s="4"/>
     </row>
-    <row r="131" ht="15.75" customHeight="1">
+    <row r="131" spans="4:4" ht="15.75" customHeight="1">
       <c r="D131" s="4"/>
     </row>
-    <row r="132" ht="15.75" customHeight="1">
+    <row r="132" spans="4:4" ht="15.75" customHeight="1">
       <c r="D132" s="4"/>
     </row>
-    <row r="133" ht="15.75" customHeight="1">
+    <row r="133" spans="4:4" ht="15.75" customHeight="1">
       <c r="D133" s="4"/>
     </row>
-    <row r="134" ht="15.75" customHeight="1">
+    <row r="134" spans="4:4" ht="15.75" customHeight="1">
       <c r="D134" s="4"/>
     </row>
-    <row r="135" ht="15.75" customHeight="1">
+    <row r="135" spans="4:4" ht="15.75" customHeight="1">
       <c r="D135" s="4"/>
     </row>
-    <row r="136" ht="15.75" customHeight="1">
+    <row r="136" spans="4:4" ht="15.75" customHeight="1">
       <c r="D136" s="4"/>
     </row>
-    <row r="137" ht="15.75" customHeight="1">
+    <row r="137" spans="4:4" ht="15.75" customHeight="1">
       <c r="D137" s="4"/>
     </row>
-    <row r="138" ht="15.75" customHeight="1">
+    <row r="138" spans="4:4" ht="15.75" customHeight="1">
       <c r="D138" s="4"/>
     </row>
-    <row r="139" ht="15.75" customHeight="1">
+    <row r="139" spans="4:4" ht="15.75" customHeight="1">
       <c r="D139" s="4"/>
     </row>
-    <row r="140" ht="15.75" customHeight="1">
+    <row r="140" spans="4:4" ht="15.75" customHeight="1">
       <c r="D140" s="4"/>
     </row>
-    <row r="141" ht="15.75" customHeight="1">
+    <row r="141" spans="4:4" ht="15.75" customHeight="1">
       <c r="D141" s="4"/>
     </row>
-    <row r="142" ht="15.75" customHeight="1">
+    <row r="142" spans="4:4" ht="15.75" customHeight="1">
       <c r="D142" s="4"/>
     </row>
-    <row r="143" ht="15.75" customHeight="1">
+    <row r="143" spans="4:4" ht="15.75" customHeight="1">
       <c r="D143" s="4"/>
     </row>
-    <row r="144" ht="15.75" customHeight="1">
+    <row r="144" spans="4:4" ht="15.75" customHeight="1">
       <c r="D144" s="4"/>
     </row>
-    <row r="145" ht="15.75" customHeight="1">
+    <row r="145" spans="4:4" ht="15.75" customHeight="1">
       <c r="D145" s="4"/>
     </row>
-    <row r="146" ht="15.75" customHeight="1">
+    <row r="146" spans="4:4" ht="15.75" customHeight="1">
       <c r="D146" s="4"/>
     </row>
-    <row r="147" ht="15.75" customHeight="1">
+    <row r="147" spans="4:4" ht="15.75" customHeight="1">
       <c r="D147" s="4"/>
     </row>
-    <row r="148" ht="15.75" customHeight="1">
+    <row r="148" spans="4:4" ht="15.75" customHeight="1">
       <c r="D148" s="4"/>
     </row>
-    <row r="149" ht="15.75" customHeight="1">
+    <row r="149" spans="4:4" ht="15.75" customHeight="1">
       <c r="D149" s="4"/>
     </row>
-    <row r="150" ht="15.75" customHeight="1">
+    <row r="150" spans="4:4" ht="15.75" customHeight="1">
       <c r="D150" s="4"/>
     </row>
-    <row r="151" ht="15.75" customHeight="1">
+    <row r="151" spans="4:4" ht="15.75" customHeight="1">
       <c r="D151" s="4"/>
     </row>
-    <row r="152" ht="15.75" customHeight="1">
+    <row r="152" spans="4:4" ht="15.75" customHeight="1">
       <c r="D152" s="4"/>
     </row>
-    <row r="153" ht="15.75" customHeight="1">
+    <row r="153" spans="4:4" ht="15.75" customHeight="1">
       <c r="D153" s="4"/>
     </row>
-    <row r="154" ht="15.75" customHeight="1">
+    <row r="154" spans="4:4" ht="15.75" customHeight="1">
       <c r="D154" s="4"/>
     </row>
-    <row r="155" ht="15.75" customHeight="1">
+    <row r="155" spans="4:4" ht="15.75" customHeight="1">
       <c r="D155" s="4"/>
     </row>
-    <row r="156" ht="15.75" customHeight="1">
+    <row r="156" spans="4:4" ht="15.75" customHeight="1">
       <c r="D156" s="4"/>
     </row>
-    <row r="157" ht="15.75" customHeight="1">
+    <row r="157" spans="4:4" ht="15.75" customHeight="1">
       <c r="D157" s="4"/>
     </row>
-    <row r="158" ht="15.75" customHeight="1">
+    <row r="158" spans="4:4" ht="15.75" customHeight="1">
       <c r="D158" s="4"/>
     </row>
-    <row r="159" ht="15.75" customHeight="1">
+    <row r="159" spans="4:4" ht="15.75" customHeight="1">
       <c r="D159" s="4"/>
     </row>
-    <row r="160" ht="15.75" customHeight="1">
+    <row r="160" spans="4:4" ht="15.75" customHeight="1">
       <c r="D160" s="4"/>
     </row>
-    <row r="161" ht="15.75" customHeight="1">
+    <row r="161" spans="4:4" ht="15.75" customHeight="1">
       <c r="D161" s="4"/>
     </row>
-    <row r="162" ht="15.75" customHeight="1">
+    <row r="162" spans="4:4" ht="15.75" customHeight="1">
       <c r="D162" s="4"/>
     </row>
-    <row r="163" ht="15.75" customHeight="1">
+    <row r="163" spans="4:4" ht="15.75" customHeight="1">
       <c r="D163" s="4"/>
     </row>
-    <row r="164" ht="15.75" customHeight="1">
+    <row r="164" spans="4:4" ht="15.75" customHeight="1">
       <c r="D164" s="4"/>
     </row>
-    <row r="165" ht="15.75" customHeight="1">
+    <row r="165" spans="4:4" ht="15.75" customHeight="1">
       <c r="D165" s="4"/>
     </row>
-    <row r="166" ht="15.75" customHeight="1">
+    <row r="166" spans="4:4" ht="15.75" customHeight="1">
       <c r="D166" s="4"/>
     </row>
-    <row r="167" ht="15.75" customHeight="1">
+    <row r="167" spans="4:4" ht="15.75" customHeight="1">
       <c r="D167" s="4"/>
     </row>
-    <row r="168" ht="15.75" customHeight="1">
+    <row r="168" spans="4:4" ht="15.75" customHeight="1">
       <c r="D168" s="4"/>
     </row>
-    <row r="169" ht="15.75" customHeight="1">
+    <row r="169" spans="4:4" ht="15.75" customHeight="1">
       <c r="D169" s="4"/>
     </row>
-    <row r="170" ht="15.75" customHeight="1">
+    <row r="170" spans="4:4" ht="15.75" customHeight="1">
       <c r="D170" s="4"/>
     </row>
-    <row r="171" ht="15.75" customHeight="1">
+    <row r="171" spans="4:4" ht="15.75" customHeight="1">
       <c r="D171" s="4"/>
     </row>
-    <row r="172" ht="15.75" customHeight="1">
+    <row r="172" spans="4:4" ht="15.75" customHeight="1">
       <c r="D172" s="4"/>
     </row>
-    <row r="173" ht="15.75" customHeight="1">
+    <row r="173" spans="4:4" ht="15.75" customHeight="1">
       <c r="D173" s="4"/>
     </row>
-    <row r="174" ht="15.75" customHeight="1">
+    <row r="174" spans="4:4" ht="15.75" customHeight="1">
       <c r="D174" s="4"/>
     </row>
-    <row r="175" ht="15.75" customHeight="1">
+    <row r="175" spans="4:4" ht="15.75" customHeight="1">
       <c r="D175" s="4"/>
     </row>
-    <row r="176" ht="15.75" customHeight="1">
+    <row r="176" spans="4:4" ht="15.75" customHeight="1">
       <c r="D176" s="4"/>
     </row>
-    <row r="177" ht="15.75" customHeight="1">
+    <row r="177" spans="4:4" ht="15.75" customHeight="1">
       <c r="D177" s="4"/>
     </row>
-    <row r="178" ht="15.75" customHeight="1">
+    <row r="178" spans="4:4" ht="15.75" customHeight="1">
       <c r="D178" s="4"/>
     </row>
-    <row r="179" ht="15.75" customHeight="1">
+    <row r="179" spans="4:4" ht="15.75" customHeight="1">
       <c r="D179" s="4"/>
     </row>
-    <row r="180" ht="15.75" customHeight="1">
+    <row r="180" spans="4:4" ht="15.75" customHeight="1">
       <c r="D180" s="4"/>
     </row>
-    <row r="181" ht="15.75" customHeight="1">
+    <row r="181" spans="4:4" ht="15.75" customHeight="1">
       <c r="D181" s="4"/>
     </row>
-    <row r="182" ht="15.75" customHeight="1">
+    <row r="182" spans="4:4" ht="15.75" customHeight="1">
       <c r="D182" s="4"/>
     </row>
-    <row r="183" ht="15.75" customHeight="1">
+    <row r="183" spans="4:4" ht="15.75" customHeight="1">
       <c r="D183" s="4"/>
     </row>
-    <row r="184" ht="15.75" customHeight="1">
+    <row r="184" spans="4:4" ht="15.75" customHeight="1">
       <c r="D184" s="4"/>
     </row>
-    <row r="185" ht="15.75" customHeight="1">
+    <row r="185" spans="4:4" ht="15.75" customHeight="1">
       <c r="D185" s="4"/>
     </row>
-    <row r="186" ht="15.75" customHeight="1">
+    <row r="186" spans="4:4" ht="15.75" customHeight="1">
       <c r="D186" s="4"/>
     </row>
-    <row r="187" ht="15.75" customHeight="1">
+    <row r="187" spans="4:4" ht="15.75" customHeight="1">
       <c r="D187" s="4"/>
     </row>
-    <row r="188" ht="15.75" customHeight="1">
+    <row r="188" spans="4:4" ht="15.75" customHeight="1">
       <c r="D188" s="4"/>
     </row>
-    <row r="189" ht="15.75" customHeight="1">
+    <row r="189" spans="4:4" ht="15.75" customHeight="1">
       <c r="D189" s="4"/>
     </row>
-    <row r="190" ht="15.75" customHeight="1">
+    <row r="190" spans="4:4" ht="15.75" customHeight="1">
       <c r="D190" s="4"/>
     </row>
-    <row r="191" ht="15.75" customHeight="1">
+    <row r="191" spans="4:4" ht="15.75" customHeight="1">
       <c r="D191" s="4"/>
     </row>
-    <row r="192" ht="15.75" customHeight="1">
+    <row r="192" spans="4:4" ht="15.75" customHeight="1">
       <c r="D192" s="4"/>
     </row>
-    <row r="193" ht="15.75" customHeight="1">
+    <row r="193" spans="4:4" ht="15.75" customHeight="1">
       <c r="D193" s="4"/>
     </row>
-    <row r="194" ht="15.75" customHeight="1">
+    <row r="194" spans="4:4" ht="15.75" customHeight="1">
       <c r="D194" s="4"/>
     </row>
-    <row r="195" ht="15.75" customHeight="1">
+    <row r="195" spans="4:4" ht="15.75" customHeight="1">
       <c r="D195" s="4"/>
     </row>
-    <row r="196" ht="15.75" customHeight="1">
+    <row r="196" spans="4:4" ht="15.75" customHeight="1">
       <c r="D196" s="4"/>
     </row>
-    <row r="197" ht="15.75" customHeight="1">
+    <row r="197" spans="4:4" ht="15.75" customHeight="1">
       <c r="D197" s="4"/>
     </row>
-    <row r="198" ht="15.75" customHeight="1">
+    <row r="198" spans="4:4" ht="15.75" customHeight="1">
       <c r="D198" s="4"/>
     </row>
-    <row r="199" ht="15.75" customHeight="1">
+    <row r="199" spans="4:4" ht="15.75" customHeight="1">
       <c r="D199" s="4"/>
     </row>
-    <row r="200" ht="15.75" customHeight="1">
+    <row r="200" spans="4:4" ht="15.75" customHeight="1">
       <c r="D200" s="4"/>
     </row>
-    <row r="201" ht="15.75" customHeight="1">
+    <row r="201" spans="4:4" ht="15.75" customHeight="1">
       <c r="D201" s="4"/>
     </row>
-    <row r="202" ht="15.75" customHeight="1">
+    <row r="202" spans="4:4" ht="15.75" customHeight="1">
       <c r="D202" s="4"/>
     </row>
-    <row r="203" ht="15.75" customHeight="1">
+    <row r="203" spans="4:4" ht="15.75" customHeight="1">
       <c r="D203" s="4"/>
     </row>
-    <row r="204" ht="15.75" customHeight="1">
+    <row r="204" spans="4:4" ht="15.75" customHeight="1">
       <c r="D204" s="4"/>
     </row>
-    <row r="205" ht="15.75" customHeight="1">
+    <row r="205" spans="4:4" ht="15.75" customHeight="1">
       <c r="D205" s="4"/>
     </row>
-    <row r="206" ht="15.75" customHeight="1">
+    <row r="206" spans="4:4" ht="15.75" customHeight="1">
       <c r="D206" s="4"/>
     </row>
-    <row r="207" ht="15.75" customHeight="1">
+    <row r="207" spans="4:4" ht="15.75" customHeight="1">
       <c r="D207" s="4"/>
     </row>
-    <row r="208" ht="15.75" customHeight="1">
+    <row r="208" spans="4:4" ht="15.75" customHeight="1">
       <c r="D208" s="4"/>
     </row>
-    <row r="209" ht="15.75" customHeight="1">
+    <row r="209" spans="4:4" ht="15.75" customHeight="1">
       <c r="D209" s="4"/>
     </row>
-    <row r="210" ht="15.75" customHeight="1">
+    <row r="210" spans="4:4" ht="15.75" customHeight="1">
       <c r="D210" s="4"/>
     </row>
-    <row r="211" ht="15.75" customHeight="1">
+    <row r="211" spans="4:4" ht="15.75" customHeight="1">
       <c r="D211" s="4"/>
     </row>
-    <row r="212" ht="15.75" customHeight="1">
+    <row r="212" spans="4:4" ht="15.75" customHeight="1">
       <c r="D212" s="4"/>
     </row>
-    <row r="213" ht="15.75" customHeight="1">
+    <row r="213" spans="4:4" ht="15.75" customHeight="1">
       <c r="D213" s="4"/>
     </row>
-    <row r="214" ht="15.75" customHeight="1">
+    <row r="214" spans="4:4" ht="15.75" customHeight="1">
       <c r="D214" s="4"/>
     </row>
-    <row r="215" ht="15.75" customHeight="1">
+    <row r="215" spans="4:4" ht="15.75" customHeight="1">
       <c r="D215" s="4"/>
     </row>
-    <row r="216" ht="15.75" customHeight="1">
+    <row r="216" spans="4:4" ht="15.75" customHeight="1">
       <c r="D216" s="4"/>
     </row>
-    <row r="217" ht="15.75" customHeight="1">
+    <row r="217" spans="4:4" ht="15.75" customHeight="1">
       <c r="D217" s="4"/>
     </row>
-    <row r="218" ht="15.75" customHeight="1">
+    <row r="218" spans="4:4" ht="15.75" customHeight="1">
       <c r="D218" s="4"/>
     </row>
-    <row r="219" ht="15.75" customHeight="1">
+    <row r="219" spans="4:4" ht="15.75" customHeight="1">
       <c r="D219" s="4"/>
     </row>
-    <row r="220" ht="15.75" customHeight="1">
+    <row r="220" spans="4:4" ht="15.75" customHeight="1">
       <c r="D220" s="4"/>
     </row>
-    <row r="221" ht="15.75" customHeight="1">
+    <row r="221" spans="4:4" ht="15.75" customHeight="1">
       <c r="D221" s="4"/>
     </row>
-    <row r="222" ht="15.75" customHeight="1">
+    <row r="222" spans="4:4" ht="15.75" customHeight="1">
       <c r="D222" s="4"/>
     </row>
-    <row r="223" ht="15.75" customHeight="1">
+    <row r="223" spans="4:4" ht="15.75" customHeight="1">
       <c r="D223" s="4"/>
     </row>
-    <row r="224" ht="15.75" customHeight="1">
+    <row r="224" spans="4:4" ht="15.75" customHeight="1">
       <c r="D224" s="4"/>
     </row>
-    <row r="225" ht="15.75" customHeight="1">
+    <row r="225" spans="4:4" ht="15.75" customHeight="1">
       <c r="D225" s="4"/>
     </row>
-    <row r="226" ht="15.75" customHeight="1">
+    <row r="226" spans="4:4" ht="15.75" customHeight="1">
       <c r="D226" s="4"/>
     </row>
-    <row r="227" ht="15.75" customHeight="1">
+    <row r="227" spans="4:4" ht="15.75" customHeight="1">
       <c r="D227" s="4"/>
     </row>
-    <row r="228" ht="15.75" customHeight="1">
+    <row r="228" spans="4:4" ht="15.75" customHeight="1">
       <c r="D228" s="4"/>
     </row>
-    <row r="229" ht="15.75" customHeight="1">
+    <row r="229" spans="4:4" ht="15.75" customHeight="1">
       <c r="D229" s="4"/>
     </row>
-    <row r="230" ht="15.75" customHeight="1">
+    <row r="230" spans="4:4" ht="15.75" customHeight="1">
       <c r="D230" s="4"/>
     </row>
-    <row r="231" ht="15.75" customHeight="1">
+    <row r="231" spans="4:4" ht="15.75" customHeight="1">
       <c r="D231" s="4"/>
     </row>
-    <row r="232" ht="15.75" customHeight="1">
+    <row r="232" spans="4:4" ht="15.75" customHeight="1">
       <c r="D232" s="4"/>
     </row>
-    <row r="233" ht="15.75" customHeight="1">
+    <row r="233" spans="4:4" ht="15.75" customHeight="1">
       <c r="D233" s="4"/>
     </row>
-    <row r="234" ht="15.75" customHeight="1">
+    <row r="234" spans="4:4" ht="15.75" customHeight="1">
       <c r="D234" s="4"/>
     </row>
-    <row r="235" ht="15.75" customHeight="1">
+    <row r="235" spans="4:4" ht="15.75" customHeight="1">
       <c r="D235" s="4"/>
     </row>
-    <row r="236" ht="15.75" customHeight="1">
+    <row r="236" spans="4:4" ht="15.75" customHeight="1">
       <c r="D236" s="4"/>
     </row>
-    <row r="237" ht="15.75" customHeight="1">
+    <row r="237" spans="4:4" ht="15.75" customHeight="1">
       <c r="D237" s="4"/>
     </row>
-    <row r="238" ht="15.75" customHeight="1">
+    <row r="238" spans="4:4" ht="15.75" customHeight="1">
       <c r="D238" s="4"/>
     </row>
-    <row r="239" ht="15.75" customHeight="1">
+    <row r="239" spans="4:4" ht="15.75" customHeight="1">
       <c r="D239" s="4"/>
     </row>
-    <row r="240" ht="15.75" customHeight="1">
+    <row r="240" spans="4:4" ht="15.75" customHeight="1">
       <c r="D240" s="4"/>
     </row>
-    <row r="241" ht="15.75" customHeight="1">
+    <row r="241" spans="4:4" ht="15.75" customHeight="1">
       <c r="D241" s="4"/>
     </row>
-    <row r="242" ht="15.75" customHeight="1">
+    <row r="242" spans="4:4" ht="15.75" customHeight="1">
       <c r="D242" s="4"/>
     </row>
-    <row r="243" ht="15.75" customHeight="1">
+    <row r="243" spans="4:4" ht="15.75" customHeight="1">
       <c r="D243" s="4"/>
     </row>
-    <row r="244" ht="15.75" customHeight="1">
+    <row r="244" spans="4:4" ht="15.75" customHeight="1">
       <c r="D244" s="4"/>
     </row>
-    <row r="245" ht="15.75" customHeight="1">
+    <row r="245" spans="4:4" ht="15.75" customHeight="1">
       <c r="D245" s="4"/>
     </row>
-    <row r="246" ht="15.75" customHeight="1">
+    <row r="246" spans="4:4" ht="15.75" customHeight="1">
       <c r="D246" s="4"/>
     </row>
-    <row r="247" ht="15.75" customHeight="1">
+    <row r="247" spans="4:4" ht="15.75" customHeight="1">
       <c r="D247" s="4"/>
     </row>
-    <row r="248" ht="15.75" customHeight="1">
+    <row r="248" spans="4:4" ht="15.75" customHeight="1">
       <c r="D248" s="4"/>
     </row>
-    <row r="249" ht="15.75" customHeight="1">
+    <row r="249" spans="4:4" ht="15.75" customHeight="1">
       <c r="D249" s="4"/>
     </row>
-    <row r="250" ht="15.75" customHeight="1">
+    <row r="250" spans="4:4" ht="15.75" customHeight="1">
       <c r="D250" s="4"/>
     </row>
-    <row r="251" ht="15.75" customHeight="1">
+    <row r="251" spans="4:4" ht="15.75" customHeight="1">
       <c r="D251" s="4"/>
     </row>
-    <row r="252" ht="15.75" customHeight="1">
+    <row r="252" spans="4:4" ht="15.75" customHeight="1">
       <c r="D252" s="4"/>
     </row>
-    <row r="253" ht="15.75" customHeight="1">
+    <row r="253" spans="4:4" ht="15.75" customHeight="1">
       <c r="D253" s="4"/>
     </row>
-    <row r="254" ht="15.75" customHeight="1">
+    <row r="254" spans="4:4" ht="15.75" customHeight="1">
       <c r="D254" s="4"/>
     </row>
-    <row r="255" ht="15.75" customHeight="1">
+    <row r="255" spans="4:4" ht="15.75" customHeight="1">
       <c r="D255" s="4"/>
     </row>
-    <row r="256" ht="15.75" customHeight="1">
+    <row r="256" spans="4:4" ht="15.75" customHeight="1">
       <c r="D256" s="4"/>
     </row>
-    <row r="257" ht="15.75" customHeight="1">
+    <row r="257" spans="4:4" ht="15.75" customHeight="1">
       <c r="D257" s="4"/>
     </row>
-    <row r="258" ht="15.75" customHeight="1">
+    <row r="258" spans="4:4" ht="15.75" customHeight="1">
       <c r="D258" s="4"/>
     </row>
-    <row r="259" ht="15.75" customHeight="1">
+    <row r="259" spans="4:4" ht="15.75" customHeight="1">
       <c r="D259" s="4"/>
     </row>
-    <row r="260" ht="15.75" customHeight="1">
+    <row r="260" spans="4:4" ht="15.75" customHeight="1">
       <c r="D260" s="4"/>
     </row>
-    <row r="261" ht="15.75" customHeight="1">
+    <row r="261" spans="4:4" ht="15.75" customHeight="1">
       <c r="D261" s="4"/>
     </row>
-    <row r="262" ht="15.75" customHeight="1">
+    <row r="262" spans="4:4" ht="15.75" customHeight="1">
       <c r="D262" s="4"/>
     </row>
-    <row r="263" ht="15.75" customHeight="1">
+    <row r="263" spans="4:4" ht="15.75" customHeight="1">
       <c r="D263" s="4"/>
     </row>
-    <row r="264" ht="15.75" customHeight="1">
+    <row r="264" spans="4:4" ht="15.75" customHeight="1">
       <c r="D264" s="4"/>
     </row>
-    <row r="265" ht="15.75" customHeight="1">
+    <row r="265" spans="4:4" ht="15.75" customHeight="1">
       <c r="D265" s="4"/>
     </row>
-    <row r="266" ht="15.75" customHeight="1">
+    <row r="266" spans="4:4" ht="15.75" customHeight="1">
       <c r="D266" s="4"/>
     </row>
-    <row r="267" ht="15.75" customHeight="1">
+    <row r="267" spans="4:4" ht="15.75" customHeight="1">
       <c r="D267" s="4"/>
     </row>
-    <row r="268" ht="15.75" customHeight="1">
+    <row r="268" spans="4:4" ht="15.75" customHeight="1">
       <c r="D268" s="4"/>
     </row>
-    <row r="269" ht="15.75" customHeight="1">
+    <row r="269" spans="4:4" ht="15.75" customHeight="1">
       <c r="D269" s="4"/>
     </row>
-    <row r="270" ht="15.75" customHeight="1">
+    <row r="270" spans="4:4" ht="15.75" customHeight="1">
       <c r="D270" s="4"/>
     </row>
-    <row r="271" ht="15.75" customHeight="1">
+    <row r="271" spans="4:4" ht="15.75" customHeight="1">
       <c r="D271" s="4"/>
     </row>
-    <row r="272" ht="15.75" customHeight="1">
+    <row r="272" spans="4:4" ht="15.75" customHeight="1">
       <c r="D272" s="4"/>
     </row>
-    <row r="273" ht="15.75" customHeight="1">
+    <row r="273" spans="4:4" ht="15.75" customHeight="1">
       <c r="D273" s="4"/>
     </row>
-    <row r="274" ht="15.75" customHeight="1">
+    <row r="274" spans="4:4" ht="15.75" customHeight="1">
       <c r="D274" s="4"/>
     </row>
-    <row r="275" ht="15.75" customHeight="1">
+    <row r="275" spans="4:4" ht="15.75" customHeight="1">
       <c r="D275" s="4"/>
     </row>
-    <row r="276" ht="15.75" customHeight="1">
+    <row r="276" spans="4:4" ht="15.75" customHeight="1">
       <c r="D276" s="4"/>
     </row>
-    <row r="277" ht="15.75" customHeight="1">
+    <row r="277" spans="4:4" ht="15.75" customHeight="1">
       <c r="D277" s="4"/>
     </row>
-    <row r="278" ht="15.75" customHeight="1">
+    <row r="278" spans="4:4" ht="15.75" customHeight="1">
       <c r="D278" s="4"/>
     </row>
-    <row r="279" ht="15.75" customHeight="1">
+    <row r="279" spans="4:4" ht="15.75" customHeight="1">
       <c r="D279" s="4"/>
     </row>
-    <row r="280" ht="15.75" customHeight="1">
+    <row r="280" spans="4:4" ht="15.75" customHeight="1">
       <c r="D280" s="4"/>
     </row>
-    <row r="281" ht="15.75" customHeight="1">
+    <row r="281" spans="4:4" ht="15.75" customHeight="1">
       <c r="D281" s="4"/>
     </row>
-    <row r="282" ht="15.75" customHeight="1">
+    <row r="282" spans="4:4" ht="15.75" customHeight="1">
       <c r="D282" s="4"/>
     </row>
-    <row r="283" ht="15.75" customHeight="1">
+    <row r="283" spans="4:4" ht="15.75" customHeight="1">
       <c r="D283" s="4"/>
     </row>
-    <row r="284" ht="15.75" customHeight="1">
+    <row r="284" spans="4:4" ht="15.75" customHeight="1">
       <c r="D284" s="4"/>
     </row>
-    <row r="285" ht="15.75" customHeight="1">
+    <row r="285" spans="4:4" ht="15.75" customHeight="1">
       <c r="D285" s="4"/>
     </row>
-    <row r="286" ht="15.75" customHeight="1">
+    <row r="286" spans="4:4" ht="15.75" customHeight="1">
       <c r="D286" s="4"/>
     </row>
-    <row r="287" ht="15.75" customHeight="1">
+    <row r="287" spans="4:4" ht="15.75" customHeight="1">
       <c r="D287" s="4"/>
     </row>
-    <row r="288" ht="15.75" customHeight="1">
+    <row r="288" spans="4:4" ht="15.75" customHeight="1">
       <c r="D288" s="4"/>
     </row>
-    <row r="289" ht="15.75" customHeight="1">
+    <row r="289" spans="4:4" ht="15.75" customHeight="1">
       <c r="D289" s="4"/>
     </row>
-    <row r="290" ht="15.75" customHeight="1">
+    <row r="290" spans="4:4" ht="15.75" customHeight="1">
       <c r="D290" s="4"/>
     </row>
-    <row r="291" ht="15.75" customHeight="1">
+    <row r="291" spans="4:4" ht="15.75" customHeight="1">
       <c r="D291" s="4"/>
     </row>
-    <row r="292" ht="15.75" customHeight="1">
+    <row r="292" spans="4:4" ht="15.75" customHeight="1">
       <c r="D292" s="4"/>
     </row>
-    <row r="293" ht="15.75" customHeight="1">
+    <row r="293" spans="4:4" ht="15.75" customHeight="1">
       <c r="D293" s="4"/>
     </row>
-    <row r="294" ht="15.75" customHeight="1">
+    <row r="294" spans="4:4" ht="15.75" customHeight="1">
       <c r="D294" s="4"/>
     </row>
-    <row r="295" ht="15.75" customHeight="1">
+    <row r="295" spans="4:4" ht="15.75" customHeight="1">
       <c r="D295" s="4"/>
     </row>
-    <row r="296" ht="15.75" customHeight="1">
+    <row r="296" spans="4:4" ht="15.75" customHeight="1">
       <c r="D296" s="4"/>
     </row>
-    <row r="297" ht="15.75" customHeight="1">
+    <row r="297" spans="4:4" ht="15.75" customHeight="1">
       <c r="D297" s="4"/>
     </row>
-    <row r="298" ht="15.75" customHeight="1">
+    <row r="298" spans="4:4" ht="15.75" customHeight="1">
       <c r="D298" s="4"/>
     </row>
-    <row r="299" ht="15.75" customHeight="1">
+    <row r="299" spans="4:4" ht="15.75" customHeight="1">
       <c r="D299" s="4"/>
     </row>
-    <row r="300" ht="15.75" customHeight="1">
+    <row r="300" spans="4:4" ht="15.75" customHeight="1">
       <c r="D300" s="4"/>
     </row>
-    <row r="301" ht="15.75" customHeight="1">
+    <row r="301" spans="4:4" ht="15.75" customHeight="1">
       <c r="D301" s="4"/>
     </row>
-    <row r="302" ht="15.75" customHeight="1">
+    <row r="302" spans="4:4" ht="15.75" customHeight="1">
       <c r="D302" s="4"/>
     </row>
-    <row r="303" ht="15.75" customHeight="1">
+    <row r="303" spans="4:4" ht="15.75" customHeight="1">
       <c r="D303" s="4"/>
     </row>
-    <row r="304" ht="15.75" customHeight="1">
+    <row r="304" spans="4:4" ht="15.75" customHeight="1">
       <c r="D304" s="4"/>
     </row>
-    <row r="305" ht="15.75" customHeight="1">
+    <row r="305" spans="4:4" ht="15.75" customHeight="1">
       <c r="D305" s="4"/>
     </row>
-    <row r="306" ht="15.75" customHeight="1">
+    <row r="306" spans="4:4" ht="15.75" customHeight="1">
       <c r="D306" s="4"/>
     </row>
-    <row r="307" ht="15.75" customHeight="1">
+    <row r="307" spans="4:4" ht="15.75" customHeight="1">
       <c r="D307" s="4"/>
     </row>
-    <row r="308" ht="15.75" customHeight="1">
+    <row r="308" spans="4:4" ht="15.75" customHeight="1">
       <c r="D308" s="4"/>
     </row>
-    <row r="309" ht="15.75" customHeight="1">
+    <row r="309" spans="4:4" ht="15.75" customHeight="1">
       <c r="D309" s="4"/>
     </row>
-    <row r="310" ht="15.75" customHeight="1">
+    <row r="310" spans="4:4" ht="15.75" customHeight="1">
       <c r="D310" s="4"/>
     </row>
-    <row r="311" ht="15.75" customHeight="1">
+    <row r="311" spans="4:4" ht="15.75" customHeight="1">
       <c r="D311" s="4"/>
     </row>
-    <row r="312" ht="15.75" customHeight="1">
+    <row r="312" spans="4:4" ht="15.75" customHeight="1">
       <c r="D312" s="4"/>
     </row>
-    <row r="313" ht="15.75" customHeight="1">
+    <row r="313" spans="4:4" ht="15.75" customHeight="1">
       <c r="D313" s="4"/>
     </row>
-    <row r="314" ht="15.75" customHeight="1">
+    <row r="314" spans="4:4" ht="15.75" customHeight="1">
       <c r="D314" s="4"/>
     </row>
-    <row r="315" ht="15.75" customHeight="1">
+    <row r="315" spans="4:4" ht="15.75" customHeight="1">
       <c r="D315" s="4"/>
     </row>
-    <row r="316" ht="15.75" customHeight="1">
+    <row r="316" spans="4:4" ht="15.75" customHeight="1">
       <c r="D316" s="4"/>
     </row>
-    <row r="317" ht="15.75" customHeight="1">
+    <row r="317" spans="4:4" ht="15.75" customHeight="1">
       <c r="D317" s="4"/>
     </row>
-    <row r="318" ht="15.75" customHeight="1">
+    <row r="318" spans="4:4" ht="15.75" customHeight="1">
       <c r="D318" s="4"/>
     </row>
-    <row r="319" ht="15.75" customHeight="1">
+    <row r="319" spans="4:4" ht="15.75" customHeight="1">
       <c r="D319" s="4"/>
     </row>
-    <row r="320" ht="15.75" customHeight="1">
+    <row r="320" spans="4:4" ht="15.75" customHeight="1">
       <c r="D320" s="4"/>
     </row>
-    <row r="321" ht="15.75" customHeight="1">
+    <row r="321" spans="4:4" ht="15.75" customHeight="1">
       <c r="D321" s="4"/>
     </row>
-    <row r="322" ht="15.75" customHeight="1">
+    <row r="322" spans="4:4" ht="15.75" customHeight="1">
       <c r="D322" s="4"/>
     </row>
-    <row r="323" ht="15.75" customHeight="1">
+    <row r="323" spans="4:4" ht="15.75" customHeight="1">
       <c r="D323" s="4"/>
     </row>
-    <row r="324" ht="15.75" customHeight="1">
+    <row r="324" spans="4:4" ht="15.75" customHeight="1">
       <c r="D324" s="4"/>
     </row>
-    <row r="325" ht="15.75" customHeight="1">
+    <row r="325" spans="4:4" ht="15.75" customHeight="1">
       <c r="D325" s="4"/>
     </row>
-    <row r="326" ht="15.75" customHeight="1">
+    <row r="326" spans="4:4" ht="15.75" customHeight="1">
       <c r="D326" s="4"/>
     </row>
-    <row r="327" ht="15.75" customHeight="1">
+    <row r="327" spans="4:4" ht="15.75" customHeight="1">
       <c r="D327" s="4"/>
     </row>
-    <row r="328" ht="15.75" customHeight="1">
+    <row r="328" spans="4:4" ht="15.75" customHeight="1">
       <c r="D328" s="4"/>
     </row>
-    <row r="329" ht="15.75" customHeight="1">
+    <row r="329" spans="4:4" ht="15.75" customHeight="1">
       <c r="D329" s="4"/>
     </row>
-    <row r="330" ht="15.75" customHeight="1">
+    <row r="330" spans="4:4" ht="15.75" customHeight="1">
       <c r="D330" s="4"/>
     </row>
-    <row r="331" ht="15.75" customHeight="1">
+    <row r="331" spans="4:4" ht="15.75" customHeight="1">
       <c r="D331" s="4"/>
     </row>
-    <row r="332" ht="15.75" customHeight="1">
+    <row r="332" spans="4:4" ht="15.75" customHeight="1">
       <c r="D332" s="4"/>
     </row>
-    <row r="333" ht="15.75" customHeight="1">
+    <row r="333" spans="4:4" ht="15.75" customHeight="1">
       <c r="D333" s="4"/>
     </row>
-    <row r="334" ht="15.75" customHeight="1">
+    <row r="334" spans="4:4" ht="15.75" customHeight="1">
       <c r="D334" s="4"/>
     </row>
-    <row r="335" ht="15.75" customHeight="1">
+    <row r="335" spans="4:4" ht="15.75" customHeight="1">
       <c r="D335" s="4"/>
     </row>
-    <row r="336" ht="15.75" customHeight="1">
+    <row r="336" spans="4:4" ht="15.75" customHeight="1">
       <c r="D336" s="4"/>
     </row>
-    <row r="337" ht="15.75" customHeight="1">
+    <row r="337" spans="4:4" ht="15.75" customHeight="1">
       <c r="D337" s="4"/>
     </row>
-    <row r="338" ht="15.75" customHeight="1">
+    <row r="338" spans="4:4" ht="15.75" customHeight="1">
       <c r="D338" s="4"/>
     </row>
-    <row r="339" ht="15.75" customHeight="1">
+    <row r="339" spans="4:4" ht="15.75" customHeight="1">
       <c r="D339" s="4"/>
     </row>
-    <row r="340" ht="15.75" customHeight="1">
+    <row r="340" spans="4:4" ht="15.75" customHeight="1">
       <c r="D340" s="4"/>
     </row>
-    <row r="341" ht="15.75" customHeight="1">
+    <row r="341" spans="4:4" ht="15.75" customHeight="1">
       <c r="D341" s="4"/>
     </row>
-    <row r="342" ht="15.75" customHeight="1">
+    <row r="342" spans="4:4" ht="15.75" customHeight="1">
       <c r="D342" s="4"/>
     </row>
-    <row r="343" ht="15.75" customHeight="1">
+    <row r="343" spans="4:4" ht="15.75" customHeight="1">
       <c r="D343" s="4"/>
     </row>
-    <row r="344" ht="15.75" customHeight="1">
+    <row r="344" spans="4:4" ht="15.75" customHeight="1">
       <c r="D344" s="4"/>
     </row>
-    <row r="345" ht="15.75" customHeight="1">
+    <row r="345" spans="4:4" ht="15.75" customHeight="1">
       <c r="D345" s="4"/>
     </row>
-    <row r="346" ht="15.75" customHeight="1">
+    <row r="346" spans="4:4" ht="15.75" customHeight="1">
       <c r="D346" s="4"/>
     </row>
-    <row r="347" ht="15.75" customHeight="1">
+    <row r="347" spans="4:4" ht="15.75" customHeight="1">
       <c r="D347" s="4"/>
     </row>
-    <row r="348" ht="15.75" customHeight="1">
+    <row r="348" spans="4:4" ht="15.75" customHeight="1">
       <c r="D348" s="4"/>
     </row>
-    <row r="349" ht="15.75" customHeight="1">
+    <row r="349" spans="4:4" ht="15.75" customHeight="1">
       <c r="D349" s="4"/>
     </row>
-    <row r="350" ht="15.75" customHeight="1">
+    <row r="350" spans="4:4" ht="15.75" customHeight="1">
       <c r="D350" s="4"/>
     </row>
-    <row r="351" ht="15.75" customHeight="1">
+    <row r="351" spans="4:4" ht="15.75" customHeight="1">
       <c r="D351" s="4"/>
     </row>
-    <row r="352" ht="15.75" customHeight="1">
+    <row r="352" spans="4:4" ht="15.75" customHeight="1">
       <c r="D352" s="4"/>
     </row>
-    <row r="353" ht="15.75" customHeight="1">
+    <row r="353" spans="4:4" ht="15.75" customHeight="1">
       <c r="D353" s="4"/>
     </row>
-    <row r="354" ht="15.75" customHeight="1">
+    <row r="354" spans="4:4" ht="15.75" customHeight="1">
       <c r="D354" s="4"/>
     </row>
-    <row r="355" ht="15.75" customHeight="1">
+    <row r="355" spans="4:4" ht="15.75" customHeight="1">
       <c r="D355" s="4"/>
     </row>
-    <row r="356" ht="15.75" customHeight="1">
+    <row r="356" spans="4:4" ht="15.75" customHeight="1">
       <c r="D356" s="4"/>
     </row>
-    <row r="357" ht="15.75" customHeight="1">
+    <row r="357" spans="4:4" ht="15.75" customHeight="1">
       <c r="D357" s="4"/>
     </row>
-    <row r="358" ht="15.75" customHeight="1">
+    <row r="358" spans="4:4" ht="15.75" customHeight="1">
       <c r="D358" s="4"/>
     </row>
-    <row r="359" ht="15.75" customHeight="1">
+    <row r="359" spans="4:4" ht="15.75" customHeight="1">
       <c r="D359" s="4"/>
     </row>
-    <row r="360" ht="15.75" customHeight="1">
+    <row r="360" spans="4:4" ht="15.75" customHeight="1">
       <c r="D360" s="4"/>
     </row>
-    <row r="361" ht="15.75" customHeight="1">
+    <row r="361" spans="4:4" ht="15.75" customHeight="1">
       <c r="D361" s="4"/>
     </row>
-    <row r="362" ht="15.75" customHeight="1">
+    <row r="362" spans="4:4" ht="15.75" customHeight="1">
       <c r="D362" s="4"/>
     </row>
-    <row r="363" ht="15.75" customHeight="1">
+    <row r="363" spans="4:4" ht="15.75" customHeight="1">
       <c r="D363" s="4"/>
     </row>
-    <row r="364" ht="15.75" customHeight="1">
+    <row r="364" spans="4:4" ht="15.75" customHeight="1">
       <c r="D364" s="4"/>
     </row>
-    <row r="365" ht="15.75" customHeight="1">
+    <row r="365" spans="4:4" ht="15.75" customHeight="1">
       <c r="D365" s="4"/>
     </row>
-    <row r="366" ht="15.75" customHeight="1">
+    <row r="366" spans="4:4" ht="15.75" customHeight="1">
       <c r="D366" s="4"/>
     </row>
-    <row r="367" ht="15.75" customHeight="1">
+    <row r="367" spans="4:4" ht="15.75" customHeight="1">
       <c r="D367" s="4"/>
     </row>
-    <row r="368" ht="15.75" customHeight="1">
+    <row r="368" spans="4:4" ht="15.75" customHeight="1">
       <c r="D368" s="4"/>
     </row>
-    <row r="369" ht="15.75" customHeight="1">
+    <row r="369" spans="4:4" ht="15.75" customHeight="1">
       <c r="D369" s="4"/>
     </row>
-    <row r="370" ht="15.75" customHeight="1">
+    <row r="370" spans="4:4" ht="15.75" customHeight="1">
       <c r="D370" s="4"/>
     </row>
-    <row r="371" ht="15.75" customHeight="1">
+    <row r="371" spans="4:4" ht="15.75" customHeight="1">
       <c r="D371" s="4"/>
     </row>
-    <row r="372" ht="15.75" customHeight="1">
+    <row r="372" spans="4:4" ht="15.75" customHeight="1">
       <c r="D372" s="4"/>
     </row>
-    <row r="373" ht="15.75" customHeight="1">
+    <row r="373" spans="4:4" ht="15.75" customHeight="1">
       <c r="D373" s="4"/>
     </row>
-    <row r="374" ht="15.75" customHeight="1">
+    <row r="374" spans="4:4" ht="15.75" customHeight="1">
       <c r="D374" s="4"/>
     </row>
-    <row r="375" ht="15.75" customHeight="1">
+    <row r="375" spans="4:4" ht="15.75" customHeight="1">
       <c r="D375" s="4"/>
     </row>
-    <row r="376" ht="15.75" customHeight="1">
+    <row r="376" spans="4:4" ht="15.75" customHeight="1">
       <c r="D376" s="4"/>
     </row>
-    <row r="377" ht="15.75" customHeight="1">
+    <row r="377" spans="4:4" ht="15.75" customHeight="1">
       <c r="D377" s="4"/>
     </row>
-    <row r="378" ht="15.75" customHeight="1">
+    <row r="378" spans="4:4" ht="15.75" customHeight="1">
       <c r="D378" s="4"/>
     </row>
-    <row r="379" ht="15.75" customHeight="1">
+    <row r="379" spans="4:4" ht="15.75" customHeight="1">
       <c r="D379" s="4"/>
     </row>
-    <row r="380" ht="15.75" customHeight="1">
+    <row r="380" spans="4:4" ht="15.75" customHeight="1">
       <c r="D380" s="4"/>
     </row>
-    <row r="381" ht="15.75" customHeight="1">
+    <row r="381" spans="4:4" ht="15.75" customHeight="1">
       <c r="D381" s="4"/>
     </row>
-    <row r="382" ht="15.75" customHeight="1">
+    <row r="382" spans="4:4" ht="15.75" customHeight="1">
       <c r="D382" s="4"/>
     </row>
-    <row r="383" ht="15.75" customHeight="1">
+    <row r="383" spans="4:4" ht="15.75" customHeight="1">
       <c r="D383" s="4"/>
     </row>
-    <row r="384" ht="15.75" customHeight="1">
+    <row r="384" spans="4:4" ht="15.75" customHeight="1">
       <c r="D384" s="4"/>
     </row>
-    <row r="385" ht="15.75" customHeight="1">
+    <row r="385" spans="4:4" ht="15.75" customHeight="1">
       <c r="D385" s="4"/>
     </row>
-    <row r="386" ht="15.75" customHeight="1">
+    <row r="386" spans="4:4" ht="15.75" customHeight="1">
       <c r="D386" s="4"/>
     </row>
-    <row r="387" ht="15.75" customHeight="1">
+    <row r="387" spans="4:4" ht="15.75" customHeight="1">
       <c r="D387" s="4"/>
     </row>
-    <row r="388" ht="15.75" customHeight="1">
+    <row r="388" spans="4:4" ht="15.75" customHeight="1">
       <c r="D388" s="4"/>
     </row>
-    <row r="389" ht="15.75" customHeight="1">
+    <row r="389" spans="4:4" ht="15.75" customHeight="1">
       <c r="D389" s="4"/>
     </row>
-    <row r="390" ht="15.75" customHeight="1">
+    <row r="390" spans="4:4" ht="15.75" customHeight="1">
       <c r="D390" s="4"/>
     </row>
-    <row r="391" ht="15.75" customHeight="1">
+    <row r="391" spans="4:4" ht="15.75" customHeight="1">
       <c r="D391" s="4"/>
     </row>
-    <row r="392" ht="15.75" customHeight="1">
+    <row r="392" spans="4:4" ht="15.75" customHeight="1">
       <c r="D392" s="4"/>
     </row>
-    <row r="393" ht="15.75" customHeight="1">
+    <row r="393" spans="4:4" ht="15.75" customHeight="1">
       <c r="D393" s="4"/>
     </row>
-    <row r="394" ht="15.75" customHeight="1">
+    <row r="394" spans="4:4" ht="15.75" customHeight="1">
       <c r="D394" s="4"/>
     </row>
-    <row r="395" ht="15.75" customHeight="1">
+    <row r="395" spans="4:4" ht="15.75" customHeight="1">
       <c r="D395" s="4"/>
     </row>
-    <row r="396" ht="15.75" customHeight="1">
+    <row r="396" spans="4:4" ht="15.75" customHeight="1">
       <c r="D396" s="4"/>
     </row>
-    <row r="397" ht="15.75" customHeight="1">
+    <row r="397" spans="4:4" ht="15.75" customHeight="1">
       <c r="D397" s="4"/>
     </row>
-    <row r="398" ht="15.75" customHeight="1">
+    <row r="398" spans="4:4" ht="15.75" customHeight="1">
       <c r="D398" s="4"/>
     </row>
-    <row r="399" ht="15.75" customHeight="1">
+    <row r="399" spans="4:4" ht="15.75" customHeight="1">
       <c r="D399" s="4"/>
     </row>
-    <row r="400" ht="15.75" customHeight="1">
+    <row r="400" spans="4:4" ht="15.75" customHeight="1">
       <c r="D400" s="4"/>
     </row>
-    <row r="401" ht="15.75" customHeight="1">
+    <row r="401" spans="4:4" ht="15.75" customHeight="1">
       <c r="D401" s="4"/>
     </row>
-    <row r="402" ht="15.75" customHeight="1">
+    <row r="402" spans="4:4" ht="15.75" customHeight="1">
       <c r="D402" s="4"/>
     </row>
-    <row r="403" ht="15.75" customHeight="1">
+    <row r="403" spans="4:4" ht="15.75" customHeight="1">
       <c r="D403" s="4"/>
     </row>
-    <row r="404" ht="15.75" customHeight="1">
+    <row r="404" spans="4:4" ht="15.75" customHeight="1">
       <c r="D404" s="4"/>
     </row>
-    <row r="405" ht="15.75" customHeight="1">
+    <row r="405" spans="4:4" ht="15.75" customHeight="1">
       <c r="D405" s="4"/>
     </row>
-    <row r="406" ht="15.75" customHeight="1">
+    <row r="406" spans="4:4" ht="15.75" customHeight="1">
       <c r="D406" s="4"/>
     </row>
-    <row r="407" ht="15.75" customHeight="1">
+    <row r="407" spans="4:4" ht="15.75" customHeight="1">
       <c r="D407" s="4"/>
     </row>
-    <row r="408" ht="15.75" customHeight="1">
+    <row r="408" spans="4:4" ht="15.75" customHeight="1">
       <c r="D408" s="4"/>
     </row>
-    <row r="409" ht="15.75" customHeight="1">
+    <row r="409" spans="4:4" ht="15.75" customHeight="1">
       <c r="D409" s="4"/>
     </row>
-    <row r="410" ht="15.75" customHeight="1">
+    <row r="410" spans="4:4" ht="15.75" customHeight="1">
       <c r="D410" s="4"/>
     </row>
-    <row r="411" ht="15.75" customHeight="1">
+    <row r="411" spans="4:4" ht="15.75" customHeight="1">
       <c r="D411" s="4"/>
     </row>
-    <row r="412" ht="15.75" customHeight="1">
+    <row r="412" spans="4:4" ht="15.75" customHeight="1">
       <c r="D412" s="4"/>
     </row>
-    <row r="413" ht="15.75" customHeight="1">
+    <row r="413" spans="4:4" ht="15.75" customHeight="1">
       <c r="D413" s="4"/>
     </row>
-    <row r="414" ht="15.75" customHeight="1">
+    <row r="414" spans="4:4" ht="15.75" customHeight="1">
       <c r="D414" s="4"/>
     </row>
-    <row r="415" ht="15.75" customHeight="1">
+    <row r="415" spans="4:4" ht="15.75" customHeight="1">
       <c r="D415" s="4"/>
     </row>
-    <row r="416" ht="15.75" customHeight="1">
+    <row r="416" spans="4:4" ht="15.75" customHeight="1">
       <c r="D416" s="4"/>
     </row>
-    <row r="417" ht="15.75" customHeight="1">
+    <row r="417" spans="4:4" ht="15.75" customHeight="1">
       <c r="D417" s="4"/>
     </row>
-    <row r="418" ht="15.75" customHeight="1">
+    <row r="418" spans="4:4" ht="15.75" customHeight="1">
       <c r="D418" s="4"/>
     </row>
-    <row r="419" ht="15.75" customHeight="1">
+    <row r="419" spans="4:4" ht="15.75" customHeight="1">
       <c r="D419" s="4"/>
     </row>
-    <row r="420" ht="15.75" customHeight="1">
+    <row r="420" spans="4:4" ht="15.75" customHeight="1">
       <c r="D420" s="4"/>
     </row>
-    <row r="421" ht="15.75" customHeight="1">
+    <row r="421" spans="4:4" ht="15.75" customHeight="1">
       <c r="D421" s="4"/>
     </row>
-    <row r="422" ht="15.75" customHeight="1">
+    <row r="422" spans="4:4" ht="15.75" customHeight="1">
       <c r="D422" s="4"/>
     </row>
-    <row r="423" ht="15.75" customHeight="1">
+    <row r="423" spans="4:4" ht="15.75" customHeight="1">
       <c r="D423" s="4"/>
     </row>
-    <row r="424" ht="15.75" customHeight="1">
+    <row r="424" spans="4:4" ht="15.75" customHeight="1">
       <c r="D424" s="4"/>
     </row>
-    <row r="425" ht="15.75" customHeight="1">
+    <row r="425" spans="4:4" ht="15.75" customHeight="1">
       <c r="D425" s="4"/>
     </row>
-    <row r="426" ht="15.75" customHeight="1">
+    <row r="426" spans="4:4" ht="15.75" customHeight="1">
       <c r="D426" s="4"/>
     </row>
-    <row r="427" ht="15.75" customHeight="1">
+    <row r="427" spans="4:4" ht="15.75" customHeight="1">
       <c r="D427" s="4"/>
     </row>
-    <row r="428" ht="15.75" customHeight="1">
+    <row r="428" spans="4:4" ht="15.75" customHeight="1">
       <c r="D428" s="4"/>
     </row>
-    <row r="429" ht="15.75" customHeight="1">
+    <row r="429" spans="4:4" ht="15.75" customHeight="1">
       <c r="D429" s="4"/>
     </row>
-    <row r="430" ht="15.75" customHeight="1">
+    <row r="430" spans="4:4" ht="15.75" customHeight="1">
       <c r="D430" s="4"/>
     </row>
-    <row r="431" ht="15.75" customHeight="1">
+    <row r="431" spans="4:4" ht="15.75" customHeight="1">
       <c r="D431" s="4"/>
     </row>
-    <row r="432" ht="15.75" customHeight="1">
+    <row r="432" spans="4:4" ht="15.75" customHeight="1">
       <c r="D432" s="4"/>
     </row>
-    <row r="433" ht="15.75" customHeight="1">
+    <row r="433" spans="4:4" ht="15.75" customHeight="1">
       <c r="D433" s="4"/>
     </row>
-    <row r="434" ht="15.75" customHeight="1">
+    <row r="434" spans="4:4" ht="15.75" customHeight="1">
       <c r="D434" s="4"/>
     </row>
-    <row r="435" ht="15.75" customHeight="1">
+    <row r="435" spans="4:4" ht="15.75" customHeight="1">
       <c r="D435" s="4"/>
     </row>
-    <row r="436" ht="15.75" customHeight="1">
+    <row r="436" spans="4:4" ht="15.75" customHeight="1">
       <c r="D436" s="4"/>
     </row>
-    <row r="437" ht="15.75" customHeight="1">
+    <row r="437" spans="4:4" ht="15.75" customHeight="1">
       <c r="D437" s="4"/>
     </row>
-    <row r="438" ht="15.75" customHeight="1">
+    <row r="438" spans="4:4" ht="15.75" customHeight="1">
       <c r="D438" s="4"/>
     </row>
-    <row r="439" ht="15.75" customHeight="1">
+    <row r="439" spans="4:4" ht="15.75" customHeight="1">
       <c r="D439" s="4"/>
     </row>
-    <row r="440" ht="15.75" customHeight="1">
+    <row r="440" spans="4:4" ht="15.75" customHeight="1">
       <c r="D440" s="4"/>
     </row>
-    <row r="441" ht="15.75" customHeight="1">
+    <row r="441" spans="4:4" ht="15.75" customHeight="1">
       <c r="D441" s="4"/>
     </row>
-    <row r="442" ht="15.75" customHeight="1">
+    <row r="442" spans="4:4" ht="15.75" customHeight="1">
       <c r="D442" s="4"/>
     </row>
-    <row r="443" ht="15.75" customHeight="1">
+    <row r="443" spans="4:4" ht="15.75" customHeight="1">
       <c r="D443" s="4"/>
     </row>
-    <row r="444" ht="15.75" customHeight="1">
+    <row r="444" spans="4:4" ht="15.75" customHeight="1">
       <c r="D444" s="4"/>
     </row>
-    <row r="445" ht="15.75" customHeight="1">
+    <row r="445" spans="4:4" ht="15.75" customHeight="1">
       <c r="D445" s="4"/>
     </row>
-    <row r="446" ht="15.75" customHeight="1">
+    <row r="446" spans="4:4" ht="15.75" customHeight="1">
       <c r="D446" s="4"/>
     </row>
-    <row r="447" ht="15.75" customHeight="1">
+    <row r="447" spans="4:4" ht="15.75" customHeight="1">
       <c r="D447" s="4"/>
     </row>
-    <row r="448" ht="15.75" customHeight="1">
+    <row r="448" spans="4:4" ht="15.75" customHeight="1">
       <c r="D448" s="4"/>
     </row>
-    <row r="449" ht="15.75" customHeight="1">
+    <row r="449" spans="4:4" ht="15.75" customHeight="1">
       <c r="D449" s="4"/>
     </row>
-    <row r="450" ht="15.75" customHeight="1">
+    <row r="450" spans="4:4" ht="15.75" customHeight="1">
       <c r="D450" s="4"/>
     </row>
-    <row r="451" ht="15.75" customHeight="1">
+    <row r="451" spans="4:4" ht="15.75" customHeight="1">
       <c r="D451" s="4"/>
     </row>
-    <row r="452" ht="15.75" customHeight="1">
+    <row r="452" spans="4:4" ht="15.75" customHeight="1">
       <c r="D452" s="4"/>
     </row>
-    <row r="453" ht="15.75" customHeight="1">
+    <row r="453" spans="4:4" ht="15.75" customHeight="1">
       <c r="D453" s="4"/>
     </row>
-    <row r="454" ht="15.75" customHeight="1">
+    <row r="454" spans="4:4" ht="15.75" customHeight="1">
       <c r="D454" s="4"/>
     </row>
-    <row r="455" ht="15.75" customHeight="1">
+    <row r="455" spans="4:4" ht="15.75" customHeight="1">
       <c r="D455" s="4"/>
     </row>
-    <row r="456" ht="15.75" customHeight="1">
+    <row r="456" spans="4:4" ht="15.75" customHeight="1">
       <c r="D456" s="4"/>
     </row>
-    <row r="457" ht="15.75" customHeight="1">
+    <row r="457" spans="4:4" ht="15.75" customHeight="1">
       <c r="D457" s="4"/>
     </row>
-    <row r="458" ht="15.75" customHeight="1">
+    <row r="458" spans="4:4" ht="15.75" customHeight="1">
       <c r="D458" s="4"/>
     </row>
-    <row r="459" ht="15.75" customHeight="1">
+    <row r="459" spans="4:4" ht="15.75" customHeight="1">
       <c r="D459" s="4"/>
     </row>
-    <row r="460" ht="15.75" customHeight="1">
+    <row r="460" spans="4:4" ht="15.75" customHeight="1">
       <c r="D460" s="4"/>
     </row>
-    <row r="461" ht="15.75" customHeight="1">
+    <row r="461" spans="4:4" ht="15.75" customHeight="1">
       <c r="D461" s="4"/>
     </row>
-    <row r="462" ht="15.75" customHeight="1">
+    <row r="462" spans="4:4" ht="15.75" customHeight="1">
       <c r="D462" s="4"/>
     </row>
-    <row r="463" ht="15.75" customHeight="1">
+    <row r="463" spans="4:4" ht="15.75" customHeight="1">
       <c r="D463" s="4"/>
     </row>
-    <row r="464" ht="15.75" customHeight="1">
+    <row r="464" spans="4:4" ht="15.75" customHeight="1">
       <c r="D464" s="4"/>
     </row>
-    <row r="465" ht="15.75" customHeight="1">
+    <row r="465" spans="4:4" ht="15.75" customHeight="1">
       <c r="D465" s="4"/>
     </row>
-    <row r="466" ht="15.75" customHeight="1">
+    <row r="466" spans="4:4" ht="15.75" customHeight="1">
       <c r="D466" s="4"/>
     </row>
-    <row r="467" ht="15.75" customHeight="1">
+    <row r="467" spans="4:4" ht="15.75" customHeight="1">
       <c r="D467" s="4"/>
     </row>
-    <row r="468" ht="15.75" customHeight="1">
+    <row r="468" spans="4:4" ht="15.75" customHeight="1">
       <c r="D468" s="4"/>
     </row>
-    <row r="469" ht="15.75" customHeight="1">
+    <row r="469" spans="4:4" ht="15.75" customHeight="1">
       <c r="D469" s="4"/>
     </row>
-    <row r="470" ht="15.75" customHeight="1">
+    <row r="470" spans="4:4" ht="15.75" customHeight="1">
       <c r="D470" s="4"/>
     </row>
-    <row r="471" ht="15.75" customHeight="1">
+    <row r="471" spans="4:4" ht="15.75" customHeight="1">
       <c r="D471" s="4"/>
     </row>
-    <row r="472" ht="15.75" customHeight="1">
+    <row r="472" spans="4:4" ht="15.75" customHeight="1">
       <c r="D472" s="4"/>
     </row>
-    <row r="473" ht="15.75" customHeight="1">
+    <row r="473" spans="4:4" ht="15.75" customHeight="1">
       <c r="D473" s="4"/>
     </row>
-    <row r="474" ht="15.75" customHeight="1">
+    <row r="474" spans="4:4" ht="15.75" customHeight="1">
       <c r="D474" s="4"/>
     </row>
-    <row r="475" ht="15.75" customHeight="1">
+    <row r="475" spans="4:4" ht="15.75" customHeight="1">
       <c r="D475" s="4"/>
     </row>
-    <row r="476" ht="15.75" customHeight="1">
+    <row r="476" spans="4:4" ht="15.75" customHeight="1">
       <c r="D476" s="4"/>
     </row>
-    <row r="477" ht="15.75" customHeight="1">
+    <row r="477" spans="4:4" ht="15.75" customHeight="1">
       <c r="D477" s="4"/>
     </row>
-    <row r="478" ht="15.75" customHeight="1">
+    <row r="478" spans="4:4" ht="15.75" customHeight="1">
       <c r="D478" s="4"/>
     </row>
-    <row r="479" ht="15.75" customHeight="1">
+    <row r="479" spans="4:4" ht="15.75" customHeight="1">
       <c r="D479" s="4"/>
     </row>
-    <row r="480" ht="15.75" customHeight="1">
+    <row r="480" spans="4:4" ht="15.75" customHeight="1">
       <c r="D480" s="4"/>
     </row>
-    <row r="481" ht="15.75" customHeight="1">
+    <row r="481" spans="4:4" ht="15.75" customHeight="1">
       <c r="D481" s="4"/>
     </row>
-    <row r="482" ht="15.75" customHeight="1">
+    <row r="482" spans="4:4" ht="15.75" customHeight="1">
       <c r="D482" s="4"/>
     </row>
-    <row r="483" ht="15.75" customHeight="1">
+    <row r="483" spans="4:4" ht="15.75" customHeight="1">
       <c r="D483" s="4"/>
     </row>
-    <row r="484" ht="15.75" customHeight="1">
+    <row r="484" spans="4:4" ht="15.75" customHeight="1">
       <c r="D484" s="4"/>
     </row>
-    <row r="485" ht="15.75" customHeight="1">
+    <row r="485" spans="4:4" ht="15.75" customHeight="1">
       <c r="D485" s="4"/>
     </row>
-    <row r="486" ht="15.75" customHeight="1">
+    <row r="486" spans="4:4" ht="15.75" customHeight="1">
       <c r="D486" s="4"/>
     </row>
-    <row r="487" ht="15.75" customHeight="1">
+    <row r="487" spans="4:4" ht="15.75" customHeight="1">
       <c r="D487" s="4"/>
     </row>
-    <row r="488" ht="15.75" customHeight="1">
+    <row r="488" spans="4:4" ht="15.75" customHeight="1">
       <c r="D488" s="4"/>
     </row>
-    <row r="489" ht="15.75" customHeight="1">
+    <row r="489" spans="4:4" ht="15.75" customHeight="1">
       <c r="D489" s="4"/>
     </row>
-    <row r="490" ht="15.75" customHeight="1">
+    <row r="490" spans="4:4" ht="15.75" customHeight="1">
       <c r="D490" s="4"/>
     </row>
-    <row r="491" ht="15.75" customHeight="1">
+    <row r="491" spans="4:4" ht="15.75" customHeight="1">
       <c r="D491" s="4"/>
     </row>
-    <row r="492" ht="15.75" customHeight="1">
+    <row r="492" spans="4:4" ht="15.75" customHeight="1">
       <c r="D492" s="4"/>
     </row>
-    <row r="493" ht="15.75" customHeight="1">
+    <row r="493" spans="4:4" ht="15.75" customHeight="1">
       <c r="D493" s="4"/>
     </row>
-    <row r="494" ht="15.75" customHeight="1">
+    <row r="494" spans="4:4" ht="15.75" customHeight="1">
       <c r="D494" s="4"/>
     </row>
-    <row r="495" ht="15.75" customHeight="1">
+    <row r="495" spans="4:4" ht="15.75" customHeight="1">
       <c r="D495" s="4"/>
     </row>
-    <row r="496" ht="15.75" customHeight="1">
+    <row r="496" spans="4:4" ht="15.75" customHeight="1">
       <c r="D496" s="4"/>
     </row>
-    <row r="497" ht="15.75" customHeight="1">
+    <row r="497" spans="4:4" ht="15.75" customHeight="1">
       <c r="D497" s="4"/>
     </row>
-    <row r="498" ht="15.75" customHeight="1">
+    <row r="498" spans="4:4" ht="15.75" customHeight="1">
       <c r="D498" s="4"/>
     </row>
-    <row r="499" ht="15.75" customHeight="1">
+    <row r="499" spans="4:4" ht="15.75" customHeight="1">
       <c r="D499" s="4"/>
     </row>
-    <row r="500" ht="15.75" customHeight="1">
+    <row r="500" spans="4:4" ht="15.75" customHeight="1">
       <c r="D500" s="4"/>
     </row>
-    <row r="501" ht="15.75" customHeight="1">
+    <row r="501" spans="4:4" ht="15.75" customHeight="1">
       <c r="D501" s="4"/>
     </row>
-    <row r="502" ht="15.75" customHeight="1">
+    <row r="502" spans="4:4" ht="15.75" customHeight="1">
       <c r="D502" s="4"/>
     </row>
-    <row r="503" ht="15.75" customHeight="1">
+    <row r="503" spans="4:4" ht="15.75" customHeight="1">
       <c r="D503" s="4"/>
     </row>
-    <row r="504" ht="15.75" customHeight="1">
+    <row r="504" spans="4:4" ht="15.75" customHeight="1">
       <c r="D504" s="4"/>
     </row>
-    <row r="505" ht="15.75" customHeight="1">
+    <row r="505" spans="4:4" ht="15.75" customHeight="1">
       <c r="D505" s="4"/>
     </row>
-    <row r="506" ht="15.75" customHeight="1">
+    <row r="506" spans="4:4" ht="15.75" customHeight="1">
       <c r="D506" s="4"/>
     </row>
-    <row r="507" ht="15.75" customHeight="1">
+    <row r="507" spans="4:4" ht="15.75" customHeight="1">
       <c r="D507" s="4"/>
     </row>
-    <row r="508" ht="15.75" customHeight="1">
+    <row r="508" spans="4:4" ht="15.75" customHeight="1">
       <c r="D508" s="4"/>
     </row>
-    <row r="509" ht="15.75" customHeight="1">
+    <row r="509" spans="4:4" ht="15.75" customHeight="1">
       <c r="D509" s="4"/>
     </row>
-    <row r="510" ht="15.75" customHeight="1">
+    <row r="510" spans="4:4" ht="15.75" customHeight="1">
       <c r="D510" s="4"/>
     </row>
-    <row r="511" ht="15.75" customHeight="1">
+    <row r="511" spans="4:4" ht="15.75" customHeight="1">
       <c r="D511" s="4"/>
     </row>
-    <row r="512" ht="15.75" customHeight="1">
+    <row r="512" spans="4:4" ht="15.75" customHeight="1">
       <c r="D512" s="4"/>
     </row>
-    <row r="513" ht="15.75" customHeight="1">
+    <row r="513" spans="4:4" ht="15.75" customHeight="1">
       <c r="D513" s="4"/>
     </row>
-    <row r="514" ht="15.75" customHeight="1">
+    <row r="514" spans="4:4" ht="15.75" customHeight="1">
       <c r="D514" s="4"/>
     </row>
-    <row r="515" ht="15.75" customHeight="1">
+    <row r="515" spans="4:4" ht="15.75" customHeight="1">
       <c r="D515" s="4"/>
     </row>
-    <row r="516" ht="15.75" customHeight="1">
+    <row r="516" spans="4:4" ht="15.75" customHeight="1">
       <c r="D516" s="4"/>
     </row>
-    <row r="517" ht="15.75" customHeight="1">
+    <row r="517" spans="4:4" ht="15.75" customHeight="1">
       <c r="D517" s="4"/>
     </row>
-    <row r="518" ht="15.75" customHeight="1">
+    <row r="518" spans="4:4" ht="15.75" customHeight="1">
       <c r="D518" s="4"/>
     </row>
-    <row r="519" ht="15.75" customHeight="1">
+    <row r="519" spans="4:4" ht="15.75" customHeight="1">
       <c r="D519" s="4"/>
     </row>
-    <row r="520" ht="15.75" customHeight="1">
+    <row r="520" spans="4:4" ht="15.75" customHeight="1">
       <c r="D520" s="4"/>
     </row>
-    <row r="521" ht="15.75" customHeight="1">
+    <row r="521" spans="4:4" ht="15.75" customHeight="1">
       <c r="D521" s="4"/>
     </row>
-    <row r="522" ht="15.75" customHeight="1">
+    <row r="522" spans="4:4" ht="15.75" customHeight="1">
       <c r="D522" s="4"/>
     </row>
-    <row r="523" ht="15.75" customHeight="1">
+    <row r="523" spans="4:4" ht="15.75" customHeight="1">
       <c r="D523" s="4"/>
     </row>
-    <row r="524" ht="15.75" customHeight="1">
+    <row r="524" spans="4:4" ht="15.75" customHeight="1">
       <c r="D524" s="4"/>
     </row>
-    <row r="525" ht="15.75" customHeight="1">
+    <row r="525" spans="4:4" ht="15.75" customHeight="1">
       <c r="D525" s="4"/>
     </row>
-    <row r="526" ht="15.75" customHeight="1">
+    <row r="526" spans="4:4" ht="15.75" customHeight="1">
       <c r="D526" s="4"/>
     </row>
-    <row r="527" ht="15.75" customHeight="1">
+    <row r="527" spans="4:4" ht="15.75" customHeight="1">
       <c r="D527" s="4"/>
     </row>
-    <row r="528" ht="15.75" customHeight="1">
+    <row r="528" spans="4:4" ht="15.75" customHeight="1">
       <c r="D528" s="4"/>
     </row>
-    <row r="529" ht="15.75" customHeight="1">
+    <row r="529" spans="4:4" ht="15.75" customHeight="1">
       <c r="D529" s="4"/>
     </row>
-    <row r="530" ht="15.75" customHeight="1">
+    <row r="530" spans="4:4" ht="15.75" customHeight="1">
       <c r="D530" s="4"/>
     </row>
-    <row r="531" ht="15.75" customHeight="1">
+    <row r="531" spans="4:4" ht="15.75" customHeight="1">
       <c r="D531" s="4"/>
     </row>
-    <row r="532" ht="15.75" customHeight="1">
+    <row r="532" spans="4:4" ht="15.75" customHeight="1">
       <c r="D532" s="4"/>
     </row>
-    <row r="533" ht="15.75" customHeight="1">
+    <row r="533" spans="4:4" ht="15.75" customHeight="1">
       <c r="D533" s="4"/>
     </row>
-    <row r="534" ht="15.75" customHeight="1">
+    <row r="534" spans="4:4" ht="15.75" customHeight="1">
       <c r="D534" s="4"/>
     </row>
-    <row r="535" ht="15.75" customHeight="1">
+    <row r="535" spans="4:4" ht="15.75" customHeight="1">
       <c r="D535" s="4"/>
     </row>
-    <row r="536" ht="15.75" customHeight="1">
+    <row r="536" spans="4:4" ht="15.75" customHeight="1">
       <c r="D536" s="4"/>
     </row>
-    <row r="537" ht="15.75" customHeight="1">
+    <row r="537" spans="4:4" ht="15.75" customHeight="1">
       <c r="D537" s="4"/>
     </row>
-    <row r="538" ht="15.75" customHeight="1">
+    <row r="538" spans="4:4" ht="15.75" customHeight="1">
       <c r="D538" s="4"/>
     </row>
-    <row r="539" ht="15.75" customHeight="1">
+    <row r="539" spans="4:4" ht="15.75" customHeight="1">
       <c r="D539" s="4"/>
     </row>
-    <row r="540" ht="15.75" customHeight="1">
+    <row r="540" spans="4:4" ht="15.75" customHeight="1">
       <c r="D540" s="4"/>
     </row>
-    <row r="541" ht="15.75" customHeight="1">
+    <row r="541" spans="4:4" ht="15.75" customHeight="1">
       <c r="D541" s="4"/>
     </row>
-    <row r="542" ht="15.75" customHeight="1">
+    <row r="542" spans="4:4" ht="15.75" customHeight="1">
       <c r="D542" s="4"/>
     </row>
-    <row r="543" ht="15.75" customHeight="1">
+    <row r="543" spans="4:4" ht="15.75" customHeight="1">
       <c r="D543" s="4"/>
     </row>
-    <row r="544" ht="15.75" customHeight="1">
+    <row r="544" spans="4:4" ht="15.75" customHeight="1">
       <c r="D544" s="4"/>
     </row>
-    <row r="545" ht="15.75" customHeight="1">
+    <row r="545" spans="4:4" ht="15.75" customHeight="1">
       <c r="D545" s="4"/>
     </row>
-    <row r="546" ht="15.75" customHeight="1">
+    <row r="546" spans="4:4" ht="15.75" customHeight="1">
       <c r="D546" s="4"/>
     </row>
-    <row r="547" ht="15.75" customHeight="1">
+    <row r="547" spans="4:4" ht="15.75" customHeight="1">
       <c r="D547" s="4"/>
     </row>
-    <row r="548" ht="15.75" customHeight="1">
+    <row r="548" spans="4:4" ht="15.75" customHeight="1">
       <c r="D548" s="4"/>
     </row>
-    <row r="549" ht="15.75" customHeight="1">
+    <row r="549" spans="4:4" ht="15.75" customHeight="1">
       <c r="D549" s="4"/>
     </row>
-    <row r="550" ht="15.75" customHeight="1">
+    <row r="550" spans="4:4" ht="15.75" customHeight="1">
       <c r="D550" s="4"/>
     </row>
-    <row r="551" ht="15.75" customHeight="1">
+    <row r="551" spans="4:4" ht="15.75" customHeight="1">
       <c r="D551" s="4"/>
     </row>
-    <row r="552" ht="15.75" customHeight="1">
+    <row r="552" spans="4:4" ht="15.75" customHeight="1">
       <c r="D552" s="4"/>
     </row>
-    <row r="553" ht="15.75" customHeight="1">
+    <row r="553" spans="4:4" ht="15.75" customHeight="1">
       <c r="D553" s="4"/>
     </row>
-    <row r="554" ht="15.75" customHeight="1">
+    <row r="554" spans="4:4" ht="15.75" customHeight="1">
       <c r="D554" s="4"/>
     </row>
-    <row r="555" ht="15.75" customHeight="1">
+    <row r="555" spans="4:4" ht="15.75" customHeight="1">
       <c r="D555" s="4"/>
     </row>
-    <row r="556" ht="15.75" customHeight="1">
+    <row r="556" spans="4:4" ht="15.75" customHeight="1">
       <c r="D556" s="4"/>
     </row>
-    <row r="557" ht="15.75" customHeight="1">
+    <row r="557" spans="4:4" ht="15.75" customHeight="1">
       <c r="D557" s="4"/>
     </row>
-    <row r="558" ht="15.75" customHeight="1">
+    <row r="558" spans="4:4" ht="15.75" customHeight="1">
       <c r="D558" s="4"/>
     </row>
-    <row r="559" ht="15.75" customHeight="1">
+    <row r="559" spans="4:4" ht="15.75" customHeight="1">
       <c r="D559" s="4"/>
     </row>
-    <row r="560" ht="15.75" customHeight="1">
+    <row r="560" spans="4:4" ht="15.75" customHeight="1">
       <c r="D560" s="4"/>
     </row>
-    <row r="561" ht="15.75" customHeight="1">
+    <row r="561" spans="4:4" ht="15.75" customHeight="1">
       <c r="D561" s="4"/>
     </row>
-    <row r="562" ht="15.75" customHeight="1">
+    <row r="562" spans="4:4" ht="15.75" customHeight="1">
       <c r="D562" s="4"/>
     </row>
-    <row r="563" ht="15.75" customHeight="1">
+    <row r="563" spans="4:4" ht="15.75" customHeight="1">
       <c r="D563" s="4"/>
     </row>
-    <row r="564" ht="15.75" customHeight="1">
+    <row r="564" spans="4:4" ht="15.75" customHeight="1">
       <c r="D564" s="4"/>
     </row>
-    <row r="565" ht="15.75" customHeight="1">
+    <row r="565" spans="4:4" ht="15.75" customHeight="1">
       <c r="D565" s="4"/>
     </row>
-    <row r="566" ht="15.75" customHeight="1">
+    <row r="566" spans="4:4" ht="15.75" customHeight="1">
       <c r="D566" s="4"/>
     </row>
-    <row r="567" ht="15.75" customHeight="1">
+    <row r="567" spans="4:4" ht="15.75" customHeight="1">
       <c r="D567" s="4"/>
     </row>
-    <row r="568" ht="15.75" customHeight="1">
+    <row r="568" spans="4:4" ht="15.75" customHeight="1">
       <c r="D568" s="4"/>
     </row>
-    <row r="569" ht="15.75" customHeight="1">
+    <row r="569" spans="4:4" ht="15.75" customHeight="1">
       <c r="D569" s="4"/>
     </row>
-    <row r="570" ht="15.75" customHeight="1">
+    <row r="570" spans="4:4" ht="15.75" customHeight="1">
       <c r="D570" s="4"/>
     </row>
-    <row r="571" ht="15.75" customHeight="1">
+    <row r="571" spans="4:4" ht="15.75" customHeight="1">
       <c r="D571" s="4"/>
     </row>
-    <row r="572" ht="15.75" customHeight="1">
+    <row r="572" spans="4:4" ht="15.75" customHeight="1">
       <c r="D572" s="4"/>
     </row>
-    <row r="573" ht="15.75" customHeight="1">
+    <row r="573" spans="4:4" ht="15.75" customHeight="1">
       <c r="D573" s="4"/>
     </row>
-    <row r="574" ht="15.75" customHeight="1">
+    <row r="574" spans="4:4" ht="15.75" customHeight="1">
       <c r="D574" s="4"/>
     </row>
-    <row r="575" ht="15.75" customHeight="1">
+    <row r="575" spans="4:4" ht="15.75" customHeight="1">
       <c r="D575" s="4"/>
     </row>
-    <row r="576" ht="15.75" customHeight="1">
+    <row r="576" spans="4:4" ht="15.75" customHeight="1">
       <c r="D576" s="4"/>
     </row>
-    <row r="577" ht="15.75" customHeight="1">
+    <row r="577" spans="4:4" ht="15.75" customHeight="1">
       <c r="D577" s="4"/>
     </row>
-    <row r="578" ht="15.75" customHeight="1">
+    <row r="578" spans="4:4" ht="15.75" customHeight="1">
       <c r="D578" s="4"/>
     </row>
-    <row r="579" ht="15.75" customHeight="1">
+    <row r="579" spans="4:4" ht="15.75" customHeight="1">
       <c r="D579" s="4"/>
     </row>
-    <row r="580" ht="15.75" customHeight="1">
+    <row r="580" spans="4:4" ht="15.75" customHeight="1">
       <c r="D580" s="4"/>
     </row>
-    <row r="581" ht="15.75" customHeight="1">
+    <row r="581" spans="4:4" ht="15.75" customHeight="1">
       <c r="D581" s="4"/>
     </row>
-    <row r="582" ht="15.75" customHeight="1">
+    <row r="582" spans="4:4" ht="15.75" customHeight="1">
       <c r="D582" s="4"/>
     </row>
-    <row r="583" ht="15.75" customHeight="1">
+    <row r="583" spans="4:4" ht="15.75" customHeight="1">
       <c r="D583" s="4"/>
     </row>
-    <row r="584" ht="15.75" customHeight="1">
+    <row r="584" spans="4:4" ht="15.75" customHeight="1">
       <c r="D584" s="4"/>
     </row>
-    <row r="585" ht="15.75" customHeight="1">
+    <row r="585" spans="4:4" ht="15.75" customHeight="1">
       <c r="D585" s="4"/>
     </row>
-    <row r="586" ht="15.75" customHeight="1">
+    <row r="586" spans="4:4" ht="15.75" customHeight="1">
       <c r="D586" s="4"/>
     </row>
-    <row r="587" ht="15.75" customHeight="1">
+    <row r="587" spans="4:4" ht="15.75" customHeight="1">
       <c r="D587" s="4"/>
     </row>
-    <row r="588" ht="15.75" customHeight="1">
+    <row r="588" spans="4:4" ht="15.75" customHeight="1">
       <c r="D588" s="4"/>
     </row>
-    <row r="589" ht="15.75" customHeight="1">
+    <row r="589" spans="4:4" ht="15.75" customHeight="1">
       <c r="D589" s="4"/>
     </row>
-    <row r="590" ht="15.75" customHeight="1">
+    <row r="590" spans="4:4" ht="15.75" customHeight="1">
       <c r="D590" s="4"/>
     </row>
-    <row r="591" ht="15.75" customHeight="1">
+    <row r="591" spans="4:4" ht="15.75" customHeight="1">
       <c r="D591" s="4"/>
     </row>
-    <row r="592" ht="15.75" customHeight="1">
+    <row r="592" spans="4:4" ht="15.75" customHeight="1">
       <c r="D592" s="4"/>
     </row>
-    <row r="593" ht="15.75" customHeight="1">
+    <row r="593" spans="4:4" ht="15.75" customHeight="1">
       <c r="D593" s="4"/>
     </row>
-    <row r="594" ht="15.75" customHeight="1">
+    <row r="594" spans="4:4" ht="15.75" customHeight="1">
       <c r="D594" s="4"/>
     </row>
-    <row r="595" ht="15.75" customHeight="1">
+    <row r="595" spans="4:4" ht="15.75" customHeight="1">
       <c r="D595" s="4"/>
     </row>
-    <row r="596" ht="15.75" customHeight="1">
+    <row r="596" spans="4:4" ht="15.75" customHeight="1">
       <c r="D596" s="4"/>
     </row>
-    <row r="597" ht="15.75" customHeight="1">
+    <row r="597" spans="4:4" ht="15.75" customHeight="1">
       <c r="D597" s="4"/>
     </row>
-    <row r="598" ht="15.75" customHeight="1">
+    <row r="598" spans="4:4" ht="15.75" customHeight="1">
       <c r="D598" s="4"/>
     </row>
-    <row r="599" ht="15.75" customHeight="1">
+    <row r="599" spans="4:4" ht="15.75" customHeight="1">
       <c r="D599" s="4"/>
     </row>
-    <row r="600" ht="15.75" customHeight="1">
+    <row r="600" spans="4:4" ht="15.75" customHeight="1">
       <c r="D600" s="4"/>
     </row>
-    <row r="601" ht="15.75" customHeight="1">
+    <row r="601" spans="4:4" ht="15.75" customHeight="1">
       <c r="D601" s="4"/>
     </row>
-    <row r="602" ht="15.75" customHeight="1">
+    <row r="602" spans="4:4" ht="15.75" customHeight="1">
       <c r="D602" s="4"/>
     </row>
-    <row r="603" ht="15.75" customHeight="1">
+    <row r="603" spans="4:4" ht="15.75" customHeight="1">
       <c r="D603" s="4"/>
     </row>
-    <row r="604" ht="15.75" customHeight="1">
+    <row r="604" spans="4:4" ht="15.75" customHeight="1">
       <c r="D604" s="4"/>
     </row>
-    <row r="605" ht="15.75" customHeight="1">
+    <row r="605" spans="4:4" ht="15.75" customHeight="1">
       <c r="D605" s="4"/>
     </row>
-    <row r="606" ht="15.75" customHeight="1">
+    <row r="606" spans="4:4" ht="15.75" customHeight="1">
       <c r="D606" s="4"/>
     </row>
-    <row r="607" ht="15.75" customHeight="1">
+    <row r="607" spans="4:4" ht="15.75" customHeight="1">
       <c r="D607" s="4"/>
     </row>
-    <row r="608" ht="15.75" customHeight="1">
+    <row r="608" spans="4:4" ht="15.75" customHeight="1">
       <c r="D608" s="4"/>
     </row>
-    <row r="609" ht="15.75" customHeight="1">
+    <row r="609" spans="4:4" ht="15.75" customHeight="1">
       <c r="D609" s="4"/>
     </row>
-    <row r="610" ht="15.75" customHeight="1">
+    <row r="610" spans="4:4" ht="15.75" customHeight="1">
       <c r="D610" s="4"/>
     </row>
-    <row r="611" ht="15.75" customHeight="1">
+    <row r="611" spans="4:4" ht="15.75" customHeight="1">
       <c r="D611" s="4"/>
     </row>
-    <row r="612" ht="15.75" customHeight="1">
+    <row r="612" spans="4:4" ht="15.75" customHeight="1">
       <c r="D612" s="4"/>
     </row>
-    <row r="613" ht="15.75" customHeight="1">
+    <row r="613" spans="4:4" ht="15.75" customHeight="1">
       <c r="D613" s="4"/>
     </row>
-    <row r="614" ht="15.75" customHeight="1">
+    <row r="614" spans="4:4" ht="15.75" customHeight="1">
       <c r="D614" s="4"/>
     </row>
-    <row r="615" ht="15.75" customHeight="1">
+    <row r="615" spans="4:4" ht="15.75" customHeight="1">
       <c r="D615" s="4"/>
     </row>
-    <row r="616" ht="15.75" customHeight="1">
+    <row r="616" spans="4:4" ht="15.75" customHeight="1">
       <c r="D616" s="4"/>
     </row>
-    <row r="617" ht="15.75" customHeight="1">
+    <row r="617" spans="4:4" ht="15.75" customHeight="1">
       <c r="D617" s="4"/>
     </row>
-    <row r="618" ht="15.75" customHeight="1">
+    <row r="618" spans="4:4" ht="15.75" customHeight="1">
       <c r="D618" s="4"/>
     </row>
-    <row r="619" ht="15.75" customHeight="1">
+    <row r="619" spans="4:4" ht="15.75" customHeight="1">
       <c r="D619" s="4"/>
     </row>
-    <row r="620" ht="15.75" customHeight="1">
+    <row r="620" spans="4:4" ht="15.75" customHeight="1">
       <c r="D620" s="4"/>
     </row>
-    <row r="621" ht="15.75" customHeight="1">
+    <row r="621" spans="4:4" ht="15.75" customHeight="1">
       <c r="D621" s="4"/>
     </row>
-    <row r="622" ht="15.75" customHeight="1">
+    <row r="622" spans="4:4" ht="15.75" customHeight="1">
       <c r="D622" s="4"/>
     </row>
-    <row r="623" ht="15.75" customHeight="1">
+    <row r="623" spans="4:4" ht="15.75" customHeight="1">
       <c r="D623" s="4"/>
     </row>
-    <row r="624" ht="15.75" customHeight="1">
+    <row r="624" spans="4:4" ht="15.75" customHeight="1">
       <c r="D624" s="4"/>
     </row>
-    <row r="625" ht="15.75" customHeight="1">
+    <row r="625" spans="4:4" ht="15.75" customHeight="1">
       <c r="D625" s="4"/>
     </row>
-    <row r="626" ht="15.75" customHeight="1">
+    <row r="626" spans="4:4" ht="15.75" customHeight="1">
       <c r="D626" s="4"/>
     </row>
-    <row r="627" ht="15.75" customHeight="1">
+    <row r="627" spans="4:4" ht="15.75" customHeight="1">
       <c r="D627" s="4"/>
     </row>
-    <row r="628" ht="15.75" customHeight="1">
+    <row r="628" spans="4:4" ht="15.75" customHeight="1">
       <c r="D628" s="4"/>
     </row>
-    <row r="629" ht="15.75" customHeight="1">
+    <row r="629" spans="4:4" ht="15.75" customHeight="1">
       <c r="D629" s="4"/>
     </row>
-    <row r="630" ht="15.75" customHeight="1">
+    <row r="630" spans="4:4" ht="15.75" customHeight="1">
       <c r="D630" s="4"/>
     </row>
-    <row r="631" ht="15.75" customHeight="1">
+    <row r="631" spans="4:4" ht="15.75" customHeight="1">
       <c r="D631" s="4"/>
     </row>
-    <row r="632" ht="15.75" customHeight="1">
+    <row r="632" spans="4:4" ht="15.75" customHeight="1">
       <c r="D632" s="4"/>
     </row>
-    <row r="633" ht="15.75" customHeight="1">
+    <row r="633" spans="4:4" ht="15.75" customHeight="1">
       <c r="D633" s="4"/>
     </row>
-    <row r="634" ht="15.75" customHeight="1">
+    <row r="634" spans="4:4" ht="15.75" customHeight="1">
       <c r="D634" s="4"/>
     </row>
-    <row r="635" ht="15.75" customHeight="1">
+    <row r="635" spans="4:4" ht="15.75" customHeight="1">
       <c r="D635" s="4"/>
     </row>
-    <row r="636" ht="15.75" customHeight="1">
+    <row r="636" spans="4:4" ht="15.75" customHeight="1">
       <c r="D636" s="4"/>
     </row>
-    <row r="637" ht="15.75" customHeight="1">
+    <row r="637" spans="4:4" ht="15.75" customHeight="1">
       <c r="D637" s="4"/>
     </row>
-    <row r="638" ht="15.75" customHeight="1">
+    <row r="638" spans="4:4" ht="15.75" customHeight="1">
       <c r="D638" s="4"/>
     </row>
-    <row r="639" ht="15.75" customHeight="1">
+    <row r="639" spans="4:4" ht="15.75" customHeight="1">
       <c r="D639" s="4"/>
     </row>
-    <row r="640" ht="15.75" customHeight="1">
+    <row r="640" spans="4:4" ht="15.75" customHeight="1">
       <c r="D640" s="4"/>
     </row>
-    <row r="641" ht="15.75" customHeight="1">
+    <row r="641" spans="4:4" ht="15.75" customHeight="1">
       <c r="D641" s="4"/>
     </row>
-    <row r="642" ht="15.75" customHeight="1">
+    <row r="642" spans="4:4" ht="15.75" customHeight="1">
       <c r="D642" s="4"/>
     </row>
-    <row r="643" ht="15.75" customHeight="1">
+    <row r="643" spans="4:4" ht="15.75" customHeight="1">
       <c r="D643" s="4"/>
     </row>
-    <row r="644" ht="15.75" customHeight="1">
+    <row r="644" spans="4:4" ht="15.75" customHeight="1">
       <c r="D644" s="4"/>
     </row>
-    <row r="645" ht="15.75" customHeight="1">
+    <row r="645" spans="4:4" ht="15.75" customHeight="1">
       <c r="D645" s="4"/>
     </row>
-    <row r="646" ht="15.75" customHeight="1">
+    <row r="646" spans="4:4" ht="15.75" customHeight="1">
       <c r="D646" s="4"/>
     </row>
-    <row r="647" ht="15.75" customHeight="1">
+    <row r="647" spans="4:4" ht="15.75" customHeight="1">
       <c r="D647" s="4"/>
     </row>
-    <row r="648" ht="15.75" customHeight="1">
+    <row r="648" spans="4:4" ht="15.75" customHeight="1">
       <c r="D648" s="4"/>
     </row>
-    <row r="649" ht="15.75" customHeight="1">
+    <row r="649" spans="4:4" ht="15.75" customHeight="1">
       <c r="D649" s="4"/>
     </row>
-    <row r="650" ht="15.75" customHeight="1">
+    <row r="650" spans="4:4" ht="15.75" customHeight="1">
       <c r="D650" s="4"/>
     </row>
-    <row r="651" ht="15.75" customHeight="1">
+    <row r="651" spans="4:4" ht="15.75" customHeight="1">
       <c r="D651" s="4"/>
     </row>
-    <row r="652" ht="15.75" customHeight="1">
+    <row r="652" spans="4:4" ht="15.75" customHeight="1">
       <c r="D652" s="4"/>
     </row>
-    <row r="653" ht="15.75" customHeight="1">
+    <row r="653" spans="4:4" ht="15.75" customHeight="1">
       <c r="D653" s="4"/>
     </row>
-    <row r="654" ht="15.75" customHeight="1">
+    <row r="654" spans="4:4" ht="15.75" customHeight="1">
       <c r="D654" s="4"/>
     </row>
-    <row r="655" ht="15.75" customHeight="1">
+    <row r="655" spans="4:4" ht="15.75" customHeight="1">
       <c r="D655" s="4"/>
     </row>
-    <row r="656" ht="15.75" customHeight="1">
+    <row r="656" spans="4:4" ht="15.75" customHeight="1">
       <c r="D656" s="4"/>
     </row>
-    <row r="657" ht="15.75" customHeight="1">
+    <row r="657" spans="4:4" ht="15.75" customHeight="1">
       <c r="D657" s="4"/>
     </row>
-    <row r="658" ht="15.75" customHeight="1">
+    <row r="658" spans="4:4" ht="15.75" customHeight="1">
       <c r="D658" s="4"/>
     </row>
-    <row r="659" ht="15.75" customHeight="1">
+    <row r="659" spans="4:4" ht="15.75" customHeight="1">
       <c r="D659" s="4"/>
     </row>
-    <row r="660" ht="15.75" customHeight="1">
+    <row r="660" spans="4:4" ht="15.75" customHeight="1">
       <c r="D660" s="4"/>
     </row>
-    <row r="661" ht="15.75" customHeight="1">
+    <row r="661" spans="4:4" ht="15.75" customHeight="1">
       <c r="D661" s="4"/>
     </row>
-    <row r="662" ht="15.75" customHeight="1">
+    <row r="662" spans="4:4" ht="15.75" customHeight="1">
       <c r="D662" s="4"/>
     </row>
-    <row r="663" ht="15.75" customHeight="1">
+    <row r="663" spans="4:4" ht="15.75" customHeight="1">
       <c r="D663" s="4"/>
     </row>
-    <row r="664" ht="15.75" customHeight="1">
+    <row r="664" spans="4:4" ht="15.75" customHeight="1">
       <c r="D664" s="4"/>
     </row>
-    <row r="665" ht="15.75" customHeight="1">
+    <row r="665" spans="4:4" ht="15.75" customHeight="1">
       <c r="D665" s="4"/>
     </row>
-    <row r="666" ht="15.75" customHeight="1">
+    <row r="666" spans="4:4" ht="15.75" customHeight="1">
       <c r="D666" s="4"/>
     </row>
-    <row r="667" ht="15.75" customHeight="1">
+    <row r="667" spans="4:4" ht="15.75" customHeight="1">
       <c r="D667" s="4"/>
     </row>
-    <row r="668" ht="15.75" customHeight="1">
+    <row r="668" spans="4:4" ht="15.75" customHeight="1">
       <c r="D668" s="4"/>
     </row>
-    <row r="669" ht="15.75" customHeight="1">
+    <row r="669" spans="4:4" ht="15.75" customHeight="1">
       <c r="D669" s="4"/>
     </row>
-    <row r="670" ht="15.75" customHeight="1">
+    <row r="670" spans="4:4" ht="15.75" customHeight="1">
       <c r="D670" s="4"/>
     </row>
-    <row r="671" ht="15.75" customHeight="1">
+    <row r="671" spans="4:4" ht="15.75" customHeight="1">
       <c r="D671" s="4"/>
     </row>
-    <row r="672" ht="15.75" customHeight="1">
+    <row r="672" spans="4:4" ht="15.75" customHeight="1">
       <c r="D672" s="4"/>
     </row>
-    <row r="673" ht="15.75" customHeight="1">
+    <row r="673" spans="4:4" ht="15.75" customHeight="1">
       <c r="D673" s="4"/>
     </row>
-    <row r="674" ht="15.75" customHeight="1">
+    <row r="674" spans="4:4" ht="15.75" customHeight="1">
       <c r="D674" s="4"/>
     </row>
-    <row r="675" ht="15.75" customHeight="1">
+    <row r="675" spans="4:4" ht="15.75" customHeight="1">
       <c r="D675" s="4"/>
     </row>
-    <row r="676" ht="15.75" customHeight="1">
+    <row r="676" spans="4:4" ht="15.75" customHeight="1">
       <c r="D676" s="4"/>
     </row>
-    <row r="677" ht="15.75" customHeight="1">
+    <row r="677" spans="4:4" ht="15.75" customHeight="1">
       <c r="D677" s="4"/>
     </row>
-    <row r="678" ht="15.75" customHeight="1">
+    <row r="678" spans="4:4" ht="15.75" customHeight="1">
       <c r="D678" s="4"/>
     </row>
-    <row r="679" ht="15.75" customHeight="1">
+    <row r="679" spans="4:4" ht="15.75" customHeight="1">
       <c r="D679" s="4"/>
     </row>
-    <row r="680" ht="15.75" customHeight="1">
+    <row r="680" spans="4:4" ht="15.75" customHeight="1">
       <c r="D680" s="4"/>
     </row>
-    <row r="681" ht="15.75" customHeight="1">
+    <row r="681" spans="4:4" ht="15.75" customHeight="1">
       <c r="D681" s="4"/>
     </row>
-    <row r="682" ht="15.75" customHeight="1">
+    <row r="682" spans="4:4" ht="15.75" customHeight="1">
       <c r="D682" s="4"/>
     </row>
-    <row r="683" ht="15.75" customHeight="1">
+    <row r="683" spans="4:4" ht="15.75" customHeight="1">
       <c r="D683" s="4"/>
     </row>
-    <row r="684" ht="15.75" customHeight="1">
+    <row r="684" spans="4:4" ht="15.75" customHeight="1">
       <c r="D684" s="4"/>
     </row>
-    <row r="685" ht="15.75" customHeight="1">
+    <row r="685" spans="4:4" ht="15.75" customHeight="1">
       <c r="D685" s="4"/>
     </row>
-    <row r="686" ht="15.75" customHeight="1">
+    <row r="686" spans="4:4" ht="15.75" customHeight="1">
       <c r="D686" s="4"/>
     </row>
-    <row r="687" ht="15.75" customHeight="1">
+    <row r="687" spans="4:4" ht="15.75" customHeight="1">
       <c r="D687" s="4"/>
     </row>
-    <row r="688" ht="15.75" customHeight="1">
+    <row r="688" spans="4:4" ht="15.75" customHeight="1">
       <c r="D688" s="4"/>
     </row>
-    <row r="689" ht="15.75" customHeight="1">
+    <row r="689" spans="4:4" ht="15.75" customHeight="1">
       <c r="D689" s="4"/>
     </row>
-    <row r="690" ht="15.75" customHeight="1">
+    <row r="690" spans="4:4" ht="15.75" customHeight="1">
       <c r="D690" s="4"/>
     </row>
-    <row r="691" ht="15.75" customHeight="1">
+    <row r="691" spans="4:4" ht="15.75" customHeight="1">
       <c r="D691" s="4"/>
     </row>
-    <row r="692" ht="15.75" customHeight="1">
+    <row r="692" spans="4:4" ht="15.75" customHeight="1">
       <c r="D692" s="4"/>
     </row>
-    <row r="693" ht="15.75" customHeight="1">
+    <row r="693" spans="4:4" ht="15.75" customHeight="1">
       <c r="D693" s="4"/>
     </row>
-    <row r="694" ht="15.75" customHeight="1">
+    <row r="694" spans="4:4" ht="15.75" customHeight="1">
       <c r="D694" s="4"/>
     </row>
-    <row r="695" ht="15.75" customHeight="1">
+    <row r="695" spans="4:4" ht="15.75" customHeight="1">
       <c r="D695" s="4"/>
     </row>
-    <row r="696" ht="15.75" customHeight="1">
+    <row r="696" spans="4:4" ht="15.75" customHeight="1">
       <c r="D696" s="4"/>
     </row>
-    <row r="697" ht="15.75" customHeight="1">
+    <row r="697" spans="4:4" ht="15.75" customHeight="1">
       <c r="D697" s="4"/>
     </row>
-    <row r="698" ht="15.75" customHeight="1">
+    <row r="698" spans="4:4" ht="15.75" customHeight="1">
       <c r="D698" s="4"/>
     </row>
-    <row r="699" ht="15.75" customHeight="1">
+    <row r="699" spans="4:4" ht="15.75" customHeight="1">
       <c r="D699" s="4"/>
     </row>
-    <row r="700" ht="15.75" customHeight="1">
+    <row r="700" spans="4:4" ht="15.75" customHeight="1">
       <c r="D700" s="4"/>
     </row>
-    <row r="701" ht="15.75" customHeight="1">
+    <row r="701" spans="4:4" ht="15.75" customHeight="1">
       <c r="D701" s="4"/>
     </row>
-    <row r="702" ht="15.75" customHeight="1">
+    <row r="702" spans="4:4" ht="15.75" customHeight="1">
       <c r="D702" s="4"/>
     </row>
-    <row r="703" ht="15.75" customHeight="1">
+    <row r="703" spans="4:4" ht="15.75" customHeight="1">
       <c r="D703" s="4"/>
     </row>
-    <row r="704" ht="15.75" customHeight="1">
+    <row r="704" spans="4:4" ht="15.75" customHeight="1">
       <c r="D704" s="4"/>
     </row>
-    <row r="705" ht="15.75" customHeight="1">
+    <row r="705" spans="4:4" ht="15.75" customHeight="1">
       <c r="D705" s="4"/>
     </row>
-    <row r="706" ht="15.75" customHeight="1">
+    <row r="706" spans="4:4" ht="15.75" customHeight="1">
       <c r="D706" s="4"/>
     </row>
-    <row r="707" ht="15.75" customHeight="1">
+    <row r="707" spans="4:4" ht="15.75" customHeight="1">
       <c r="D707" s="4"/>
     </row>
-    <row r="708" ht="15.75" customHeight="1">
+    <row r="708" spans="4:4" ht="15.75" customHeight="1">
       <c r="D708" s="4"/>
     </row>
-    <row r="709" ht="15.75" customHeight="1">
+    <row r="709" spans="4:4" ht="15.75" customHeight="1">
       <c r="D709" s="4"/>
     </row>
-    <row r="710" ht="15.75" customHeight="1">
+    <row r="710" spans="4:4" ht="15.75" customHeight="1">
       <c r="D710" s="4"/>
     </row>
-    <row r="711" ht="15.75" customHeight="1">
+    <row r="711" spans="4:4" ht="15.75" customHeight="1">
       <c r="D711" s="4"/>
     </row>
-    <row r="712" ht="15.75" customHeight="1">
+    <row r="712" spans="4:4" ht="15.75" customHeight="1">
       <c r="D712" s="4"/>
     </row>
-    <row r="713" ht="15.75" customHeight="1">
+    <row r="713" spans="4:4" ht="15.75" customHeight="1">
       <c r="D713" s="4"/>
     </row>
-    <row r="714" ht="15.75" customHeight="1">
+    <row r="714" spans="4:4" ht="15.75" customHeight="1">
       <c r="D714" s="4"/>
     </row>
-    <row r="715" ht="15.75" customHeight="1">
+    <row r="715" spans="4:4" ht="15.75" customHeight="1">
       <c r="D715" s="4"/>
     </row>
-    <row r="716" ht="15.75" customHeight="1">
+    <row r="716" spans="4:4" ht="15.75" customHeight="1">
       <c r="D716" s="4"/>
     </row>
-    <row r="717" ht="15.75" customHeight="1">
+    <row r="717" spans="4:4" ht="15.75" customHeight="1">
       <c r="D717" s="4"/>
     </row>
-    <row r="718" ht="15.75" customHeight="1">
+    <row r="718" spans="4:4" ht="15.75" customHeight="1">
       <c r="D718" s="4"/>
     </row>
-    <row r="719" ht="15.75" customHeight="1">
+    <row r="719" spans="4:4" ht="15.75" customHeight="1">
       <c r="D719" s="4"/>
     </row>
-    <row r="720" ht="15.75" customHeight="1">
+    <row r="720" spans="4:4" ht="15.75" customHeight="1">
       <c r="D720" s="4"/>
     </row>
-    <row r="721" ht="15.75" customHeight="1">
+    <row r="721" spans="4:4" ht="15.75" customHeight="1">
       <c r="D721" s="4"/>
     </row>
-    <row r="722" ht="15.75" customHeight="1">
+    <row r="722" spans="4:4" ht="15.75" customHeight="1">
       <c r="D722" s="4"/>
     </row>
-    <row r="723" ht="15.75" customHeight="1">
+    <row r="723" spans="4:4" ht="15.75" customHeight="1">
       <c r="D723" s="4"/>
     </row>
-    <row r="724" ht="15.75" customHeight="1">
+    <row r="724" spans="4:4" ht="15.75" customHeight="1">
       <c r="D724" s="4"/>
     </row>
-    <row r="725" ht="15.75" customHeight="1">
+    <row r="725" spans="4:4" ht="15.75" customHeight="1">
       <c r="D725" s="4"/>
     </row>
-    <row r="726" ht="15.75" customHeight="1">
+    <row r="726" spans="4:4" ht="15.75" customHeight="1">
       <c r="D726" s="4"/>
     </row>
-    <row r="727" ht="15.75" customHeight="1">
+    <row r="727" spans="4:4" ht="15.75" customHeight="1">
       <c r="D727" s="4"/>
     </row>
-    <row r="728" ht="15.75" customHeight="1">
+    <row r="728" spans="4:4" ht="15.75" customHeight="1">
       <c r="D728" s="4"/>
     </row>
-    <row r="729" ht="15.75" customHeight="1">
+    <row r="729" spans="4:4" ht="15.75" customHeight="1">
       <c r="D729" s="4"/>
     </row>
-    <row r="730" ht="15.75" customHeight="1">
+    <row r="730" spans="4:4" ht="15.75" customHeight="1">
       <c r="D730" s="4"/>
     </row>
-    <row r="731" ht="15.75" customHeight="1">
+    <row r="731" spans="4:4" ht="15.75" customHeight="1">
       <c r="D731" s="4"/>
     </row>
-    <row r="732" ht="15.75" customHeight="1">
+    <row r="732" spans="4:4" ht="15.75" customHeight="1">
       <c r="D732" s="4"/>
     </row>
-    <row r="733" ht="15.75" customHeight="1">
+    <row r="733" spans="4:4" ht="15.75" customHeight="1">
       <c r="D733" s="4"/>
     </row>
-    <row r="734" ht="15.75" customHeight="1">
+    <row r="734" spans="4:4" ht="15.75" customHeight="1">
       <c r="D734" s="4"/>
     </row>
-    <row r="735" ht="15.75" customHeight="1">
+    <row r="735" spans="4:4" ht="15.75" customHeight="1">
       <c r="D735" s="4"/>
     </row>
-    <row r="736" ht="15.75" customHeight="1">
+    <row r="736" spans="4:4" ht="15.75" customHeight="1">
       <c r="D736" s="4"/>
     </row>
-    <row r="737" ht="15.75" customHeight="1">
+    <row r="737" spans="4:4" ht="15.75" customHeight="1">
       <c r="D737" s="4"/>
     </row>
-    <row r="738" ht="15.75" customHeight="1">
+    <row r="738" spans="4:4" ht="15.75" customHeight="1">
       <c r="D738" s="4"/>
     </row>
-    <row r="739" ht="15.75" customHeight="1">
+    <row r="739" spans="4:4" ht="15.75" customHeight="1">
       <c r="D739" s="4"/>
     </row>
-    <row r="740" ht="15.75" customHeight="1">
+    <row r="740" spans="4:4" ht="15.75" customHeight="1">
       <c r="D740" s="4"/>
     </row>
-    <row r="741" ht="15.75" customHeight="1">
+    <row r="741" spans="4:4" ht="15.75" customHeight="1">
       <c r="D741" s="4"/>
     </row>
-    <row r="742" ht="15.75" customHeight="1">
+    <row r="742" spans="4:4" ht="15.75" customHeight="1">
       <c r="D742" s="4"/>
     </row>
-    <row r="743" ht="15.75" customHeight="1">
+    <row r="743" spans="4:4" ht="15.75" customHeight="1">
       <c r="D743" s="4"/>
     </row>
-    <row r="744" ht="15.75" customHeight="1">
+    <row r="744" spans="4:4" ht="15.75" customHeight="1">
       <c r="D744" s="4"/>
     </row>
-    <row r="745" ht="15.75" customHeight="1">
+    <row r="745" spans="4:4" ht="15.75" customHeight="1">
       <c r="D745" s="4"/>
     </row>
-    <row r="746" ht="15.75" customHeight="1">
+    <row r="746" spans="4:4" ht="15.75" customHeight="1">
       <c r="D746" s="4"/>
     </row>
-    <row r="747" ht="15.75" customHeight="1">
+    <row r="747" spans="4:4" ht="15.75" customHeight="1">
       <c r="D747" s="4"/>
     </row>
-    <row r="748" ht="15.75" customHeight="1">
+    <row r="748" spans="4:4" ht="15.75" customHeight="1">
       <c r="D748" s="4"/>
     </row>
-    <row r="749" ht="15.75" customHeight="1">
+    <row r="749" spans="4:4" ht="15.75" customHeight="1">
       <c r="D749" s="4"/>
     </row>
-    <row r="750" ht="15.75" customHeight="1">
+    <row r="750" spans="4:4" ht="15.75" customHeight="1">
       <c r="D750" s="4"/>
     </row>
-    <row r="751" ht="15.75" customHeight="1">
+    <row r="751" spans="4:4" ht="15.75" customHeight="1">
       <c r="D751" s="4"/>
     </row>
-    <row r="752" ht="15.75" customHeight="1">
+    <row r="752" spans="4:4" ht="15.75" customHeight="1">
       <c r="D752" s="4"/>
     </row>
-    <row r="753" ht="15.75" customHeight="1">
+    <row r="753" spans="4:4" ht="15.75" customHeight="1">
       <c r="D753" s="4"/>
     </row>
-    <row r="754" ht="15.75" customHeight="1">
+    <row r="754" spans="4:4" ht="15.75" customHeight="1">
       <c r="D754" s="4"/>
     </row>
-    <row r="755" ht="15.75" customHeight="1">
+    <row r="755" spans="4:4" ht="15.75" customHeight="1">
       <c r="D755" s="4"/>
     </row>
-    <row r="756" ht="15.75" customHeight="1">
+    <row r="756" spans="4:4" ht="15.75" customHeight="1">
       <c r="D756" s="4"/>
     </row>
-    <row r="757" ht="15.75" customHeight="1">
+    <row r="757" spans="4:4" ht="15.75" customHeight="1">
       <c r="D757" s="4"/>
     </row>
-    <row r="758" ht="15.75" customHeight="1">
+    <row r="758" spans="4:4" ht="15.75" customHeight="1">
       <c r="D758" s="4"/>
     </row>
-    <row r="759" ht="15.75" customHeight="1">
+    <row r="759" spans="4:4" ht="15.75" customHeight="1">
       <c r="D759" s="4"/>
     </row>
-    <row r="760" ht="15.75" customHeight="1">
+    <row r="760" spans="4:4" ht="15.75" customHeight="1">
       <c r="D760" s="4"/>
     </row>
-    <row r="761" ht="15.75" customHeight="1">
+    <row r="761" spans="4:4" ht="15.75" customHeight="1">
       <c r="D761" s="4"/>
     </row>
-    <row r="762" ht="15.75" customHeight="1">
+    <row r="762" spans="4:4" ht="15.75" customHeight="1">
       <c r="D762" s="4"/>
     </row>
-    <row r="763" ht="15.75" customHeight="1">
+    <row r="763" spans="4:4" ht="15.75" customHeight="1">
       <c r="D763" s="4"/>
     </row>
-    <row r="764" ht="15.75" customHeight="1">
+    <row r="764" spans="4:4" ht="15.75" customHeight="1">
       <c r="D764" s="4"/>
     </row>
-    <row r="765" ht="15.75" customHeight="1">
+    <row r="765" spans="4:4" ht="15.75" customHeight="1">
       <c r="D765" s="4"/>
     </row>
-    <row r="766" ht="15.75" customHeight="1">
+    <row r="766" spans="4:4" ht="15.75" customHeight="1">
       <c r="D766" s="4"/>
     </row>
-    <row r="767" ht="15.75" customHeight="1">
+    <row r="767" spans="4:4" ht="15.75" customHeight="1">
       <c r="D767" s="4"/>
     </row>
-    <row r="768" ht="15.75" customHeight="1">
+    <row r="768" spans="4:4" ht="15.75" customHeight="1">
       <c r="D768" s="4"/>
     </row>
-    <row r="769" ht="15.75" customHeight="1">
+    <row r="769" spans="4:4" ht="15.75" customHeight="1">
       <c r="D769" s="4"/>
     </row>
-    <row r="770" ht="15.75" customHeight="1">
+    <row r="770" spans="4:4" ht="15.75" customHeight="1">
       <c r="D770" s="4"/>
     </row>
-    <row r="771" ht="15.75" customHeight="1">
+    <row r="771" spans="4:4" ht="15.75" customHeight="1">
       <c r="D771" s="4"/>
     </row>
-    <row r="772" ht="15.75" customHeight="1">
+    <row r="772" spans="4:4" ht="15.75" customHeight="1">
       <c r="D772" s="4"/>
     </row>
-    <row r="773" ht="15.75" customHeight="1">
+    <row r="773" spans="4:4" ht="15.75" customHeight="1">
       <c r="D773" s="4"/>
     </row>
-    <row r="774" ht="15.75" customHeight="1">
+    <row r="774" spans="4:4" ht="15.75" customHeight="1">
       <c r="D774" s="4"/>
     </row>
-    <row r="775" ht="15.75" customHeight="1">
+    <row r="775" spans="4:4" ht="15.75" customHeight="1">
       <c r="D775" s="4"/>
     </row>
-    <row r="776" ht="15.75" customHeight="1">
+    <row r="776" spans="4:4" ht="15.75" customHeight="1">
       <c r="D776" s="4"/>
     </row>
-    <row r="777" ht="15.75" customHeight="1">
+    <row r="777" spans="4:4" ht="15.75" customHeight="1">
       <c r="D777" s="4"/>
     </row>
-    <row r="778" ht="15.75" customHeight="1">
+    <row r="778" spans="4:4" ht="15.75" customHeight="1">
       <c r="D778" s="4"/>
     </row>
-    <row r="779" ht="15.75" customHeight="1">
+    <row r="779" spans="4:4" ht="15.75" customHeight="1">
       <c r="D779" s="4"/>
     </row>
-    <row r="780" ht="15.75" customHeight="1">
+    <row r="780" spans="4:4" ht="15.75" customHeight="1">
       <c r="D780" s="4"/>
     </row>
-    <row r="781" ht="15.75" customHeight="1">
+    <row r="781" spans="4:4" ht="15.75" customHeight="1">
       <c r="D781" s="4"/>
     </row>
-    <row r="782" ht="15.75" customHeight="1">
+    <row r="782" spans="4:4" ht="15.75" customHeight="1">
       <c r="D782" s="4"/>
     </row>
-    <row r="783" ht="15.75" customHeight="1">
+    <row r="783" spans="4:4" ht="15.75" customHeight="1">
       <c r="D783" s="4"/>
     </row>
-    <row r="784" ht="15.75" customHeight="1">
+    <row r="784" spans="4:4" ht="15.75" customHeight="1">
       <c r="D784" s="4"/>
     </row>
-    <row r="785" ht="15.75" customHeight="1">
+    <row r="785" spans="4:4" ht="15.75" customHeight="1">
       <c r="D785" s="4"/>
     </row>
-    <row r="786" ht="15.75" customHeight="1">
+    <row r="786" spans="4:4" ht="15.75" customHeight="1">
       <c r="D786" s="4"/>
     </row>
-    <row r="787" ht="15.75" customHeight="1">
+    <row r="787" spans="4:4" ht="15.75" customHeight="1">
       <c r="D787" s="4"/>
     </row>
-    <row r="788" ht="15.75" customHeight="1">
+    <row r="788" spans="4:4" ht="15.75" customHeight="1">
       <c r="D788" s="4"/>
     </row>
-    <row r="789" ht="15.75" customHeight="1">
+    <row r="789" spans="4:4" ht="15.75" customHeight="1">
       <c r="D789" s="4"/>
     </row>
-    <row r="790" ht="15.75" customHeight="1">
+    <row r="790" spans="4:4" ht="15.75" customHeight="1">
       <c r="D790" s="4"/>
     </row>
-    <row r="791" ht="15.75" customHeight="1">
+    <row r="791" spans="4:4" ht="15.75" customHeight="1">
       <c r="D791" s="4"/>
     </row>
-    <row r="792" ht="15.75" customHeight="1">
+    <row r="792" spans="4:4" ht="15.75" customHeight="1">
       <c r="D792" s="4"/>
     </row>
-    <row r="793" ht="15.75" customHeight="1">
+    <row r="793" spans="4:4" ht="15.75" customHeight="1">
       <c r="D793" s="4"/>
     </row>
-    <row r="794" ht="15.75" customHeight="1">
+    <row r="794" spans="4:4" ht="15.75" customHeight="1">
       <c r="D794" s="4"/>
     </row>
-    <row r="795" ht="15.75" customHeight="1">
+    <row r="795" spans="4:4" ht="15.75" customHeight="1">
       <c r="D795" s="4"/>
     </row>
-    <row r="796" ht="15.75" customHeight="1">
+    <row r="796" spans="4:4" ht="15.75" customHeight="1">
       <c r="D796" s="4"/>
     </row>
-    <row r="797" ht="15.75" customHeight="1">
+    <row r="797" spans="4:4" ht="15.75" customHeight="1">
       <c r="D797" s="4"/>
     </row>
-    <row r="798" ht="15.75" customHeight="1">
+    <row r="798" spans="4:4" ht="15.75" customHeight="1">
       <c r="D798" s="4"/>
     </row>
-    <row r="799" ht="15.75" customHeight="1">
+    <row r="799" spans="4:4" ht="15.75" customHeight="1">
       <c r="D799" s="4"/>
     </row>
-    <row r="800" ht="15.75" customHeight="1">
+    <row r="800" spans="4:4" ht="15.75" customHeight="1">
       <c r="D800" s="4"/>
     </row>
-    <row r="801" ht="15.75" customHeight="1">
+    <row r="801" spans="4:4" ht="15.75" customHeight="1">
       <c r="D801" s="4"/>
     </row>
-    <row r="802" ht="15.75" customHeight="1">
+    <row r="802" spans="4:4" ht="15.75" customHeight="1">
       <c r="D802" s="4"/>
     </row>
-    <row r="803" ht="15.75" customHeight="1">
+    <row r="803" spans="4:4" ht="15.75" customHeight="1">
       <c r="D803" s="4"/>
     </row>
-    <row r="804" ht="15.75" customHeight="1">
+    <row r="804" spans="4:4" ht="15.75" customHeight="1">
       <c r="D804" s="4"/>
     </row>
-    <row r="805" ht="15.75" customHeight="1">
+    <row r="805" spans="4:4" ht="15.75" customHeight="1">
       <c r="D805" s="4"/>
     </row>
-    <row r="806" ht="15.75" customHeight="1">
+    <row r="806" spans="4:4" ht="15.75" customHeight="1">
       <c r="D806" s="4"/>
     </row>
-    <row r="807" ht="15.75" customHeight="1">
+    <row r="807" spans="4:4" ht="15.75" customHeight="1">
       <c r="D807" s="4"/>
     </row>
-    <row r="808" ht="15.75" customHeight="1">
+    <row r="808" spans="4:4" ht="15.75" customHeight="1">
       <c r="D808" s="4"/>
     </row>
-    <row r="809" ht="15.75" customHeight="1">
+    <row r="809" spans="4:4" ht="15.75" customHeight="1">
       <c r="D809" s="4"/>
     </row>
-    <row r="810" ht="15.75" customHeight="1">
+    <row r="810" spans="4:4" ht="15.75" customHeight="1">
       <c r="D810" s="4"/>
     </row>
-    <row r="811" ht="15.75" customHeight="1">
+    <row r="811" spans="4:4" ht="15.75" customHeight="1">
       <c r="D811" s="4"/>
     </row>
-    <row r="812" ht="15.75" customHeight="1">
+    <row r="812" spans="4:4" ht="15.75" customHeight="1">
       <c r="D812" s="4"/>
     </row>
-    <row r="813" ht="15.75" customHeight="1">
+    <row r="813" spans="4:4" ht="15.75" customHeight="1">
       <c r="D813" s="4"/>
     </row>
-    <row r="814" ht="15.75" customHeight="1">
+    <row r="814" spans="4:4" ht="15.75" customHeight="1">
       <c r="D814" s="4"/>
     </row>
-    <row r="815" ht="15.75" customHeight="1">
+    <row r="815" spans="4:4" ht="15.75" customHeight="1">
       <c r="D815" s="4"/>
     </row>
-    <row r="816" ht="15.75" customHeight="1">
+    <row r="816" spans="4:4" ht="15.75" customHeight="1">
       <c r="D816" s="4"/>
     </row>
-    <row r="817" ht="15.75" customHeight="1">
+    <row r="817" spans="4:4" ht="15.75" customHeight="1">
       <c r="D817" s="4"/>
     </row>
-    <row r="818" ht="15.75" customHeight="1">
+    <row r="818" spans="4:4" ht="15.75" customHeight="1">
       <c r="D818" s="4"/>
     </row>
-    <row r="819" ht="15.75" customHeight="1">
+    <row r="819" spans="4:4" ht="15.75" customHeight="1">
       <c r="D819" s="4"/>
     </row>
-    <row r="820" ht="15.75" customHeight="1">
+    <row r="820" spans="4:4" ht="15.75" customHeight="1">
       <c r="D820" s="4"/>
     </row>
-    <row r="821" ht="15.75" customHeight="1">
+    <row r="821" spans="4:4" ht="15.75" customHeight="1">
       <c r="D821" s="4"/>
     </row>
-    <row r="822" ht="15.75" customHeight="1">
+    <row r="822" spans="4:4" ht="15.75" customHeight="1">
       <c r="D822" s="4"/>
     </row>
-    <row r="823" ht="15.75" customHeight="1">
+    <row r="823" spans="4:4" ht="15.75" customHeight="1">
       <c r="D823" s="4"/>
     </row>
-    <row r="824" ht="15.75" customHeight="1">
+    <row r="824" spans="4:4" ht="15.75" customHeight="1">
       <c r="D824" s="4"/>
     </row>
-    <row r="825" ht="15.75" customHeight="1">
+    <row r="825" spans="4:4" ht="15.75" customHeight="1">
       <c r="D825" s="4"/>
     </row>
-    <row r="826" ht="15.75" customHeight="1">
+    <row r="826" spans="4:4" ht="15.75" customHeight="1">
       <c r="D826" s="4"/>
     </row>
-    <row r="827" ht="15.75" customHeight="1">
+    <row r="827" spans="4:4" ht="15.75" customHeight="1">
       <c r="D827" s="4"/>
     </row>
-    <row r="828" ht="15.75" customHeight="1">
+    <row r="828" spans="4:4" ht="15.75" customHeight="1">
       <c r="D828" s="4"/>
     </row>
-    <row r="829" ht="15.75" customHeight="1">
+    <row r="829" spans="4:4" ht="15.75" customHeight="1">
       <c r="D829" s="4"/>
     </row>
-    <row r="830" ht="15.75" customHeight="1">
+    <row r="830" spans="4:4" ht="15.75" customHeight="1">
       <c r="D830" s="4"/>
     </row>
-    <row r="831" ht="15.75" customHeight="1">
+    <row r="831" spans="4:4" ht="15.75" customHeight="1">
       <c r="D831" s="4"/>
     </row>
-    <row r="832" ht="15.75" customHeight="1">
+    <row r="832" spans="4:4" ht="15.75" customHeight="1">
       <c r="D832" s="4"/>
     </row>
-    <row r="833" ht="15.75" customHeight="1">
+    <row r="833" spans="4:4" ht="15.75" customHeight="1">
       <c r="D833" s="4"/>
     </row>
-    <row r="834" ht="15.75" customHeight="1">
+    <row r="834" spans="4:4" ht="15.75" customHeight="1">
       <c r="D834" s="4"/>
     </row>
-    <row r="835" ht="15.75" customHeight="1">
+    <row r="835" spans="4:4" ht="15.75" customHeight="1">
       <c r="D835" s="4"/>
     </row>
-    <row r="836" ht="15.75" customHeight="1">
+    <row r="836" spans="4:4" ht="15.75" customHeight="1">
       <c r="D836" s="4"/>
     </row>
-    <row r="837" ht="15.75" customHeight="1">
+    <row r="837" spans="4:4" ht="15.75" customHeight="1">
       <c r="D837" s="4"/>
     </row>
-    <row r="838" ht="15.75" customHeight="1">
+    <row r="838" spans="4:4" ht="15.75" customHeight="1">
       <c r="D838" s="4"/>
     </row>
-    <row r="839" ht="15.75" customHeight="1">
+    <row r="839" spans="4:4" ht="15.75" customHeight="1">
       <c r="D839" s="4"/>
     </row>
-    <row r="840" ht="15.75" customHeight="1">
+    <row r="840" spans="4:4" ht="15.75" customHeight="1">
       <c r="D840" s="4"/>
     </row>
-    <row r="841" ht="15.75" customHeight="1">
+    <row r="841" spans="4:4" ht="15.75" customHeight="1">
       <c r="D841" s="4"/>
     </row>
-    <row r="842" ht="15.75" customHeight="1">
+    <row r="842" spans="4:4" ht="15.75" customHeight="1">
       <c r="D842" s="4"/>
     </row>
-    <row r="843" ht="15.75" customHeight="1">
+    <row r="843" spans="4:4" ht="15.75" customHeight="1">
       <c r="D843" s="4"/>
     </row>
-    <row r="844" ht="15.75" customHeight="1">
+    <row r="844" spans="4:4" ht="15.75" customHeight="1">
       <c r="D844" s="4"/>
     </row>
-    <row r="845" ht="15.75" customHeight="1">
+    <row r="845" spans="4:4" ht="15.75" customHeight="1">
       <c r="D845" s="4"/>
     </row>
-    <row r="846" ht="15.75" customHeight="1">
+    <row r="846" spans="4:4" ht="15.75" customHeight="1">
       <c r="D846" s="4"/>
     </row>
-    <row r="847" ht="15.75" customHeight="1">
+    <row r="847" spans="4:4" ht="15.75" customHeight="1">
       <c r="D847" s="4"/>
     </row>
-    <row r="848" ht="15.75" customHeight="1">
+    <row r="848" spans="4:4" ht="15.75" customHeight="1">
       <c r="D848" s="4"/>
     </row>
-    <row r="849" ht="15.75" customHeight="1">
+    <row r="849" spans="4:4" ht="15.75" customHeight="1">
       <c r="D849" s="4"/>
     </row>
-    <row r="850" ht="15.75" customHeight="1">
+    <row r="850" spans="4:4" ht="15.75" customHeight="1">
       <c r="D850" s="4"/>
     </row>
-    <row r="851" ht="15.75" customHeight="1">
+    <row r="851" spans="4:4" ht="15.75" customHeight="1">
       <c r="D851" s="4"/>
     </row>
-    <row r="852" ht="15.75" customHeight="1">
+    <row r="852" spans="4:4" ht="15.75" customHeight="1">
       <c r="D852" s="4"/>
     </row>
-    <row r="853" ht="15.75" customHeight="1">
+    <row r="853" spans="4:4" ht="15.75" customHeight="1">
       <c r="D853" s="4"/>
     </row>
-    <row r="854" ht="15.75" customHeight="1">
+    <row r="854" spans="4:4" ht="15.75" customHeight="1">
       <c r="D854" s="4"/>
     </row>
-    <row r="855" ht="15.75" customHeight="1">
+    <row r="855" spans="4:4" ht="15.75" customHeight="1">
       <c r="D855" s="4"/>
     </row>
-    <row r="856" ht="15.75" customHeight="1">
+    <row r="856" spans="4:4" ht="15.75" customHeight="1">
       <c r="D856" s="4"/>
     </row>
-    <row r="857" ht="15.75" customHeight="1">
+    <row r="857" spans="4:4" ht="15.75" customHeight="1">
       <c r="D857" s="4"/>
     </row>
-    <row r="858" ht="15.75" customHeight="1">
+    <row r="858" spans="4:4" ht="15.75" customHeight="1">
       <c r="D858" s="4"/>
     </row>
-    <row r="859" ht="15.75" customHeight="1">
+    <row r="859" spans="4:4" ht="15.75" customHeight="1">
       <c r="D859" s="4"/>
     </row>
-    <row r="860" ht="15.75" customHeight="1">
+    <row r="860" spans="4:4" ht="15.75" customHeight="1">
       <c r="D860" s="4"/>
     </row>
-    <row r="861" ht="15.75" customHeight="1">
+    <row r="861" spans="4:4" ht="15.75" customHeight="1">
       <c r="D861" s="4"/>
     </row>
-    <row r="862" ht="15.75" customHeight="1">
+    <row r="862" spans="4:4" ht="15.75" customHeight="1">
       <c r="D862" s="4"/>
     </row>
-    <row r="863" ht="15.75" customHeight="1">
+    <row r="863" spans="4:4" ht="15.75" customHeight="1">
       <c r="D863" s="4"/>
     </row>
-    <row r="864" ht="15.75" customHeight="1">
+    <row r="864" spans="4:4" ht="15.75" customHeight="1">
       <c r="D864" s="4"/>
     </row>
-    <row r="865" ht="15.75" customHeight="1">
+    <row r="865" spans="4:4" ht="15.75" customHeight="1">
       <c r="D865" s="4"/>
     </row>
-    <row r="866" ht="15.75" customHeight="1">
+    <row r="866" spans="4:4" ht="15.75" customHeight="1">
       <c r="D866" s="4"/>
     </row>
-    <row r="867" ht="15.75" customHeight="1">
+    <row r="867" spans="4:4" ht="15.75" customHeight="1">
       <c r="D867" s="4"/>
     </row>
-    <row r="868" ht="15.75" customHeight="1">
+    <row r="868" spans="4:4" ht="15.75" customHeight="1">
       <c r="D868" s="4"/>
     </row>
-    <row r="869" ht="15.75" customHeight="1">
+    <row r="869" spans="4:4" ht="15.75" customHeight="1">
       <c r="D869" s="4"/>
     </row>
-    <row r="870" ht="15.75" customHeight="1">
+    <row r="870" spans="4:4" ht="15.75" customHeight="1">
       <c r="D870" s="4"/>
     </row>
-    <row r="871" ht="15.75" customHeight="1">
+    <row r="871" spans="4:4" ht="15.75" customHeight="1">
       <c r="D871" s="4"/>
     </row>
-    <row r="872" ht="15.75" customHeight="1">
+    <row r="872" spans="4:4" ht="15.75" customHeight="1">
       <c r="D872" s="4"/>
     </row>
-    <row r="873" ht="15.75" customHeight="1">
+    <row r="873" spans="4:4" ht="15.75" customHeight="1">
       <c r="D873" s="4"/>
     </row>
-    <row r="874" ht="15.75" customHeight="1">
+    <row r="874" spans="4:4" ht="15.75" customHeight="1">
       <c r="D874" s="4"/>
     </row>
-    <row r="875" ht="15.75" customHeight="1">
+    <row r="875" spans="4:4" ht="15.75" customHeight="1">
       <c r="D875" s="4"/>
     </row>
-    <row r="876" ht="15.75" customHeight="1">
+    <row r="876" spans="4:4" ht="15.75" customHeight="1">
       <c r="D876" s="4"/>
     </row>
-    <row r="877" ht="15.75" customHeight="1">
+    <row r="877" spans="4:4" ht="15.75" customHeight="1">
       <c r="D877" s="4"/>
     </row>
-    <row r="878" ht="15.75" customHeight="1">
+    <row r="878" spans="4:4" ht="15.75" customHeight="1">
       <c r="D878" s="4"/>
     </row>
-    <row r="879" ht="15.75" customHeight="1">
+    <row r="879" spans="4:4" ht="15.75" customHeight="1">
       <c r="D879" s="4"/>
     </row>
-    <row r="880" ht="15.75" customHeight="1">
+    <row r="880" spans="4:4" ht="15.75" customHeight="1">
       <c r="D880" s="4"/>
     </row>
-    <row r="881" ht="15.75" customHeight="1">
+    <row r="881" spans="4:4" ht="15.75" customHeight="1">
       <c r="D881" s="4"/>
     </row>
-    <row r="882" ht="15.75" customHeight="1">
+    <row r="882" spans="4:4" ht="15.75" customHeight="1">
       <c r="D882" s="4"/>
     </row>
-    <row r="883" ht="15.75" customHeight="1">
+    <row r="883" spans="4:4" ht="15.75" customHeight="1">
       <c r="D883" s="4"/>
     </row>
-    <row r="884" ht="15.75" customHeight="1">
+    <row r="884" spans="4:4" ht="15.75" customHeight="1">
       <c r="D884" s="4"/>
     </row>
-    <row r="885" ht="15.75" customHeight="1">
+    <row r="885" spans="4:4" ht="15.75" customHeight="1">
       <c r="D885" s="4"/>
     </row>
-    <row r="886" ht="15.75" customHeight="1">
+    <row r="886" spans="4:4" ht="15.75" customHeight="1">
       <c r="D886" s="4"/>
     </row>
-    <row r="887" ht="15.75" customHeight="1">
+    <row r="887" spans="4:4" ht="15.75" customHeight="1">
       <c r="D887" s="4"/>
     </row>
-    <row r="888" ht="15.75" customHeight="1">
+    <row r="888" spans="4:4" ht="15.75" customHeight="1">
       <c r="D888" s="4"/>
     </row>
-    <row r="889" ht="15.75" customHeight="1">
+    <row r="889" spans="4:4" ht="15.75" customHeight="1">
       <c r="D889" s="4"/>
     </row>
-    <row r="890" ht="15.75" customHeight="1">
+    <row r="890" spans="4:4" ht="15.75" customHeight="1">
       <c r="D890" s="4"/>
     </row>
-    <row r="891" ht="15.75" customHeight="1">
+    <row r="891" spans="4:4" ht="15.75" customHeight="1">
       <c r="D891" s="4"/>
     </row>
-    <row r="892" ht="15.75" customHeight="1">
+    <row r="892" spans="4:4" ht="15.75" customHeight="1">
       <c r="D892" s="4"/>
     </row>
-    <row r="893" ht="15.75" customHeight="1">
+    <row r="893" spans="4:4" ht="15.75" customHeight="1">
       <c r="D893" s="4"/>
     </row>
-    <row r="894" ht="15.75" customHeight="1">
+    <row r="894" spans="4:4" ht="15.75" customHeight="1">
       <c r="D894" s="4"/>
     </row>
-    <row r="895" ht="15.75" customHeight="1">
+    <row r="895" spans="4:4" ht="15.75" customHeight="1">
       <c r="D895" s="4"/>
     </row>
-    <row r="896" ht="15.75" customHeight="1">
+    <row r="896" spans="4:4" ht="15.75" customHeight="1">
       <c r="D896" s="4"/>
     </row>
-    <row r="897" ht="15.75" customHeight="1">
+    <row r="897" spans="4:4" ht="15.75" customHeight="1">
       <c r="D897" s="4"/>
     </row>
-    <row r="898" ht="15.75" customHeight="1">
+    <row r="898" spans="4:4" ht="15.75" customHeight="1">
       <c r="D898" s="4"/>
     </row>
-    <row r="899" ht="15.75" customHeight="1">
+    <row r="899" spans="4:4" ht="15.75" customHeight="1">
       <c r="D899" s="4"/>
     </row>
-    <row r="900" ht="15.75" customHeight="1">
+    <row r="900" spans="4:4" ht="15.75" customHeight="1">
       <c r="D900" s="4"/>
     </row>
-    <row r="901" ht="15.75" customHeight="1">
+    <row r="901" spans="4:4" ht="15.75" customHeight="1">
       <c r="D901" s="4"/>
     </row>
-    <row r="902" ht="15.75" customHeight="1">
+    <row r="902" spans="4:4" ht="15.75" customHeight="1">
       <c r="D902" s="4"/>
     </row>
-    <row r="903" ht="15.75" customHeight="1">
+    <row r="903" spans="4:4" ht="15.75" customHeight="1">
       <c r="D903" s="4"/>
     </row>
-    <row r="904" ht="15.75" customHeight="1">
+    <row r="904" spans="4:4" ht="15.75" customHeight="1">
       <c r="D904" s="4"/>
     </row>
-    <row r="905" ht="15.75" customHeight="1">
+    <row r="905" spans="4:4" ht="15.75" customHeight="1">
       <c r="D905" s="4"/>
     </row>
-    <row r="906" ht="15.75" customHeight="1">
+    <row r="906" spans="4:4" ht="15.75" customHeight="1">
       <c r="D906" s="4"/>
     </row>
-    <row r="907" ht="15.75" customHeight="1">
+    <row r="907" spans="4:4" ht="15.75" customHeight="1">
       <c r="D907" s="4"/>
     </row>
-    <row r="908" ht="15.75" customHeight="1">
+    <row r="908" spans="4:4" ht="15.75" customHeight="1">
       <c r="D908" s="4"/>
     </row>
-    <row r="909" ht="15.75" customHeight="1">
+    <row r="909" spans="4:4" ht="15.75" customHeight="1">
       <c r="D909" s="4"/>
     </row>
-    <row r="910" ht="15.75" customHeight="1">
+    <row r="910" spans="4:4" ht="15.75" customHeight="1">
       <c r="D910" s="4"/>
     </row>
-    <row r="911" ht="15.75" customHeight="1">
+    <row r="911" spans="4:4" ht="15.75" customHeight="1">
       <c r="D911" s="4"/>
     </row>
-    <row r="912" ht="15.75" customHeight="1">
+    <row r="912" spans="4:4" ht="15.75" customHeight="1">
       <c r="D912" s="4"/>
     </row>
-    <row r="913" ht="15.75" customHeight="1">
+    <row r="913" spans="4:4" ht="15.75" customHeight="1">
       <c r="D913" s="4"/>
     </row>
-    <row r="914" ht="15.75" customHeight="1">
+    <row r="914" spans="4:4" ht="15.75" customHeight="1">
       <c r="D914" s="4"/>
     </row>
-    <row r="915" ht="15.75" customHeight="1">
+    <row r="915" spans="4:4" ht="15.75" customHeight="1">
       <c r="D915" s="4"/>
     </row>
-    <row r="916" ht="15.75" customHeight="1">
+    <row r="916" spans="4:4" ht="15.75" customHeight="1">
       <c r="D916" s="4"/>
     </row>
-    <row r="917" ht="15.75" customHeight="1">
+    <row r="917" spans="4:4" ht="15.75" customHeight="1">
       <c r="D917" s="4"/>
     </row>
-    <row r="918" ht="15.75" customHeight="1">
+    <row r="918" spans="4:4" ht="15.75" customHeight="1">
       <c r="D918" s="4"/>
     </row>
-    <row r="919" ht="15.75" customHeight="1">
+    <row r="919" spans="4:4" ht="15.75" customHeight="1">
       <c r="D919" s="4"/>
     </row>
-    <row r="920" ht="15.75" customHeight="1">
+    <row r="920" spans="4:4" ht="15.75" customHeight="1">
       <c r="D920" s="4"/>
     </row>
-    <row r="921" ht="15.75" customHeight="1">
+    <row r="921" spans="4:4" ht="15.75" customHeight="1">
       <c r="D921" s="4"/>
     </row>
-    <row r="922" ht="15.75" customHeight="1">
+    <row r="922" spans="4:4" ht="15.75" customHeight="1">
       <c r="D922" s="4"/>
     </row>
-    <row r="923" ht="15.75" customHeight="1">
+    <row r="923" spans="4:4" ht="15.75" customHeight="1">
       <c r="D923" s="4"/>
     </row>
-    <row r="924" ht="15.75" customHeight="1">
+    <row r="924" spans="4:4" ht="15.75" customHeight="1">
       <c r="D924" s="4"/>
     </row>
-    <row r="925" ht="15.75" customHeight="1">
+    <row r="925" spans="4:4" ht="15.75" customHeight="1">
       <c r="D925" s="4"/>
     </row>
-    <row r="926" ht="15.75" customHeight="1">
+    <row r="926" spans="4:4" ht="15.75" customHeight="1">
       <c r="D926" s="4"/>
     </row>
-    <row r="927" ht="15.75" customHeight="1">
+    <row r="927" spans="4:4" ht="15.75" customHeight="1">
       <c r="D927" s="4"/>
     </row>
-    <row r="928" ht="15.75" customHeight="1">
+    <row r="928" spans="4:4" ht="15.75" customHeight="1">
       <c r="D928" s="4"/>
     </row>
-    <row r="929" ht="15.75" customHeight="1">
+    <row r="929" spans="4:4" ht="15.75" customHeight="1">
       <c r="D929" s="4"/>
     </row>
-    <row r="930" ht="15.75" customHeight="1">
+    <row r="930" spans="4:4" ht="15.75" customHeight="1">
       <c r="D930" s="4"/>
     </row>
-    <row r="931" ht="15.75" customHeight="1">
+    <row r="931" spans="4:4" ht="15.75" customHeight="1">
       <c r="D931" s="4"/>
     </row>
-    <row r="932" ht="15.75" customHeight="1">
+    <row r="932" spans="4:4" ht="15.75" customHeight="1">
       <c r="D932" s="4"/>
     </row>
-    <row r="933" ht="15.75" customHeight="1">
+    <row r="933" spans="4:4" ht="15.75" customHeight="1">
       <c r="D933" s="4"/>
     </row>
-    <row r="934" ht="15.75" customHeight="1">
+    <row r="934" spans="4:4" ht="15.75" customHeight="1">
       <c r="D934" s="4"/>
     </row>
-    <row r="935" ht="15.75" customHeight="1">
+    <row r="935" spans="4:4" ht="15.75" customHeight="1">
       <c r="D935" s="4"/>
     </row>
-    <row r="936" ht="15.75" customHeight="1">
+    <row r="936" spans="4:4" ht="15.75" customHeight="1">
       <c r="D936" s="4"/>
     </row>
-    <row r="937" ht="15.75" customHeight="1">
+    <row r="937" spans="4:4" ht="15.75" customHeight="1">
       <c r="D937" s="4"/>
     </row>
-    <row r="938" ht="15.75" customHeight="1">
+    <row r="938" spans="4:4" ht="15.75" customHeight="1">
       <c r="D938" s="4"/>
     </row>
-    <row r="939" ht="15.75" customHeight="1">
+    <row r="939" spans="4:4" ht="15.75" customHeight="1">
       <c r="D939" s="4"/>
     </row>
-    <row r="940" ht="15.75" customHeight="1">
+    <row r="940" spans="4:4" ht="15.75" customHeight="1">
       <c r="D940" s="4"/>
     </row>
-    <row r="941" ht="15.75" customHeight="1">
+    <row r="941" spans="4:4" ht="15.75" customHeight="1">
       <c r="D941" s="4"/>
     </row>
-    <row r="942" ht="15.75" customHeight="1">
+    <row r="942" spans="4:4" ht="15.75" customHeight="1">
       <c r="D942" s="4"/>
     </row>
-    <row r="943" ht="15.75" customHeight="1">
+    <row r="943" spans="4:4" ht="15.75" customHeight="1">
       <c r="D943" s="4"/>
     </row>
-    <row r="944" ht="15.75" customHeight="1">
+    <row r="944" spans="4:4" ht="15.75" customHeight="1">
       <c r="D944" s="4"/>
     </row>
-    <row r="945" ht="15.75" customHeight="1">
+    <row r="945" spans="4:4" ht="15.75" customHeight="1">
       <c r="D945" s="4"/>
     </row>
-    <row r="946" ht="15.75" customHeight="1">
+    <row r="946" spans="4:4" ht="15.75" customHeight="1">
       <c r="D946" s="4"/>
     </row>
-    <row r="947" ht="15.75" customHeight="1">
+    <row r="947" spans="4:4" ht="15.75" customHeight="1">
       <c r="D947" s="4"/>
     </row>
-    <row r="948" ht="15.75" customHeight="1">
+    <row r="948" spans="4:4" ht="15.75" customHeight="1">
       <c r="D948" s="4"/>
     </row>
-    <row r="949" ht="15.75" customHeight="1">
+    <row r="949" spans="4:4" ht="15.75" customHeight="1">
       <c r="D949" s="4"/>
     </row>
-    <row r="950" ht="15.75" customHeight="1">
+    <row r="950" spans="4:4" ht="15.75" customHeight="1">
       <c r="D950" s="4"/>
     </row>
-    <row r="951" ht="15.75" customHeight="1">
+    <row r="951" spans="4:4" ht="15.75" customHeight="1">
       <c r="D951" s="4"/>
     </row>
-    <row r="952" ht="15.75" customHeight="1">
+    <row r="952" spans="4:4" ht="15.75" customHeight="1">
       <c r="D952" s="4"/>
     </row>
-    <row r="953" ht="15.75" customHeight="1">
+    <row r="953" spans="4:4" ht="15.75" customHeight="1">
       <c r="D953" s="4"/>
     </row>
-    <row r="954" ht="15.75" customHeight="1">
+    <row r="954" spans="4:4" ht="15.75" customHeight="1">
       <c r="D954" s="4"/>
     </row>
-    <row r="955" ht="15.75" customHeight="1">
+    <row r="955" spans="4:4" ht="15.75" customHeight="1">
       <c r="D955" s="4"/>
     </row>
-    <row r="956" ht="15.75" customHeight="1">
+    <row r="956" spans="4:4" ht="15.75" customHeight="1">
       <c r="D956" s="4"/>
     </row>
-    <row r="957" ht="15.75" customHeight="1">
+    <row r="957" spans="4:4" ht="15.75" customHeight="1">
       <c r="D957" s="4"/>
     </row>
-    <row r="958" ht="15.75" customHeight="1">
+    <row r="958" spans="4:4" ht="15.75" customHeight="1">
       <c r="D958" s="4"/>
     </row>
-    <row r="959" ht="15.75" customHeight="1">
+    <row r="959" spans="4:4" ht="15.75" customHeight="1">
       <c r="D959" s="4"/>
     </row>
-    <row r="960" ht="15.75" customHeight="1">
+    <row r="960" spans="4:4" ht="15.75" customHeight="1">
       <c r="D960" s="4"/>
     </row>
-    <row r="961" ht="15.75" customHeight="1">
+    <row r="961" spans="4:4" ht="15.75" customHeight="1">
       <c r="D961" s="4"/>
     </row>
-    <row r="962" ht="15.75" customHeight="1">
+    <row r="962" spans="4:4" ht="15.75" customHeight="1">
       <c r="D962" s="4"/>
     </row>
-    <row r="963" ht="15.75" customHeight="1">
+    <row r="963" spans="4:4" ht="15.75" customHeight="1">
       <c r="D963" s="4"/>
     </row>
-    <row r="964" ht="15.75" customHeight="1">
+    <row r="964" spans="4:4" ht="15.75" customHeight="1">
       <c r="D964" s="4"/>
     </row>
-    <row r="965" ht="15.75" customHeight="1">
+    <row r="965" spans="4:4" ht="15.75" customHeight="1">
       <c r="D965" s="4"/>
     </row>
-    <row r="966" ht="15.75" customHeight="1">
+    <row r="966" spans="4:4" ht="15.75" customHeight="1">
       <c r="D966" s="4"/>
     </row>
-    <row r="967" ht="15.75" customHeight="1">
+    <row r="967" spans="4:4" ht="15.75" customHeight="1">
       <c r="D967" s="4"/>
     </row>
-    <row r="968" ht="15.75" customHeight="1">
+    <row r="968" spans="4:4" ht="15.75" customHeight="1">
       <c r="D968" s="4"/>
     </row>
-    <row r="969" ht="15.75" customHeight="1">
+    <row r="969" spans="4:4" ht="15.75" customHeight="1">
       <c r="D969" s="4"/>
     </row>
-    <row r="970" ht="15.75" customHeight="1">
+    <row r="970" spans="4:4" ht="15.75" customHeight="1">
       <c r="D970" s="4"/>
     </row>
-    <row r="971" ht="15.75" customHeight="1">
+    <row r="971" spans="4:4" ht="15.75" customHeight="1">
       <c r="D971" s="4"/>
     </row>
-    <row r="972" ht="15.75" customHeight="1">
+    <row r="972" spans="4:4" ht="15.75" customHeight="1">
       <c r="D972" s="4"/>
     </row>
-    <row r="973" ht="15.75" customHeight="1">
+    <row r="973" spans="4:4" ht="15.75" customHeight="1">
       <c r="D973" s="4"/>
     </row>
-    <row r="974" ht="15.75" customHeight="1">
+    <row r="974" spans="4:4" ht="15.75" customHeight="1">
       <c r="D974" s="4"/>
     </row>
-    <row r="975" ht="15.75" customHeight="1">
+    <row r="975" spans="4:4" ht="15.75" customHeight="1">
       <c r="D975" s="4"/>
     </row>
-    <row r="976" ht="15.75" customHeight="1">
+    <row r="976" spans="4:4" ht="15.75" customHeight="1">
       <c r="D976" s="4"/>
     </row>
-    <row r="977" ht="15.75" customHeight="1">
+    <row r="977" spans="4:4" ht="15.75" customHeight="1">
       <c r="D977" s="4"/>
     </row>
-    <row r="978" ht="15.75" customHeight="1">
+    <row r="978" spans="4:4" ht="15.75" customHeight="1">
       <c r="D978" s="4"/>
     </row>
-    <row r="979" ht="15.75" customHeight="1">
+    <row r="979" spans="4:4" ht="15.75" customHeight="1">
       <c r="D979" s="4"/>
     </row>
-    <row r="980" ht="15.75" customHeight="1">
+    <row r="980" spans="4:4" ht="15.75" customHeight="1">
       <c r="D980" s="4"/>
     </row>
-    <row r="981" ht="15.75" customHeight="1">
+    <row r="981" spans="4:4" ht="15.75" customHeight="1">
       <c r="D981" s="4"/>
     </row>
-    <row r="982" ht="15.75" customHeight="1">
+    <row r="982" spans="4:4" ht="15.75" customHeight="1">
       <c r="D982" s="4"/>
     </row>
-    <row r="983" ht="15.75" customHeight="1">
+    <row r="983" spans="4:4" ht="15.75" customHeight="1">
       <c r="D983" s="4"/>
     </row>
-    <row r="984" ht="15.75" customHeight="1">
+    <row r="984" spans="4:4" ht="15.75" customHeight="1">
       <c r="D984" s="4"/>
     </row>
-    <row r="985" ht="15.75" customHeight="1">
+    <row r="985" spans="4:4" ht="15.75" customHeight="1">
       <c r="D985" s="4"/>
     </row>
-    <row r="986" ht="15.75" customHeight="1">
+    <row r="986" spans="4:4" ht="15.75" customHeight="1">
       <c r="D986" s="4"/>
     </row>
-    <row r="987" ht="15.75" customHeight="1">
+    <row r="987" spans="4:4" ht="15.75" customHeight="1">
       <c r="D987" s="4"/>
     </row>
-    <row r="988" ht="15.75" customHeight="1">
+    <row r="988" spans="4:4" ht="15.75" customHeight="1">
       <c r="D988" s="4"/>
     </row>
-    <row r="989" ht="15.75" customHeight="1">
+    <row r="989" spans="4:4" ht="15.75" customHeight="1">
       <c r="D989" s="4"/>
     </row>
-    <row r="990" ht="15.75" customHeight="1">
+    <row r="990" spans="4:4" ht="15.75" customHeight="1">
       <c r="D990" s="4"/>
     </row>
-    <row r="991" ht="15.75" customHeight="1">
+    <row r="991" spans="4:4" ht="15.75" customHeight="1">
       <c r="D991" s="4"/>
     </row>
-    <row r="992" ht="15.75" customHeight="1">
+    <row r="992" spans="4:4" ht="15.75" customHeight="1">
       <c r="D992" s="4"/>
     </row>
-    <row r="993" ht="15.75" customHeight="1">
+    <row r="993" spans="4:4" ht="15.75" customHeight="1">
       <c r="D993" s="4"/>
     </row>
-    <row r="994" ht="15.75" customHeight="1">
+    <row r="994" spans="4:4" ht="15.75" customHeight="1">
       <c r="D994" s="4"/>
     </row>
-    <row r="995" ht="15.75" customHeight="1">
+    <row r="995" spans="4:4" ht="15.75" customHeight="1">
       <c r="D995" s="4"/>
     </row>
-    <row r="996" ht="15.75" customHeight="1">
+    <row r="996" spans="4:4" ht="15.75" customHeight="1">
       <c r="D996" s="4"/>
     </row>
-    <row r="997" ht="15.75" customHeight="1">
+    <row r="997" spans="4:4" ht="15.75" customHeight="1">
       <c r="D997" s="4"/>
     </row>
-    <row r="998" ht="15.75" customHeight="1">
+    <row r="998" spans="4:4" ht="15.75" customHeight="1">
       <c r="D998" s="4"/>
     </row>
-    <row r="999" ht="15.75" customHeight="1">
+    <row r="999" spans="4:4" ht="15.75" customHeight="1">
       <c r="D999" s="4"/>
     </row>
-    <row r="1000" ht="15.75" customHeight="1">
+    <row r="1000" spans="4:4" ht="15.75" customHeight="1">
       <c r="D1000" s="4"/>
     </row>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:D1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="26" width="10.71"/>
+    <col min="1" max="26" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>43</v>
       </c>
@@ -6276,7 +6436,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -6284,13 +6444,13 @@
         <v>11</v>
       </c>
       <c r="C2" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
@@ -6304,7 +6464,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
         <v>23</v>
       </c>
@@ -6318,7 +6478,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
@@ -6326,13 +6486,13 @@
         <v>17</v>
       </c>
       <c r="C5" s="1">
-        <v>5375.376</v>
+        <v>5375.3760000000002</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
         <v>24</v>
       </c>
@@ -6346,7 +6506,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
         <v>25</v>
       </c>
@@ -6360,7 +6520,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
@@ -6374,7 +6534,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
         <v>29</v>
       </c>
@@ -6382,13 +6542,13 @@
         <v>11</v>
       </c>
       <c r="C9" s="1">
-        <v>2662.227</v>
+        <v>2662.2269999999999</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
         <v>30</v>
       </c>
@@ -6396,13 +6556,13 @@
         <v>11</v>
       </c>
       <c r="C10" s="1">
-        <v>443.394</v>
+        <v>443.39400000000001</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
         <v>31</v>
       </c>
@@ -6416,7 +6576,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
         <v>32</v>
       </c>
@@ -6424,13 +6584,13 @@
         <v>11</v>
       </c>
       <c r="C12" s="1">
-        <v>2691.0</v>
+        <v>2691</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
         <v>33</v>
       </c>
@@ -6438,13 +6598,13 @@
         <v>17</v>
       </c>
       <c r="C13" s="1">
-        <v>559.521</v>
+        <v>559.52099999999996</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
@@ -6452,13 +6612,13 @@
         <v>17</v>
       </c>
       <c r="C14" s="1">
-        <v>2538.441</v>
+        <v>2538.4409999999998</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
         <v>34</v>
       </c>
@@ -6466,13 +6626,13 @@
         <v>17</v>
       </c>
       <c r="C15" s="1">
-        <v>2891.376</v>
+        <v>2891.3760000000002</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
         <v>35</v>
       </c>
@@ -6486,7 +6646,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -6500,7 +6660,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
         <v>36</v>
       </c>
@@ -6514,7 +6674,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
         <v>37</v>
       </c>
@@ -6522,13 +6682,13 @@
         <v>24</v>
       </c>
       <c r="C19" s="1">
-        <v>3234.996</v>
+        <v>3234.9960000000001</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
         <v>38</v>
       </c>
@@ -6542,7 +6702,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
+    <row r="21" spans="1:4" ht="15.75" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>39</v>
       </c>
@@ -6550,13 +6710,13 @@
         <v>17</v>
       </c>
       <c r="C21" s="1">
-        <v>2785.185</v>
+        <v>2785.1849999999999</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
+    <row r="22" spans="1:4" ht="15.75" customHeight="1">
       <c r="A22" s="1" t="s">
         <v>40</v>
       </c>
@@ -6570,7 +6730,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
+    <row r="23" spans="1:4" ht="15.75" customHeight="1">
       <c r="A23" s="1" t="s">
         <v>41</v>
       </c>
@@ -6584,7 +6744,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="24" ht="15.75" customHeight="1">
+    <row r="24" spans="1:4" ht="15.75" customHeight="1">
       <c r="A24" s="1" t="s">
         <v>42</v>
       </c>
@@ -6598,7 +6758,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" ht="15.75" customHeight="1">
+    <row r="25" spans="1:4" ht="15.75" customHeight="1">
       <c r="A25" s="1" t="s">
         <v>11</v>
       </c>
@@ -6606,13 +6766,13 @@
         <v>11</v>
       </c>
       <c r="C25" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="26" ht="15.75" customHeight="1">
+    <row r="26" spans="1:4" ht="15.75" customHeight="1">
       <c r="A26" s="1" t="s">
         <v>11</v>
       </c>
@@ -6620,13 +6780,13 @@
         <v>18</v>
       </c>
       <c r="C26" s="1">
-        <v>251.528</v>
+        <v>251.52799999999999</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="27" ht="15.75" customHeight="1">
+    <row r="27" spans="1:4" ht="15.75" customHeight="1">
       <c r="A27" s="1" t="s">
         <v>11</v>
       </c>
@@ -6640,7 +6800,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="28" ht="15.75" customHeight="1">
+    <row r="28" spans="1:4" ht="15.75" customHeight="1">
       <c r="A28" s="1" t="s">
         <v>17</v>
       </c>
@@ -6648,13 +6808,13 @@
         <v>17</v>
       </c>
       <c r="C28" s="1">
-        <v>597.264</v>
+        <v>597.26400000000001</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="29" ht="15.75" customHeight="1">
+    <row r="29" spans="1:4" ht="15.75" customHeight="1">
       <c r="A29" s="1" t="s">
         <v>24</v>
       </c>
@@ -6668,7 +6828,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="30" ht="15.75" customHeight="1">
+    <row r="30" spans="1:4" ht="15.75" customHeight="1">
       <c r="A30" s="1" t="s">
         <v>11</v>
       </c>
@@ -6676,13 +6836,13 @@
         <v>25</v>
       </c>
       <c r="C30" s="1">
-        <v>323.472</v>
+        <v>323.47199999999998</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="31" ht="15.75" customHeight="1">
+    <row r="31" spans="1:4" ht="15.75" customHeight="1">
       <c r="A31" s="1" t="s">
         <v>11</v>
       </c>
@@ -6696,7 +6856,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="32" ht="15.75" customHeight="1">
+    <row r="32" spans="1:4" ht="15.75" customHeight="1">
       <c r="A32" s="1" t="s">
         <v>11</v>
       </c>
@@ -6710,7 +6870,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="33" ht="15.75" customHeight="1">
+    <row r="33" spans="1:4" ht="15.75" customHeight="1">
       <c r="A33" s="1" t="s">
         <v>11</v>
       </c>
@@ -6718,13 +6878,13 @@
         <v>30</v>
       </c>
       <c r="C33" s="1">
-        <v>49.266</v>
+        <v>49.265999999999998</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="34" ht="15.75" customHeight="1">
+    <row r="34" spans="1:4" ht="15.75" customHeight="1">
       <c r="A34" s="1" t="s">
         <v>17</v>
       </c>
@@ -6732,13 +6892,13 @@
         <v>31</v>
       </c>
       <c r="C34" s="1">
-        <v>315.905</v>
+        <v>315.90499999999997</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="35" ht="15.75" customHeight="1">
+    <row r="35" spans="1:4" ht="15.75" customHeight="1">
       <c r="A35" s="1" t="s">
         <v>11</v>
       </c>
@@ -6746,13 +6906,13 @@
         <v>32</v>
       </c>
       <c r="C35" s="1">
-        <v>299.0</v>
+        <v>299</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="36" ht="15.75" customHeight="1">
+    <row r="36" spans="1:4" ht="15.75" customHeight="1">
       <c r="A36" s="1" t="s">
         <v>17</v>
       </c>
@@ -6760,13 +6920,13 @@
         <v>33</v>
       </c>
       <c r="C36" s="1">
-        <v>62.169</v>
+        <v>62.168999999999997</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="37" ht="15.75" customHeight="1">
+    <row r="37" spans="1:4" ht="15.75" customHeight="1">
       <c r="A37" s="1" t="s">
         <v>17</v>
       </c>
@@ -6774,13 +6934,13 @@
         <v>22</v>
       </c>
       <c r="C37" s="1">
-        <v>282.049</v>
+        <v>282.04899999999998</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="38" ht="15.75" customHeight="1">
+    <row r="38" spans="1:4" ht="15.75" customHeight="1">
       <c r="A38" s="1" t="s">
         <v>17</v>
       </c>
@@ -6788,13 +6948,13 @@
         <v>34</v>
       </c>
       <c r="C38" s="1">
-        <v>321.264</v>
+        <v>321.26400000000001</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="39" ht="15.75" customHeight="1">
+    <row r="39" spans="1:4" ht="15.75" customHeight="1">
       <c r="A39" s="1" t="s">
         <v>17</v>
       </c>
@@ -6808,7 +6968,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="40" ht="15.75" customHeight="1">
+    <row r="40" spans="1:4" ht="15.75" customHeight="1">
       <c r="A40" s="1" t="s">
         <v>17</v>
       </c>
@@ -6822,7 +6982,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="41" ht="15.75" customHeight="1">
+    <row r="41" spans="1:4" ht="15.75" customHeight="1">
       <c r="A41" s="1" t="s">
         <v>17</v>
       </c>
@@ -6836,7 +6996,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="42" ht="15.75" customHeight="1">
+    <row r="42" spans="1:4" ht="15.75" customHeight="1">
       <c r="A42" s="1" t="s">
         <v>24</v>
       </c>
@@ -6844,13 +7004,13 @@
         <v>37</v>
       </c>
       <c r="C42" s="1">
-        <v>359.444</v>
+        <v>359.44400000000002</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="43" ht="15.75" customHeight="1">
+    <row r="43" spans="1:4" ht="15.75" customHeight="1">
       <c r="A43" s="1" t="s">
         <v>17</v>
       </c>
@@ -6858,13 +7018,13 @@
         <v>38</v>
       </c>
       <c r="C43" s="1">
-        <v>360.778</v>
+        <v>360.77800000000002</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="44" ht="15.75" customHeight="1">
+    <row r="44" spans="1:4" ht="15.75" customHeight="1">
       <c r="A44" s="1" t="s">
         <v>17</v>
       </c>
@@ -6872,13 +7032,13 @@
         <v>39</v>
       </c>
       <c r="C44" s="1">
-        <v>309.465</v>
+        <v>309.46499999999997</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="45" ht="15.75" customHeight="1">
+    <row r="45" spans="1:4" ht="15.75" customHeight="1">
       <c r="A45" s="1" t="s">
         <v>24</v>
       </c>
@@ -6892,7 +7052,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="46" ht="15.75" customHeight="1">
+    <row r="46" spans="1:4" ht="15.75" customHeight="1">
       <c r="A46" s="1" t="s">
         <v>11</v>
       </c>
@@ -6900,13 +7060,13 @@
         <v>41</v>
       </c>
       <c r="C46" s="1">
-        <v>359.467</v>
+        <v>359.46699999999998</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="47" ht="15.75" customHeight="1">
+    <row r="47" spans="1:4" ht="15.75" customHeight="1">
       <c r="A47" s="1" t="s">
         <v>11</v>
       </c>
@@ -6920,7 +7080,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="48" ht="15.75" customHeight="1"/>
+    <row r="48" spans="1:4" ht="15.75" customHeight="1"/>
     <row r="49" ht="15.75" customHeight="1"/>
     <row r="50" ht="15.75" customHeight="1"/>
     <row r="51" ht="15.75" customHeight="1"/>
@@ -7874,9 +8034,639 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F99C48B-91B0-4645-AB55-A73FEC492F5B}">
+  <dimension ref="A1:E33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5" ht="16">
+      <c r="A1" s="5"/>
+      <c r="B1" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="7"/>
+      <c r="D1" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="7"/>
+    </row>
+    <row r="2" spans="1:5" ht="16">
+      <c r="A2" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="6">
+        <f>14*3.9 / 320</f>
+        <v>0.170625</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="8">
+        <f>6*2.6 / 320</f>
+        <v>4.8750000000000002E-2</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="16">
+      <c r="A3" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="9">
+        <f>3*3.1  / 320</f>
+        <v>2.9062500000000002E-2</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="8">
+        <f>1*3.1  / 320</f>
+        <v>9.6874999999999999E-3</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="16">
+      <c r="A4" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="6">
+        <f>(2*0.016 + 168 * 1 + 17*5 + 16*168)/ 320</f>
+        <v>9.1907250000000005</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="8">
+        <f>(2*0.016 + 36 * 1 + 4*5 + 4*36)/ 320</f>
+        <v>0.62509999999999999</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="16">
+      <c r="A5" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="6">
+        <v>1</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="8">
+        <f>2*0.016 / 320</f>
+        <v>1E-4</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="16">
+      <c r="A6" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="6">
+        <f>2*0.016 / 320</f>
+        <v>1E-4</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="8">
+        <f>36*1  / 320</f>
+        <v>0.1125</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="16">
+      <c r="A7" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="6">
+        <v>625</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="8">
+        <f>4*5 / 320</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="16">
+      <c r="A8" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" s="6">
+        <f>168*1  / 320</f>
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="8">
+        <f>4*36 / 320</f>
+        <v>0.45</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="16">
+      <c r="A9" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="6">
+        <f>17*5 / 320</f>
+        <v>0.265625</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="8">
+        <f>8*3.9 / 1280</f>
+        <v>2.4375000000000001E-2</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="16">
+      <c r="A10" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" s="6">
+        <f>5*3.1 / 1280</f>
+        <v>1.2109375E-2</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="8">
+        <f>2*3.1 / 1280</f>
+        <v>4.84375E-3</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="16">
+      <c r="A11" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" s="6">
+        <f>(2*0.016 + 636*1 + 64*5 + 32*636) / 1280</f>
+        <v>16.646899999999999</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="8">
+        <f>(2*0.016 + 96*1 + 10*5 + 4*96) / 1280</f>
+        <v>0.41408749999999994</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="16">
+      <c r="A12" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" s="6">
+        <f>2*0.016 / 1280</f>
+        <v>2.5000000000000001E-5</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="8">
+        <f>2*0.016 / 1280</f>
+        <v>2.5000000000000001E-5</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="16">
+      <c r="A13" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" s="6">
+        <f>636*1  / 1280</f>
+        <v>0.49687500000000001</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="8">
+        <f>96*1  / 1280</f>
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="16">
+      <c r="A14" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" s="6">
+        <f>64*5 / 1280</f>
+        <v>0.25</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="8">
+        <f>10*5 / 1280</f>
+        <v>3.90625E-2</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="16">
+      <c r="A15" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15" s="6">
+        <f>32*636 / 1280</f>
+        <v>15.9</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="8">
+        <f>4*96 / 1280</f>
+        <v>0.3</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="16">
+      <c r="A16" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B16" s="6">
+        <f>14*1100 / 320</f>
+        <v>48.125</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="8">
+        <f>6*750 / 320</f>
+        <v>14.0625</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="16">
+      <c r="A17" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17" s="10">
+        <f>1*140 / 320</f>
+        <v>0.4375</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="8">
+        <f>1*140 / 320</f>
+        <v>0.4375</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="16">
+      <c r="A18" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B18" s="10">
+        <f>(2*1.5 + 168*58 + 17*95 + 300*168) / 320</f>
+        <v>193.00624999999999</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="8">
+        <f>(2*1.5 + 36*58 + 4*95 + 300*36) / 320</f>
+        <v>41.471874999999997</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="16">
+      <c r="A19" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" s="10">
+        <f>2*1.5 / 320</f>
+        <v>9.3749999999999997E-3</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" s="8">
+        <f>2*1.5 / 320</f>
+        <v>9.3749999999999997E-3</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="16">
+      <c r="A20" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B20" s="10">
+        <f>168*58  / 320</f>
+        <v>30.45</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" s="8">
+        <f>36*58  / 320</f>
+        <v>6.5250000000000004</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="16">
+      <c r="A21" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B21" s="10">
+        <f>17*95 / 320</f>
+        <v>5.046875</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21" s="8">
+        <f>4*95 / 320</f>
+        <v>1.1875</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="16">
+      <c r="A22" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B22" s="10">
+        <f>300*168 / 320</f>
+        <v>157.5</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" s="8">
+        <f>300*36 / 320</f>
+        <v>33.75</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="16">
+      <c r="A23" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B23" s="10">
+        <f>53*1100 / 1280</f>
+        <v>45.546875</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" s="8">
+        <f>8*1100 / 1280</f>
+        <v>6.875</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="16">
+      <c r="A24" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B24" s="10">
+        <f>5*200 / 1280</f>
+        <v>0.78125</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D24" s="8">
+        <f>2*140 / 1280</f>
+        <v>0.21875</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="16">
+      <c r="A25" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B25" s="10">
+        <f>(2*1.5 + 636*58 + 64*95 + 1100*636) / 1280</f>
+        <v>580.13359375000005</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" s="8">
+        <f>(2*1.5 + 96*58 + 10*95 + 300*96) / 1280</f>
+        <v>27.594531249999999</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="16">
+      <c r="A26" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B26" s="10">
+        <f>2*1.5 / 1280</f>
+        <v>2.3437499999999999E-3</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26" s="8">
+        <f>2*1.5 / 1280</f>
+        <v>2.3437499999999999E-3</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="16">
+      <c r="A27" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B27" s="10">
+        <f>636*58  / 1280</f>
+        <v>28.818750000000001</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D27" s="11">
+        <f>96*58  / 1280</f>
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="16">
+      <c r="A28" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B28" s="10">
+        <f>64*95 / 1280</f>
+        <v>4.75</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D28" s="11">
+        <f>10*95 / 1280</f>
+        <v>0.7421875</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="16">
+      <c r="A29" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B29" s="10">
+        <f>1100*96 / 1280</f>
+        <v>82.5</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D29" s="11">
+        <f>300*96 / 1280</f>
+        <v>22.5</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="16">
+      <c r="A30" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B30" s="10">
+        <f>1344*14/320</f>
+        <v>58.8</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D30" s="11">
+        <f>288*6/320</f>
+        <v>5.4</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="16">
+      <c r="A31" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B31" s="10">
+        <f>5088*53/1280</f>
+        <v>210.67500000000001</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D31" s="11">
+        <f>768*8/1280</f>
+        <v>4.8</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="16">
+      <c r="A32" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B32" s="10">
+        <f>120*3/320</f>
+        <v>1.125</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D32" s="11">
+        <f>40*1/320</f>
+        <v>0.125</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="16">
+      <c r="A33" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B33" s="10">
+        <f>600*5/1280</f>
+        <v>2.34375</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D33" s="11">
+        <f>120*2/1280</f>
+        <v>0.1875</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>